--- a/Attendance/source_attendance.xlsx
+++ b/Attendance/source_attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\python_scripts\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panqingrong/python-scripts/python_scripts/Attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A69EA-DC2E-4CF9-872A-9369C8C3BCB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B55E7DAD-F363-7F44-9FC3-198C19CDA2BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" tabRatio="525" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23460" windowHeight="12680" tabRatio="525" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team-List" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="April-19" sheetId="9" state="hidden" r:id="rId6"/>
     <sheet name="May-19" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="June-19" sheetId="5" state="hidden" r:id="rId8"/>
-    <sheet name="7" sheetId="15" r:id="rId9"/>
+    <sheet name="07" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'April-19'!$A$1:$AF$21</definedName>
@@ -546,7 +546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -581,7 +581,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -641,7 +641,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -669,7 +669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -698,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -984,7 +984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1028,7 +1028,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1136,7 +1136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1163,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1184,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1205,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1222,7 +1222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1239,7 +1239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1614,13 +1614,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1628,7 +1628,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1684,7 +1684,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1692,7 +1692,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1712,7 +1712,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1720,21 +1720,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1742,7 +1742,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1751,7 +1751,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1759,7 +1759,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1784,7 +1784,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2660,26 +2660,26 @@
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2688,7 +2688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2716,10 +2716,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2801,7 +2801,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3300,76 +3300,55 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3379,6 +3358,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3417,94 +3414,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3545,49 +3507,99 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3618,12 +3630,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3642,38 +3648,44 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3686,51 +3698,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="39" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3768,23 +3735,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3795,16 +3783,28 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3819,17 +3819,113 @@
     <xf numFmtId="9" fontId="21" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3847,15 +3943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3909,101 +3996,15 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8E4A8B2A-71E2-4B52-A572-F41155F99D3E}"/>
     <cellStyle name="Normal 2 2 2" xfId="10" xr:uid="{396E8754-B57F-4CD6-A389-A8FBADAEA0D7}"/>
     <cellStyle name="Normal 2 3" xfId="8" xr:uid="{D01EFF5E-A6B8-4917-9BC8-5D95D718402D}"/>
     <cellStyle name="Normal 2 3 2" xfId="13" xr:uid="{F20AA718-3967-488C-83BD-2081863B45A2}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规 2 2" xfId="4" xr:uid="{7512AD19-A557-4F86-93BC-D68856121F63}"/>
     <cellStyle name="常规 2 2 2" xfId="11" xr:uid="{448543FE-1F5B-446E-9B1A-19E4A34C0423}"/>
@@ -4012,7 +4013,6 @@
     <cellStyle name="常规 3" xfId="5" xr:uid="{6F2052CE-E0A1-44D6-9078-B487EFCCD427}"/>
     <cellStyle name="常规 4" xfId="7" xr:uid="{E95BC0A4-CDF3-48AD-9CA2-CDD6A8033D63}"/>
     <cellStyle name="常规 4 2" xfId="12" xr:uid="{8002EA5C-0239-4D44-9275-7241CF17C4B8}"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4322,20 +4322,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="24" customWidth="1"/>
     <col min="4" max="4" width="18" style="24" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="87" customFormat="1">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="218" customFormat="1" ht="14">
       <c r="A2" s="189" t="s">
         <v>9</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="218" customFormat="1" ht="14">
       <c r="A3" s="189" t="s">
         <v>9</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="218" customFormat="1" ht="14">
       <c r="A4" s="189" t="s">
         <v>9</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="218" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="218" customFormat="1" ht="14">
       <c r="A5" s="189" t="s">
         <v>9</v>
       </c>
@@ -4499,19 +4499,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.350000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17">
       <c r="A1" s="291" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="291"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="79" t="s">
         <v>25</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="83" t="s">
         <v>29</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="81" t="s">
         <v>31</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="81" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="81" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="81" t="s">
         <v>37</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="81" t="s">
         <v>39</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="83" t="s">
         <v>29</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>43737</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="81" t="s">
         <v>41</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="83" t="s">
         <v>29</v>
       </c>
@@ -4599,13 +4599,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="81"/>
       <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16">
       <c r="A16" s="83"/>
       <c r="B16" t="s">
         <v>29</v>
@@ -4638,22 +4638,22 @@
       <selection pane="bottomRight" activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" customWidth="1"/>
-    <col min="17" max="26" width="12.109375" customWidth="1"/>
+    <col min="3" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="26" width="12.1640625" customWidth="1"/>
     <col min="27" max="27" width="15" customWidth="1"/>
-    <col min="28" max="29" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="14.5546875" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="28" max="29" width="12.1640625" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" customWidth="1"/>
+    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="32" max="32" width="15.1640625" customWidth="1"/>
     <col min="33" max="33" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" ht="15" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="JI1" s="7"/>
       <c r="JJ1" s="7"/>
     </row>
-    <row r="2" spans="1:270" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" s="58" customFormat="1">
       <c r="A2" s="61" t="s">
         <v>46</v>
       </c>
@@ -4999,46 +4999,46 @@
         <v>23</v>
       </c>
       <c r="C2" s="63"/>
-      <c r="D2" s="338" t="s">
+      <c r="D2" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="339"/>
-      <c r="F2" s="340"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="294"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
-      <c r="I2" s="338" t="s">
+      <c r="I2" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="340"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="294"/>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
-      <c r="P2" s="338" t="s">
+      <c r="P2" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="339"/>
-      <c r="S2" s="339"/>
-      <c r="T2" s="340"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="294"/>
       <c r="U2" s="64"/>
       <c r="V2" s="64"/>
-      <c r="W2" s="338" t="s">
+      <c r="W2" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="339"/>
-      <c r="Z2" s="339"/>
-      <c r="AA2" s="340"/>
+      <c r="X2" s="293"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="294"/>
       <c r="AB2" s="64"/>
       <c r="AC2" s="64"/>
-      <c r="AD2" s="341" t="s">
+      <c r="AD2" s="295" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="342"/>
-      <c r="AF2" s="342"/>
-      <c r="AG2" s="343"/>
+      <c r="AE2" s="296"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="297"/>
       <c r="AH2" s="78"/>
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
@@ -5277,11 +5277,11 @@
       <c r="JI2" s="78"/>
       <c r="JJ2" s="78"/>
     </row>
-    <row r="3" spans="1:270" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+    <row r="3" spans="1:270" s="58" customFormat="1">
+      <c r="A3" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="317" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="65"/>
@@ -5298,11 +5298,11 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="310" t="s">
+      <c r="Q3" s="298" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="333"/>
-      <c r="S3" s="334"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="300"/>
       <c r="T3" s="73"/>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
@@ -5555,9 +5555,9 @@
       <c r="JI3" s="78"/>
       <c r="JJ3" s="78"/>
     </row>
-    <row r="4" spans="1:270" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="317"/>
-      <c r="B4" s="319"/>
+    <row r="4" spans="1:270" s="58" customFormat="1">
+      <c r="A4" s="316"/>
+      <c r="B4" s="318"/>
       <c r="C4" s="66"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -5574,19 +5574,19 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="74"/>
-      <c r="S4" s="327" t="s">
+      <c r="S4" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="327"/>
+      <c r="T4" s="301"/>
       <c r="U4" s="76"/>
       <c r="V4" s="33"/>
-      <c r="W4" s="335" t="s">
+      <c r="W4" s="302" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="336"/>
-      <c r="Y4" s="336"/>
-      <c r="Z4" s="336"/>
-      <c r="AA4" s="337"/>
+      <c r="X4" s="303"/>
+      <c r="Y4" s="303"/>
+      <c r="Z4" s="303"/>
+      <c r="AA4" s="304"/>
       <c r="AB4" s="33"/>
       <c r="AC4" s="33"/>
       <c r="AD4" s="20"/>
@@ -5594,15 +5594,15 @@
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
     </row>
-    <row r="5" spans="1:270" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="315" t="s">
+    <row r="5" spans="1:270" s="11" customFormat="1">
+      <c r="A5" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="317" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="326" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="21"/>
@@ -5619,7 +5619,7 @@
       <c r="P5" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="295" t="s">
+      <c r="Q5" s="329" t="s">
         <v>50</v>
       </c>
       <c r="R5" s="21"/>
@@ -5634,18 +5634,18 @@
       <c r="AA5" s="21"/>
       <c r="AB5" s="34"/>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="298" t="s">
+      <c r="AD5" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="299"/>
-      <c r="AF5" s="299"/>
-      <c r="AG5" s="295"/>
+      <c r="AE5" s="333"/>
+      <c r="AF5" s="333"/>
+      <c r="AG5" s="329"/>
     </row>
-    <row r="6" spans="1:270" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="316"/>
-      <c r="B6" s="320"/>
+    <row r="6" spans="1:270" s="8" customFormat="1">
+      <c r="A6" s="315"/>
+      <c r="B6" s="319"/>
       <c r="C6" s="68"/>
-      <c r="D6" s="293"/>
+      <c r="D6" s="327"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="30"/>
@@ -5658,33 +5658,33 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="312" t="s">
+      <c r="Q6" s="330"/>
+      <c r="R6" s="305" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="313"/>
-      <c r="T6" s="314"/>
+      <c r="S6" s="306"/>
+      <c r="T6" s="307"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="312" t="s">
+      <c r="W6" s="305" t="s">
         <v>52</v>
       </c>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="314"/>
+      <c r="X6" s="306"/>
+      <c r="Y6" s="306"/>
+      <c r="Z6" s="306"/>
+      <c r="AA6" s="307"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
-      <c r="AD6" s="300"/>
-      <c r="AE6" s="301"/>
-      <c r="AF6" s="301"/>
-      <c r="AG6" s="296"/>
+      <c r="AD6" s="334"/>
+      <c r="AE6" s="335"/>
+      <c r="AF6" s="335"/>
+      <c r="AG6" s="330"/>
     </row>
-    <row r="7" spans="1:270" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="317"/>
-      <c r="B7" s="319"/>
+    <row r="7" spans="1:270" s="10" customFormat="1">
+      <c r="A7" s="316"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="294"/>
+      <c r="D7" s="328"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
@@ -5697,7 +5697,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="297"/>
+      <c r="Q7" s="331"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="77" t="s">
@@ -5705,29 +5705,29 @@
       </c>
       <c r="U7" s="33"/>
       <c r="V7" s="33"/>
-      <c r="W7" s="329" t="s">
+      <c r="W7" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="330"/>
-      <c r="Y7" s="330"/>
-      <c r="Z7" s="330"/>
-      <c r="AA7" s="331"/>
+      <c r="X7" s="309"/>
+      <c r="Y7" s="309"/>
+      <c r="Z7" s="309"/>
+      <c r="AA7" s="310"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
-      <c r="AD7" s="302"/>
-      <c r="AE7" s="303"/>
-      <c r="AF7" s="303"/>
-      <c r="AG7" s="297"/>
+      <c r="AD7" s="336"/>
+      <c r="AE7" s="337"/>
+      <c r="AF7" s="337"/>
+      <c r="AG7" s="331"/>
     </row>
-    <row r="8" spans="1:270" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="315" t="s">
+    <row r="8" spans="1:270" s="9" customFormat="1">
+      <c r="A8" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="317" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="65"/>
-      <c r="D8" s="292" t="s">
+      <c r="D8" s="326" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="23"/>
@@ -5743,10 +5743,10 @@
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
-      <c r="P8" s="332" t="s">
+      <c r="P8" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="Q8" s="332"/>
+      <c r="Q8" s="311"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -5764,21 +5764,21 @@
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
     </row>
-    <row r="9" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="316"/>
-      <c r="B9" s="320"/>
+    <row r="9" spans="1:270" s="1" customFormat="1">
+      <c r="A9" s="315"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="69"/>
-      <c r="D9" s="293"/>
+      <c r="D9" s="327"/>
       <c r="E9" s="19"/>
       <c r="F9" s="70" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="304" t="s">
+      <c r="I9" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="304"/>
+      <c r="J9" s="312"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -5803,31 +5803,31 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="316"/>
-      <c r="B10" s="320"/>
+    <row r="10" spans="1:270" s="1" customFormat="1">
+      <c r="A10" s="315"/>
+      <c r="B10" s="319"/>
       <c r="C10" s="69"/>
-      <c r="D10" s="293"/>
+      <c r="D10" s="327"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="304" t="s">
+      <c r="J10" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="304"/>
-      <c r="L10" s="304"/>
-      <c r="M10" s="304"/>
+      <c r="K10" s="312"/>
+      <c r="L10" s="312"/>
+      <c r="M10" s="312"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="304" t="s">
+      <c r="P10" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="304"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="304"/>
-      <c r="T10" s="304"/>
+      <c r="Q10" s="312"/>
+      <c r="R10" s="312"/>
+      <c r="S10" s="312"/>
+      <c r="T10" s="312"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="70" t="s">
@@ -5844,11 +5844,11 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:270" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="317"/>
-      <c r="B11" s="319"/>
+    <row r="11" spans="1:270" s="10" customFormat="1">
+      <c r="A11" s="316"/>
+      <c r="B11" s="318"/>
       <c r="C11" s="66"/>
-      <c r="D11" s="294"/>
+      <c r="D11" s="328"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="33"/>
@@ -5876,18 +5876,18 @@
       </c>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
-      <c r="AD11" s="327" t="s">
+      <c r="AD11" s="301" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="327"/>
-      <c r="AF11" s="327"/>
-      <c r="AG11" s="327"/>
+      <c r="AE11" s="301"/>
+      <c r="AF11" s="301"/>
+      <c r="AG11" s="301"/>
     </row>
-    <row r="12" spans="1:270" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="324" t="s">
+    <row r="12" spans="1:270" s="9" customFormat="1">
+      <c r="A12" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="321" t="s">
+      <c r="B12" s="320" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="65"/>
@@ -5926,9 +5926,9 @@
       <c r="AF12" s="23"/>
       <c r="AG12" s="23"/>
     </row>
-    <row r="13" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="325"/>
-      <c r="B13" s="322"/>
+    <row r="13" spans="1:270" s="1" customFormat="1">
+      <c r="A13" s="324"/>
+      <c r="B13" s="321"/>
       <c r="C13" s="69"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -5965,9 +5965,9 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="325"/>
-      <c r="B14" s="322"/>
+    <row r="14" spans="1:270" s="1" customFormat="1">
+      <c r="A14" s="324"/>
+      <c r="B14" s="321"/>
       <c r="C14" s="69"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -6002,9 +6002,9 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="325"/>
-      <c r="B15" s="322"/>
+    <row r="15" spans="1:270" s="1" customFormat="1">
+      <c r="A15" s="324"/>
+      <c r="B15" s="321"/>
       <c r="C15" s="69"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -6039,9 +6039,9 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="325"/>
-      <c r="B16" s="322"/>
+    <row r="16" spans="1:270" s="1" customFormat="1">
+      <c r="A16" s="324"/>
+      <c r="B16" s="321"/>
       <c r="C16" s="69"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -6076,9 +6076,9 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="325"/>
-      <c r="B17" s="322"/>
+    <row r="17" spans="1:33" s="1" customFormat="1">
+      <c r="A17" s="324"/>
+      <c r="B17" s="321"/>
       <c r="C17" s="69"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -6094,11 +6094,11 @@
       <c r="O17" s="32"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="304" t="s">
+      <c r="R17" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
+      <c r="S17" s="312"/>
+      <c r="T17" s="312"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="19"/>
@@ -6113,9 +6113,9 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="325"/>
-      <c r="B18" s="322"/>
+    <row r="18" spans="1:33" s="1" customFormat="1">
+      <c r="A18" s="324"/>
+      <c r="B18" s="321"/>
       <c r="C18" s="69"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -6150,9 +6150,9 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="325"/>
-      <c r="B19" s="322"/>
+    <row r="19" spans="1:33" s="1" customFormat="1">
+      <c r="A19" s="324"/>
+      <c r="B19" s="321"/>
       <c r="C19" s="69"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -6187,9 +6187,9 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="325"/>
-      <c r="B20" s="322"/>
+    <row r="20" spans="1:33" s="1" customFormat="1">
+      <c r="A20" s="324"/>
+      <c r="B20" s="321"/>
       <c r="C20" s="69"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -6224,9 +6224,9 @@
       </c>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="325"/>
-      <c r="B21" s="322"/>
+    <row r="21" spans="1:33" s="1" customFormat="1">
+      <c r="A21" s="324"/>
+      <c r="B21" s="321"/>
       <c r="C21" s="69"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -6261,9 +6261,9 @@
       </c>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="325"/>
-      <c r="B22" s="322"/>
+    <row r="22" spans="1:33" s="1" customFormat="1">
+      <c r="A22" s="324"/>
+      <c r="B22" s="321"/>
       <c r="C22" s="69"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -6293,14 +6293,14 @@
       <c r="AC22" s="32"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
-      <c r="AF22" s="304" t="s">
+      <c r="AF22" s="312" t="s">
         <v>67</v>
       </c>
-      <c r="AG22" s="304"/>
+      <c r="AG22" s="312"/>
     </row>
-    <row r="23" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="326"/>
-      <c r="B23" s="323"/>
+    <row r="23" spans="1:33" s="10" customFormat="1">
+      <c r="A23" s="325"/>
+      <c r="B23" s="322"/>
       <c r="C23" s="66"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -6330,43 +6330,43 @@
       <c r="AC23" s="33"/>
       <c r="AD23" s="20"/>
       <c r="AE23" s="20"/>
-      <c r="AF23" s="327" t="s">
+      <c r="AF23" s="301" t="s">
         <v>68</v>
       </c>
-      <c r="AG23" s="327"/>
+      <c r="AG23" s="301"/>
     </row>
-    <row r="24" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="315" t="s">
+    <row r="24" spans="1:33" s="9" customFormat="1">
+      <c r="A24" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="318" t="s">
+      <c r="B24" s="317" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="65"/>
-      <c r="D24" s="298" t="s">
+      <c r="D24" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="295"/>
+      <c r="E24" s="333"/>
+      <c r="F24" s="329"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="298" t="s">
+      <c r="I24" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="299"/>
-      <c r="K24" s="295"/>
+      <c r="J24" s="333"/>
+      <c r="K24" s="329"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
-      <c r="P24" s="292" t="s">
+      <c r="P24" s="326" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="328" t="s">
+      <c r="Q24" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
       <c r="T24" s="23"/>
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
@@ -6382,36 +6382,36 @@
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="316"/>
-      <c r="B25" s="320"/>
+    <row r="25" spans="1:33" s="1" customFormat="1">
+      <c r="A25" s="315"/>
+      <c r="B25" s="319"/>
       <c r="C25" s="69"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="296"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="335"/>
+      <c r="F25" s="330"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="300"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="296"/>
+      <c r="I25" s="334"/>
+      <c r="J25" s="335"/>
+      <c r="K25" s="330"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="293"/>
+      <c r="P25" s="327"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
-      <c r="S25" s="304" t="s">
+      <c r="S25" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="T25" s="304"/>
+      <c r="T25" s="312"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
-      <c r="W25" s="304" t="s">
+      <c r="W25" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="X25" s="304"/>
-      <c r="Y25" s="304"/>
+      <c r="X25" s="312"/>
+      <c r="Y25" s="312"/>
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="32"/>
@@ -6421,23 +6421,23 @@
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="316"/>
-      <c r="B26" s="320"/>
+    <row r="26" spans="1:33" s="1" customFormat="1">
+      <c r="A26" s="315"/>
+      <c r="B26" s="319"/>
       <c r="C26" s="69"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="296"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="335"/>
+      <c r="F26" s="330"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="300"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="296"/>
+      <c r="I26" s="334"/>
+      <c r="J26" s="335"/>
+      <c r="K26" s="330"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="293"/>
+      <c r="P26" s="327"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="51"/>
@@ -6460,23 +6460,23 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="316"/>
-      <c r="B27" s="320"/>
+    <row r="27" spans="1:33" s="1" customFormat="1">
+      <c r="A27" s="315"/>
+      <c r="B27" s="319"/>
       <c r="C27" s="69"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="296"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="330"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="301"/>
-      <c r="K27" s="296"/>
+      <c r="I27" s="334"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="330"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="293"/>
+      <c r="P27" s="327"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="51"/>
@@ -6497,23 +6497,23 @@
       </c>
       <c r="AG27" s="19"/>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="316"/>
-      <c r="B28" s="320"/>
+    <row r="28" spans="1:33" s="1" customFormat="1">
+      <c r="A28" s="315"/>
+      <c r="B28" s="319"/>
       <c r="C28" s="69"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="301"/>
-      <c r="F28" s="296"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="330"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="300"/>
-      <c r="J28" s="301"/>
-      <c r="K28" s="296"/>
+      <c r="I28" s="334"/>
+      <c r="J28" s="335"/>
+      <c r="K28" s="330"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
-      <c r="P28" s="293"/>
+      <c r="P28" s="327"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="51"/>
@@ -6534,23 +6534,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="317"/>
-      <c r="B29" s="319"/>
+    <row r="29" spans="1:33" s="10" customFormat="1">
+      <c r="A29" s="316"/>
+      <c r="B29" s="318"/>
       <c r="C29" s="66"/>
-      <c r="D29" s="302"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="297"/>
+      <c r="D29" s="336"/>
+      <c r="E29" s="337"/>
+      <c r="F29" s="331"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="302"/>
-      <c r="J29" s="303"/>
-      <c r="K29" s="297"/>
+      <c r="I29" s="336"/>
+      <c r="J29" s="337"/>
+      <c r="K29" s="331"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="33"/>
       <c r="O29" s="33"/>
-      <c r="P29" s="294"/>
+      <c r="P29" s="328"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="53"/>
@@ -6571,15 +6571,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="315" t="s">
+    <row r="30" spans="1:33" s="9" customFormat="1">
+      <c r="A30" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="318" t="s">
+      <c r="B30" s="317" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="65"/>
-      <c r="D30" s="292" t="s">
+      <c r="D30" s="326" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="23"/>
@@ -6593,10 +6593,10 @@
       <c r="M30" s="23"/>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
-      <c r="P30" s="310" t="s">
+      <c r="P30" s="298" t="s">
         <v>73</v>
       </c>
-      <c r="Q30" s="311"/>
+      <c r="Q30" s="343"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
@@ -6614,11 +6614,11 @@
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="316"/>
-      <c r="B31" s="320"/>
+    <row r="31" spans="1:33" s="1" customFormat="1">
+      <c r="A31" s="315"/>
+      <c r="B31" s="319"/>
       <c r="C31" s="69"/>
-      <c r="D31" s="293"/>
+      <c r="D31" s="327"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="32"/>
@@ -6630,10 +6630,10 @@
       <c r="M31" s="19"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="304" t="s">
+      <c r="P31" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="304"/>
+      <c r="Q31" s="312"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
@@ -6651,11 +6651,11 @@
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="316"/>
-      <c r="B32" s="320"/>
+    <row r="32" spans="1:33" s="1" customFormat="1">
+      <c r="A32" s="315"/>
+      <c r="B32" s="319"/>
       <c r="C32" s="69"/>
-      <c r="D32" s="293"/>
+      <c r="D32" s="327"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="32"/>
@@ -6667,11 +6667,11 @@
       <c r="M32" s="19"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="312" t="s">
+      <c r="P32" s="305" t="s">
         <v>75</v>
       </c>
-      <c r="Q32" s="313"/>
-      <c r="R32" s="314"/>
+      <c r="Q32" s="306"/>
+      <c r="R32" s="307"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="32"/>
@@ -6688,11 +6688,11 @@
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="316"/>
-      <c r="B33" s="320"/>
+    <row r="33" spans="1:33" s="1" customFormat="1">
+      <c r="A33" s="315"/>
+      <c r="B33" s="319"/>
       <c r="C33" s="69"/>
-      <c r="D33" s="293"/>
+      <c r="D33" s="327"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="32"/>
@@ -6725,11 +6725,11 @@
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="316"/>
-      <c r="B34" s="320"/>
+    <row r="34" spans="1:33" s="1" customFormat="1">
+      <c r="A34" s="315"/>
+      <c r="B34" s="319"/>
       <c r="C34" s="69"/>
-      <c r="D34" s="293"/>
+      <c r="D34" s="327"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="32"/>
@@ -6762,11 +6762,11 @@
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="316"/>
-      <c r="B35" s="320"/>
+    <row r="35" spans="1:33" s="1" customFormat="1">
+      <c r="A35" s="315"/>
+      <c r="B35" s="319"/>
       <c r="C35" s="69"/>
-      <c r="D35" s="293"/>
+      <c r="D35" s="327"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="32"/>
@@ -6787,27 +6787,27 @@
       </c>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
-      <c r="W35" s="304" t="s">
+      <c r="W35" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="X35" s="304"/>
-      <c r="Y35" s="304"/>
-      <c r="Z35" s="304"/>
-      <c r="AA35" s="304"/>
+      <c r="X35" s="312"/>
+      <c r="Y35" s="312"/>
+      <c r="Z35" s="312"/>
+      <c r="AA35" s="312"/>
       <c r="AB35" s="32"/>
       <c r="AC35" s="32"/>
-      <c r="AD35" s="305" t="s">
+      <c r="AD35" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="AE35" s="306"/>
-      <c r="AF35" s="306"/>
-      <c r="AG35" s="307"/>
+      <c r="AE35" s="339"/>
+      <c r="AF35" s="339"/>
+      <c r="AG35" s="340"/>
     </row>
-    <row r="36" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="317"/>
-      <c r="B36" s="319"/>
+    <row r="36" spans="1:33" s="10" customFormat="1">
+      <c r="A36" s="316"/>
+      <c r="B36" s="318"/>
       <c r="C36" s="69"/>
-      <c r="D36" s="294"/>
+      <c r="D36" s="328"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="32"/>
@@ -6835,46 +6835,14 @@
       <c r="AC36" s="32"/>
       <c r="AD36" s="20"/>
       <c r="AE36" s="20"/>
-      <c r="AF36" s="308" t="s">
+      <c r="AF36" s="341" t="s">
         <v>79</v>
       </c>
-      <c r="AG36" s="309"/>
+      <c r="AG36" s="342"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG36" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A24:A29"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D30:D36"/>
     <mergeCell ref="P24:P29"/>
@@ -6891,6 +6859,38 @@
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P32:R32"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -6915,30 +6915,30 @@
       <selection pane="bottomRight" activeCell="B37" sqref="B37:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.35" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="24"/>
+    <col min="1" max="1" width="11.5" style="24"/>
     <col min="2" max="2" width="43" style="24" customWidth="1"/>
     <col min="3" max="3" width="15" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="24" customWidth="1"/>
-    <col min="6" max="11" width="11.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="24" customWidth="1"/>
+    <col min="6" max="11" width="11.5" style="24" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="24" customWidth="1"/>
     <col min="14" max="15" width="12.33203125" style="24" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="24" customWidth="1"/>
     <col min="17" max="19" width="12.33203125" style="24" customWidth="1"/>
-    <col min="20" max="20" width="15.5546875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="24" customWidth="1"/>
     <col min="21" max="22" width="12.33203125" style="24" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" style="24" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" style="24" customWidth="1"/>
     <col min="24" max="24" width="15" style="24" customWidth="1"/>
-    <col min="25" max="26" width="11.5546875" style="24" customWidth="1"/>
+    <col min="25" max="26" width="11.5" style="24" customWidth="1"/>
     <col min="27" max="29" width="12.33203125" style="24" customWidth="1"/>
     <col min="30" max="30" width="13.33203125" style="24" customWidth="1"/>
-    <col min="31" max="16384" width="11.44140625" style="24"/>
+    <col min="31" max="16384" width="11.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" ht="15" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="IH1" s="56"/>
       <c r="II1" s="56"/>
     </row>
-    <row r="2" spans="1:16384" s="18" customFormat="1" ht="13.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" s="18" customFormat="1" ht="14" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -7253,10 +7253,10 @@
       <c r="C2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="360" t="s">
+      <c r="D2" s="348" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="361"/>
+      <c r="E2" s="349"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -7264,30 +7264,30 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="362" t="s">
+      <c r="M2" s="350" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="363"/>
-      <c r="O2" s="363"/>
-      <c r="P2" s="363"/>
-      <c r="Q2" s="364"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="352"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
-      <c r="T2" s="365" t="s">
+      <c r="T2" s="353" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="366"/>
-      <c r="V2" s="366"/>
-      <c r="W2" s="366"/>
-      <c r="X2" s="367"/>
+      <c r="U2" s="354"/>
+      <c r="V2" s="354"/>
+      <c r="W2" s="354"/>
+      <c r="X2" s="355"/>
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
-      <c r="AA2" s="357" t="s">
+      <c r="AA2" s="345" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="358"/>
-      <c r="AC2" s="358"/>
-      <c r="AD2" s="359"/>
+      <c r="AB2" s="346"/>
+      <c r="AC2" s="346"/>
+      <c r="AD2" s="347"/>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
       <c r="AG2" s="55"/>
@@ -7502,18 +7502,18 @@
       <c r="IH2" s="55"/>
       <c r="II2" s="55"/>
     </row>
-    <row r="3" spans="1:16384" s="19" customFormat="1" ht="13.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+    <row r="3" spans="1:16384" s="19" customFormat="1" ht="14" thickTop="1">
+      <c r="A3" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="298" t="s">
+      <c r="C3" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="299"/>
-      <c r="E3" s="295"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="329"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
@@ -7521,7 +7521,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="292" t="s">
+      <c r="M3" s="326" t="s">
         <v>50</v>
       </c>
       <c r="N3" s="23"/>
@@ -23896,12 +23896,12 @@
       <c r="XFC3" s="23"/>
       <c r="XFD3" s="23"/>
     </row>
-    <row r="4" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="316"/>
-      <c r="B4" s="320"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="296"/>
+    <row r="4" spans="1:16384" s="19" customFormat="1">
+      <c r="A4" s="315"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="330"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -23909,7 +23909,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="293"/>
+      <c r="M4" s="327"/>
       <c r="P4" s="46" t="s">
         <v>80</v>
       </c>
@@ -23918,12 +23918,12 @@
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
     </row>
-    <row r="5" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="316"/>
-      <c r="B5" s="320"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="296"/>
+    <row r="5" spans="1:16384" s="19" customFormat="1">
+      <c r="A5" s="315"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="330"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -23931,7 +23931,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="293"/>
+      <c r="M5" s="327"/>
       <c r="P5" s="47"/>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -23941,12 +23941,12 @@
       <c r="Y5" s="32"/>
       <c r="Z5" s="32"/>
     </row>
-    <row r="6" spans="1:16384" s="20" customFormat="1" ht="13.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="317"/>
-      <c r="B6" s="319"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="297"/>
+    <row r="6" spans="1:16384" s="20" customFormat="1" ht="14" thickBot="1">
+      <c r="A6" s="316"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="331"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -23954,30 +23954,30 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="294"/>
+      <c r="M6" s="328"/>
       <c r="P6" s="48"/>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
-      <c r="T6" s="368" t="s">
+      <c r="T6" s="356" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="368"/>
-      <c r="V6" s="368"/>
-      <c r="W6" s="368"/>
+      <c r="U6" s="356"/>
+      <c r="V6" s="356"/>
+      <c r="W6" s="356"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
     </row>
-    <row r="7" spans="1:16384" s="23" customFormat="1" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="315" t="s">
+    <row r="7" spans="1:16384" s="23" customFormat="1" ht="16.25" customHeight="1" thickTop="1">
+      <c r="A7" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="354" t="s">
+      <c r="C7" s="363" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="355"/>
+      <c r="D7" s="364"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -23990,9 +23990,9 @@
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
     </row>
-    <row r="8" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="316"/>
-      <c r="B8" s="320"/>
+    <row r="8" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A8" s="315"/>
+      <c r="B8" s="319"/>
       <c r="E8" s="35" t="s">
         <v>82</v>
       </c>
@@ -24011,9 +24011,9 @@
       <c r="Y8" s="32"/>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="316"/>
-      <c r="B9" s="320"/>
+    <row r="9" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A9" s="315"/>
+      <c r="B9" s="319"/>
       <c r="E9" s="49"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -24023,18 +24023,18 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="49"/>
-      <c r="P9" s="352" t="s">
+      <c r="P9" s="361" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="352"/>
+      <c r="Q9" s="361"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="32"/>
     </row>
-    <row r="10" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="316"/>
-      <c r="B10" s="320"/>
+    <row r="10" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A10" s="315"/>
+      <c r="B10" s="319"/>
       <c r="E10" s="49"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -24044,18 +24044,18 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="49"/>
-      <c r="P10" s="352" t="s">
+      <c r="P10" s="361" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="352"/>
+      <c r="Q10" s="361"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
     </row>
-    <row r="11" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="320"/>
+    <row r="11" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A11" s="315"/>
+      <c r="B11" s="319"/>
       <c r="E11" s="49"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -24065,18 +24065,18 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="49"/>
-      <c r="P11" s="345" t="s">
+      <c r="P11" s="357" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="345"/>
+      <c r="Q11" s="357"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="Y11" s="32"/>
       <c r="Z11" s="32"/>
     </row>
-    <row r="12" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="316"/>
-      <c r="B12" s="320"/>
+    <row r="12" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A12" s="315"/>
+      <c r="B12" s="319"/>
       <c r="E12" s="49"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -24090,19 +24090,19 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
-      <c r="T12" s="345" t="s">
+      <c r="T12" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="U12" s="345"/>
-      <c r="V12" s="345"/>
-      <c r="W12" s="345"/>
-      <c r="X12" s="345"/>
+      <c r="U12" s="357"/>
+      <c r="V12" s="357"/>
+      <c r="W12" s="357"/>
+      <c r="X12" s="357"/>
       <c r="Y12" s="32"/>
       <c r="Z12" s="32"/>
     </row>
-    <row r="13" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="320"/>
+    <row r="13" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A13" s="315"/>
+      <c r="B13" s="319"/>
       <c r="E13" s="49"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -24122,9 +24122,9 @@
       <c r="Y13" s="32"/>
       <c r="Z13" s="32"/>
     </row>
-    <row r="14" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="316"/>
-      <c r="B14" s="320"/>
+    <row r="14" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A14" s="315"/>
+      <c r="B14" s="319"/>
       <c r="E14" s="49"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -24144,9 +24144,9 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
     </row>
-    <row r="15" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="316"/>
-      <c r="B15" s="320"/>
+    <row r="15" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A15" s="315"/>
+      <c r="B15" s="319"/>
       <c r="E15" s="49"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -24162,16 +24162,16 @@
       <c r="S15" s="32"/>
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
-      <c r="AA15" s="344" t="s">
+      <c r="AA15" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="AB15" s="344"/>
-      <c r="AC15" s="344"/>
+      <c r="AB15" s="367"/>
+      <c r="AC15" s="367"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:16384" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="316"/>
-      <c r="B16" s="320"/>
+    <row r="16" spans="1:16384" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A16" s="315"/>
+      <c r="B16" s="319"/>
       <c r="E16" s="49"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -24189,15 +24189,15 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="344" t="s">
+      <c r="AB16" s="367" t="s">
         <v>128</v>
       </c>
-      <c r="AC16" s="344"/>
-      <c r="AD16" s="344"/>
+      <c r="AC16" s="367"/>
+      <c r="AD16" s="367"/>
     </row>
-    <row r="17" spans="1:16384" s="20" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="317"/>
-      <c r="B17" s="319"/>
+    <row r="17" spans="1:16384" s="20" customFormat="1" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A17" s="316"/>
+      <c r="B17" s="318"/>
       <c r="E17" s="52"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -24221,18 +24221,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" s="19" customFormat="1" ht="13.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="316" t="s">
+    <row r="18" spans="1:16384" s="19" customFormat="1" ht="14" thickTop="1">
+      <c r="A18" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="320" t="s">
+      <c r="B18" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="346" t="s">
+      <c r="C18" s="368" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="346"/>
-      <c r="E18" s="346"/>
+      <c r="D18" s="368"/>
+      <c r="E18" s="368"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -24240,13 +24240,13 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="353" t="s">
+      <c r="M18" s="362" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="353"/>
-      <c r="O18" s="353"/>
-      <c r="P18" s="353"/>
-      <c r="Q18" s="353"/>
+      <c r="N18" s="362"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="21"/>
@@ -40615,12 +40615,12 @@
       <c r="XFC18" s="21"/>
       <c r="XFD18" s="21"/>
     </row>
-    <row r="19" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="316"/>
-      <c r="B19" s="320"/>
-      <c r="C19" s="347"/>
-      <c r="D19" s="347"/>
-      <c r="E19" s="347"/>
+    <row r="19" spans="1:16384" s="19" customFormat="1">
+      <c r="A19" s="315"/>
+      <c r="B19" s="319"/>
+      <c r="C19" s="369"/>
+      <c r="D19" s="369"/>
+      <c r="E19" s="369"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -40636,12 +40636,12 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="316"/>
-      <c r="B20" s="320"/>
-      <c r="C20" s="347"/>
-      <c r="D20" s="347"/>
-      <c r="E20" s="347"/>
+    <row r="20" spans="1:16384" s="19" customFormat="1">
+      <c r="A20" s="315"/>
+      <c r="B20" s="319"/>
+      <c r="C20" s="369"/>
+      <c r="D20" s="369"/>
+      <c r="E20" s="369"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -40651,20 +40651,20 @@
       <c r="L20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="345" t="s">
+      <c r="T20" s="357" t="s">
         <v>88</v>
       </c>
-      <c r="U20" s="345"/>
-      <c r="V20" s="345"/>
+      <c r="U20" s="357"/>
+      <c r="V20" s="357"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
     </row>
-    <row r="21" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="316"/>
-      <c r="B21" s="320"/>
-      <c r="C21" s="347"/>
-      <c r="D21" s="347"/>
-      <c r="E21" s="347"/>
+    <row r="21" spans="1:16384" s="19" customFormat="1">
+      <c r="A21" s="315"/>
+      <c r="B21" s="319"/>
+      <c r="C21" s="369"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -40674,16 +40674,16 @@
       <c r="L21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="W21" s="345" t="s">
+      <c r="W21" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="X21" s="345"/>
+      <c r="X21" s="357"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
     </row>
-    <row r="22" spans="1:16384" s="19" customFormat="1" ht="14.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="316"/>
-      <c r="B22" s="320"/>
+    <row r="22" spans="1:16384" s="19" customFormat="1" ht="15">
+      <c r="A22" s="315"/>
+      <c r="B22" s="319"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
@@ -40704,9 +40704,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" s="19" customFormat="1" ht="14.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="316"/>
-      <c r="B23" s="320"/>
+    <row r="23" spans="1:16384" s="19" customFormat="1" ht="15">
+      <c r="A23" s="315"/>
+      <c r="B23" s="319"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -40723,15 +40723,15 @@
       <c r="X23" s="51"/>
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
-      <c r="AB23" s="349" t="s">
+      <c r="AB23" s="366" t="s">
         <v>91</v>
       </c>
-      <c r="AC23" s="349"/>
-      <c r="AD23" s="349"/>
+      <c r="AC23" s="366"/>
+      <c r="AD23" s="366"/>
     </row>
-    <row r="24" spans="1:16384" s="20" customFormat="1" ht="14.55" x14ac:dyDescent="0.25">
-      <c r="A24" s="317"/>
-      <c r="B24" s="319"/>
+    <row r="24" spans="1:16384" s="20" customFormat="1" ht="15">
+      <c r="A24" s="316"/>
+      <c r="B24" s="318"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -40752,11 +40752,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:16384" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="369" t="s">
+    <row r="25" spans="1:16384" s="21" customFormat="1">
+      <c r="A25" s="358" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="320" t="s">
+      <c r="B25" s="319" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -40770,7 +40770,7 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="Q25" s="293" t="s">
+      <c r="Q25" s="327" t="s">
         <v>50</v>
       </c>
       <c r="R25" s="34"/>
@@ -40778,9 +40778,9 @@
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
     </row>
-    <row r="26" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="369"/>
-      <c r="B26" s="320"/>
+    <row r="26" spans="1:16384" s="19" customFormat="1">
+      <c r="A26" s="358"/>
+      <c r="B26" s="319"/>
       <c r="C26" s="40" t="s">
         <v>94</v>
       </c>
@@ -40792,15 +40792,15 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="Q26" s="293"/>
+      <c r="Q26" s="327"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
     </row>
-    <row r="27" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="369"/>
-      <c r="B27" s="320"/>
+    <row r="27" spans="1:16384" s="19" customFormat="1">
+      <c r="A27" s="358"/>
+      <c r="B27" s="319"/>
       <c r="D27" s="41"/>
       <c r="E27" s="40" t="s">
         <v>95</v>
@@ -40815,15 +40815,15 @@
       <c r="P27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Q27" s="293"/>
+      <c r="Q27" s="327"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
     </row>
-    <row r="28" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="369"/>
-      <c r="B28" s="320"/>
+    <row r="28" spans="1:16384" s="19" customFormat="1">
+      <c r="A28" s="358"/>
+      <c r="B28" s="319"/>
       <c r="D28" s="41"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -40835,15 +40835,15 @@
       <c r="P28" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="Q28" s="293"/>
+      <c r="Q28" s="327"/>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
     </row>
-    <row r="29" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="369"/>
-      <c r="B29" s="320"/>
+    <row r="29" spans="1:16384" s="19" customFormat="1">
+      <c r="A29" s="358"/>
+      <c r="B29" s="319"/>
       <c r="D29" s="41"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -40852,19 +40852,19 @@
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="Q29" s="293"/>
+      <c r="Q29" s="327"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="345" t="s">
+      <c r="T29" s="357" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="345"/>
+      <c r="U29" s="357"/>
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
     </row>
-    <row r="30" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="369"/>
-      <c r="B30" s="320"/>
+    <row r="30" spans="1:16384" s="19" customFormat="1">
+      <c r="A30" s="358"/>
+      <c r="B30" s="319"/>
       <c r="D30" s="41"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
@@ -40873,7 +40873,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
-      <c r="Q30" s="293"/>
+      <c r="Q30" s="327"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="V30" s="40" t="s">
@@ -40882,9 +40882,9 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
     </row>
-    <row r="31" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="369"/>
-      <c r="B31" s="320"/>
+    <row r="31" spans="1:16384" s="19" customFormat="1">
+      <c r="A31" s="358"/>
+      <c r="B31" s="319"/>
       <c r="D31" s="41"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -40893,19 +40893,19 @@
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="Q31" s="293"/>
+      <c r="Q31" s="327"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
-      <c r="V31" s="345" t="s">
+      <c r="V31" s="357" t="s">
         <v>96</v>
       </c>
-      <c r="W31" s="345"/>
+      <c r="W31" s="357"/>
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
     </row>
-    <row r="32" spans="1:16384" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="369"/>
-      <c r="B32" s="320"/>
+    <row r="32" spans="1:16384" s="18" customFormat="1">
+      <c r="A32" s="358"/>
+      <c r="B32" s="319"/>
       <c r="C32" s="21"/>
       <c r="D32" s="39"/>
       <c r="E32" s="21"/>
@@ -40932,10 +40932,10 @@
       </c>
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
-      <c r="AA32" s="345" t="s">
+      <c r="AA32" s="357" t="s">
         <v>100</v>
       </c>
-      <c r="AB32" s="345"/>
+      <c r="AB32" s="357"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="22"/>
@@ -57271,9 +57271,9 @@
       <c r="XEG32" s="22"/>
       <c r="XEH32" s="22"/>
     </row>
-    <row r="33" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="369"/>
-      <c r="B33" s="320"/>
+    <row r="33" spans="1:30" s="22" customFormat="1">
+      <c r="A33" s="358"/>
+      <c r="B33" s="319"/>
       <c r="C33" s="19"/>
       <c r="D33" s="41"/>
       <c r="E33" s="19"/>
@@ -57307,9 +57307,9 @@
       <c r="AC33" s="19"/>
       <c r="AD33" s="19"/>
     </row>
-    <row r="34" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="369"/>
-      <c r="B34" s="320"/>
+    <row r="34" spans="1:30" s="22" customFormat="1">
+      <c r="A34" s="358"/>
+      <c r="B34" s="319"/>
       <c r="C34" s="19"/>
       <c r="D34" s="41"/>
       <c r="E34" s="19"/>
@@ -57335,15 +57335,15 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="51"/>
-      <c r="AB34" s="345" t="s">
+      <c r="AB34" s="357" t="s">
         <v>101</v>
       </c>
-      <c r="AC34" s="345"/>
+      <c r="AC34" s="357"/>
       <c r="AD34" s="19"/>
     </row>
-    <row r="35" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="369"/>
-      <c r="B35" s="320"/>
+    <row r="35" spans="1:30" s="22" customFormat="1">
+      <c r="A35" s="358"/>
+      <c r="B35" s="319"/>
       <c r="C35" s="19"/>
       <c r="D35" s="41"/>
       <c r="E35" s="19"/>
@@ -57375,9 +57375,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="22" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="369"/>
-      <c r="B36" s="320"/>
+    <row r="36" spans="1:30" s="22" customFormat="1" ht="14" customHeight="1" thickBot="1">
+      <c r="A36" s="358"/>
+      <c r="B36" s="319"/>
       <c r="C36" s="18"/>
       <c r="D36" s="42"/>
       <c r="E36" s="18"/>
@@ -57407,18 +57407,18 @@
       <c r="AC36" s="18"/>
       <c r="AD36" s="18"/>
     </row>
-    <row r="37" spans="1:30" s="23" customFormat="1" ht="13.95" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="315" t="s">
+    <row r="37" spans="1:30" s="23" customFormat="1" ht="14" thickTop="1">
+      <c r="A37" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="318" t="s">
+      <c r="B37" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="350" t="s">
+      <c r="C37" s="359" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="350"/>
-      <c r="E37" s="350"/>
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
@@ -57426,22 +57426,22 @@
       <c r="J37" s="31"/>
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
-      <c r="M37" s="348" t="s">
+      <c r="M37" s="365" t="s">
         <v>79</v>
       </c>
-      <c r="N37" s="348"/>
-      <c r="O37" s="348"/>
+      <c r="N37" s="365"/>
+      <c r="O37" s="365"/>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
     </row>
-    <row r="38" spans="1:30" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="316"/>
-      <c r="B38" s="320"/>
-      <c r="C38" s="351"/>
-      <c r="D38" s="351"/>
-      <c r="E38" s="351"/>
+    <row r="38" spans="1:30" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A38" s="315"/>
+      <c r="B38" s="319"/>
+      <c r="C38" s="360"/>
+      <c r="D38" s="360"/>
+      <c r="E38" s="360"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -57460,9 +57460,9 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
     </row>
-    <row r="39" spans="1:30" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="316"/>
-      <c r="B39" s="320"/>
+    <row r="39" spans="1:30" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A39" s="315"/>
+      <c r="B39" s="319"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
@@ -57478,17 +57478,17 @@
       <c r="O39" s="51"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
-      <c r="U39" s="345" t="s">
+      <c r="U39" s="357" t="s">
         <v>97</v>
       </c>
-      <c r="V39" s="345"/>
-      <c r="W39" s="345"/>
+      <c r="V39" s="357"/>
+      <c r="W39" s="357"/>
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
     </row>
-    <row r="40" spans="1:30" s="19" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="316"/>
-      <c r="B40" s="320"/>
+    <row r="40" spans="1:30" s="19" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A40" s="315"/>
+      <c r="B40" s="319"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
@@ -57510,9 +57510,9 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
     </row>
-    <row r="41" spans="1:30" s="20" customFormat="1" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="317"/>
-      <c r="B41" s="319"/>
+    <row r="41" spans="1:30" s="20" customFormat="1" ht="15.25" customHeight="1" thickBot="1">
+      <c r="A41" s="316"/>
+      <c r="B41" s="318"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
@@ -57530,17 +57530,39 @@
       <c r="S41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
-      <c r="AA41" s="356" t="s">
+      <c r="AA41" s="344" t="s">
         <v>67</v>
       </c>
-      <c r="AB41" s="356"/>
-      <c r="AC41" s="356"/>
-      <c r="AD41" s="356"/>
+      <c r="AB41" s="344"/>
+      <c r="AC41" s="344"/>
+      <c r="AD41" s="344"/>
     </row>
-    <row r="42" spans="1:30" ht="13.95" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:30" ht="14" thickTop="1"/>
   </sheetData>
   <autoFilter ref="A1:AD40" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="38">
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="C18:E21"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="Q25:Q31"/>
+    <mergeCell ref="C3:E6"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="AA41:AD41"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
@@ -57557,28 +57579,6 @@
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B25:B36"/>
     <mergeCell ref="M3:M6"/>
-    <mergeCell ref="C3:E6"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="Q25:Q31"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="B7:B17"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="C18:E21"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T12:X12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -57602,17 +57602,17 @@
       <selection pane="bottomRight" activeCell="AB17" sqref="AB17:AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:270" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -57950,11 +57950,11 @@
       <c r="JI1" s="7"/>
       <c r="JJ1" s="7"/>
     </row>
-    <row r="2" spans="1:270" s="9" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="318" t="s">
+    <row r="2" spans="1:270" s="9" customFormat="1" ht="16" thickTop="1">
+      <c r="A2" s="317" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="317" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="95" t="s">
@@ -57962,35 +57962,35 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="381" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="404"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
+      <c r="I2" s="382"/>
+      <c r="J2" s="383"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="405" t="s">
+      <c r="M2" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="403"/>
-      <c r="O2" s="404"/>
+      <c r="N2" s="382"/>
+      <c r="O2" s="383"/>
       <c r="P2" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="390" t="s">
+      <c r="Q2" s="394" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="405" t="s">
+      <c r="T2" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="404"/>
+      <c r="U2" s="382"/>
+      <c r="V2" s="382"/>
+      <c r="W2" s="382"/>
+      <c r="X2" s="383"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="97" t="s">
@@ -58236,30 +58236,30 @@
       <c r="JI2" s="98"/>
       <c r="JJ2" s="98"/>
     </row>
-    <row r="3" spans="1:270" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320"/>
-      <c r="B3" s="320"/>
+    <row r="3" spans="1:270" s="1" customFormat="1">
+      <c r="A3" s="319"/>
+      <c r="B3" s="319"/>
       <c r="C3" s="91" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="406" t="s">
+      <c r="F3" s="385" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="395"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="387"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="406" t="s">
+      <c r="M3" s="385" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="394"/>
-      <c r="O3" s="395"/>
+      <c r="N3" s="386"/>
+      <c r="O3" s="387"/>
       <c r="P3" s="94"/>
-      <c r="Q3" s="391"/>
+      <c r="Q3" s="395"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="90" t="s">
@@ -58512,9 +58512,9 @@
       <c r="JI3" s="6"/>
       <c r="JJ3" s="6"/>
     </row>
-    <row r="4" spans="1:270" s="10" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="319"/>
-      <c r="B4" s="319"/>
+    <row r="4" spans="1:270" s="10" customFormat="1" ht="16" thickBot="1">
+      <c r="A4" s="318"/>
+      <c r="B4" s="318"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="99"/>
@@ -58528,25 +58528,25 @@
       <c r="N4" s="100"/>
       <c r="O4" s="100"/>
       <c r="P4" s="101"/>
-      <c r="Q4" s="392"/>
+      <c r="Q4" s="396"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="102"/>
-      <c r="U4" s="387" t="s">
+      <c r="U4" s="391" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="387"/>
-      <c r="W4" s="387"/>
-      <c r="X4" s="388"/>
+      <c r="V4" s="391"/>
+      <c r="W4" s="391"/>
+      <c r="X4" s="392"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="386" t="s">
+      <c r="AA4" s="390" t="s">
         <v>126</v>
       </c>
-      <c r="AB4" s="387"/>
-      <c r="AC4" s="387"/>
-      <c r="AD4" s="387"/>
-      <c r="AE4" s="388"/>
+      <c r="AB4" s="391"/>
+      <c r="AC4" s="391"/>
+      <c r="AD4" s="391"/>
+      <c r="AE4" s="392"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="100"/>
@@ -58787,11 +58787,11 @@
       <c r="JI4" s="100"/>
       <c r="JJ4" s="100"/>
     </row>
-    <row r="5" spans="1:270" s="9" customFormat="1" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="315" t="s">
+    <row r="5" spans="1:270" s="9" customFormat="1" ht="14.75" customHeight="1" thickTop="1">
+      <c r="A5" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="317" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="107" t="s">
@@ -58799,27 +58799,27 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="373" t="s">
+      <c r="F5" s="407" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374"/>
-      <c r="I5" s="374"/>
-      <c r="J5" s="375"/>
+      <c r="G5" s="408"/>
+      <c r="H5" s="408"/>
+      <c r="I5" s="408"/>
+      <c r="J5" s="409"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="373" t="s">
+      <c r="M5" s="407" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="374"/>
-      <c r="O5" s="374"/>
-      <c r="P5" s="374"/>
-      <c r="Q5" s="375"/>
+      <c r="N5" s="408"/>
+      <c r="O5" s="408"/>
+      <c r="P5" s="408"/>
+      <c r="Q5" s="409"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="373" t="s">
+      <c r="T5" s="407" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="375"/>
+      <c r="U5" s="409"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AF5" s="14"/>
@@ -59062,21 +59062,21 @@
       <c r="JI5" s="98"/>
       <c r="JJ5" s="98"/>
     </row>
-    <row r="6" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="316"/>
-      <c r="B6" s="320"/>
+    <row r="6" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A6" s="315"/>
+      <c r="B6" s="319"/>
       <c r="C6" s="106" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="376" t="s">
+      <c r="F6" s="410" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="378"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="411"/>
+      <c r="I6" s="411"/>
+      <c r="J6" s="412"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="S6" s="5"/>
@@ -59085,9 +59085,9 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
     </row>
-    <row r="7" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="316"/>
-      <c r="B7" s="320"/>
+    <row r="7" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A7" s="315"/>
+      <c r="B7" s="319"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="J7" s="106" t="s">
@@ -59095,26 +59095,26 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="376" t="s">
+      <c r="M7" s="410" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="377"/>
-      <c r="O7" s="377"/>
-      <c r="P7" s="377"/>
-      <c r="Q7" s="378"/>
+      <c r="N7" s="411"/>
+      <c r="O7" s="411"/>
+      <c r="P7" s="411"/>
+      <c r="Q7" s="412"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="376" t="s">
+      <c r="T7" s="410" t="s">
         <v>134</v>
       </c>
-      <c r="U7" s="378"/>
+      <c r="U7" s="412"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
     </row>
-    <row r="8" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="316"/>
-      <c r="B8" s="320"/>
+    <row r="8" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A8" s="315"/>
+      <c r="B8" s="319"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="K8" s="5"/>
@@ -59134,9 +59134,9 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
-    <row r="9" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="316"/>
-      <c r="B9" s="320"/>
+    <row r="9" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A9" s="315"/>
+      <c r="B9" s="319"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="K9" s="5"/>
@@ -59156,9 +59156,9 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
     </row>
-    <row r="10" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="316"/>
-      <c r="B10" s="320"/>
+    <row r="10" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A10" s="315"/>
+      <c r="B10" s="319"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="K10" s="5"/>
@@ -59172,45 +59172,45 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
     </row>
-    <row r="11" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="316"/>
-      <c r="B11" s="320"/>
+    <row r="11" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A11" s="315"/>
+      <c r="B11" s="319"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="376" t="s">
+      <c r="T11" s="410" t="s">
         <v>138</v>
       </c>
-      <c r="U11" s="378"/>
+      <c r="U11" s="412"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
     </row>
-    <row r="12" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="316"/>
-      <c r="B12" s="320"/>
+    <row r="12" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A12" s="315"/>
+      <c r="B12" s="319"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="U12" s="376" t="s">
+      <c r="U12" s="410" t="s">
         <v>139</v>
       </c>
-      <c r="V12" s="377"/>
-      <c r="W12" s="377"/>
-      <c r="X12" s="378"/>
+      <c r="V12" s="411"/>
+      <c r="W12" s="411"/>
+      <c r="X12" s="412"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
     </row>
-    <row r="13" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="316"/>
-      <c r="B13" s="320"/>
+    <row r="13" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A13" s="315"/>
+      <c r="B13" s="319"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="K13" s="5"/>
@@ -59227,9 +59227,9 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
     </row>
-    <row r="14" spans="1:270" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="316"/>
-      <c r="B14" s="320"/>
+    <row r="14" spans="1:270" s="1" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A14" s="315"/>
+      <c r="B14" s="319"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="K14" s="5"/>
@@ -59243,9 +59243,9 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
     </row>
-    <row r="15" spans="1:270" s="133" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="316"/>
-      <c r="B15" s="320"/>
+    <row r="15" spans="1:270" s="133" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A15" s="315"/>
+      <c r="B15" s="319"/>
       <c r="D15" s="135"/>
       <c r="E15" s="135"/>
       <c r="K15" s="135"/>
@@ -59254,17 +59254,17 @@
       <c r="X15" s="153"/>
       <c r="Y15" s="135"/>
       <c r="Z15" s="135"/>
-      <c r="AA15" s="396" t="s">
+      <c r="AA15" s="398" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" s="397"/>
-      <c r="AC15" s="398"/>
+      <c r="AB15" s="399"/>
+      <c r="AC15" s="400"/>
       <c r="AF15" s="135"/>
       <c r="AG15" s="135"/>
     </row>
-    <row r="16" spans="1:270" s="133" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="316"/>
-      <c r="B16" s="320"/>
+    <row r="16" spans="1:270" s="133" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A16" s="315"/>
+      <c r="B16" s="319"/>
       <c r="D16" s="135"/>
       <c r="E16" s="135"/>
       <c r="K16" s="135"/>
@@ -59273,17 +59273,17 @@
       <c r="X16" s="153"/>
       <c r="Y16" s="135"/>
       <c r="Z16" s="135"/>
-      <c r="AC16" s="399" t="s">
+      <c r="AC16" s="401" t="s">
         <v>226</v>
       </c>
-      <c r="AD16" s="400"/>
-      <c r="AE16" s="401"/>
+      <c r="AD16" s="402"/>
+      <c r="AE16" s="403"/>
       <c r="AF16" s="135"/>
       <c r="AG16" s="135"/>
     </row>
-    <row r="17" spans="1:33" s="133" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="316"/>
-      <c r="B17" s="320"/>
+    <row r="17" spans="1:33" s="133" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A17" s="315"/>
+      <c r="B17" s="319"/>
       <c r="D17" s="135"/>
       <c r="E17" s="135"/>
       <c r="K17" s="135"/>
@@ -59292,18 +59292,18 @@
       <c r="X17" s="153"/>
       <c r="Y17" s="135"/>
       <c r="Z17" s="135"/>
-      <c r="AB17" s="399" t="s">
+      <c r="AB17" s="401" t="s">
         <v>227</v>
       </c>
-      <c r="AC17" s="400"/>
-      <c r="AD17" s="400"/>
-      <c r="AE17" s="401"/>
+      <c r="AC17" s="402"/>
+      <c r="AD17" s="402"/>
+      <c r="AE17" s="403"/>
       <c r="AF17" s="135"/>
       <c r="AG17" s="135"/>
     </row>
-    <row r="18" spans="1:33" s="133" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="316"/>
-      <c r="B18" s="320"/>
+    <row r="18" spans="1:33" s="133" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A18" s="315"/>
+      <c r="B18" s="319"/>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
       <c r="K18" s="135"/>
@@ -59315,9 +59315,9 @@
       <c r="AF18" s="135"/>
       <c r="AG18" s="135"/>
     </row>
-    <row r="19" spans="1:33" s="133" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="316"/>
-      <c r="B19" s="320"/>
+    <row r="19" spans="1:33" s="133" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A19" s="315"/>
+      <c r="B19" s="319"/>
       <c r="D19" s="135"/>
       <c r="E19" s="135"/>
       <c r="K19" s="135"/>
@@ -59329,9 +59329,9 @@
       <c r="AF19" s="135"/>
       <c r="AG19" s="135"/>
     </row>
-    <row r="20" spans="1:33" s="10" customFormat="1" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="317"/>
-      <c r="B20" s="319"/>
+    <row r="20" spans="1:33" s="10" customFormat="1" ht="14.75" customHeight="1" thickBot="1">
+      <c r="A20" s="316"/>
+      <c r="B20" s="318"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="K20" s="16"/>
@@ -59342,11 +59342,11 @@
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
     </row>
-    <row r="21" spans="1:33" s="9" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="324" t="s">
+    <row r="21" spans="1:33" s="9" customFormat="1" ht="16" thickTop="1">
+      <c r="A21" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="321" t="s">
+      <c r="B21" s="320" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -59354,10 +59354,10 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="371" t="s">
+      <c r="F21" s="405" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="372"/>
+      <c r="G21" s="406"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="R21" s="14"/>
@@ -59367,9 +59367,9 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="325"/>
-      <c r="B22" s="322"/>
+    <row r="22" spans="1:33" s="1" customFormat="1">
+      <c r="A22" s="324"/>
+      <c r="B22" s="321"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="15" t="s">
@@ -59390,9 +59390,9 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="325"/>
-      <c r="B23" s="322"/>
+    <row r="23" spans="1:33" s="1" customFormat="1">
+      <c r="A23" s="324"/>
+      <c r="B23" s="321"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="H23" s="15" t="s">
@@ -59407,9 +59407,9 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="325"/>
-      <c r="B24" s="322"/>
+    <row r="24" spans="1:33" s="1" customFormat="1">
+      <c r="A24" s="324"/>
+      <c r="B24" s="321"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="I24" s="15" t="s">
@@ -59424,9 +59424,9 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
-      <c r="B25" s="322"/>
+    <row r="25" spans="1:33" s="1" customFormat="1">
+      <c r="A25" s="324"/>
+      <c r="B25" s="321"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="J25" s="15" t="s">
@@ -59441,19 +59441,19 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="325"/>
-      <c r="B26" s="322"/>
+    <row r="26" spans="1:33" s="1" customFormat="1">
+      <c r="A26" s="324"/>
+      <c r="B26" s="321"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="349" t="s">
+      <c r="M26" s="366" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="349"/>
-      <c r="O26" s="349"/>
-      <c r="P26" s="349"/>
+      <c r="N26" s="366"/>
+      <c r="O26" s="366"/>
+      <c r="P26" s="366"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="Y26" s="5"/>
@@ -59461,17 +59461,17 @@
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
     </row>
-    <row r="27" spans="1:33" s="10" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="326"/>
-      <c r="B27" s="323"/>
+    <row r="27" spans="1:33" s="10" customFormat="1" ht="16" thickBot="1">
+      <c r="A27" s="325"/>
+      <c r="B27" s="322"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="P27" s="380" t="s">
+      <c r="P27" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="380"/>
+      <c r="Q27" s="404"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="Y27" s="16"/>
@@ -59479,11 +59479,11 @@
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
     </row>
-    <row r="28" spans="1:33" s="142" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="324" t="s">
+    <row r="28" spans="1:33" s="142" customFormat="1" ht="16" thickTop="1">
+      <c r="A28" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="407" t="s">
+      <c r="B28" s="378" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="108" t="s">
@@ -59500,17 +59500,17 @@
       <c r="AF28" s="144"/>
       <c r="AG28" s="144"/>
     </row>
-    <row r="29" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="325"/>
-      <c r="B29" s="408"/>
+    <row r="29" spans="1:33" s="139" customFormat="1">
+      <c r="A29" s="324"/>
+      <c r="B29" s="379"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
-      <c r="F29" s="379" t="s">
+      <c r="F29" s="376" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="379"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="379"/>
+      <c r="G29" s="376"/>
+      <c r="H29" s="376"/>
+      <c r="I29" s="376"/>
       <c r="K29" s="140"/>
       <c r="L29" s="140"/>
       <c r="R29" s="140"/>
@@ -59520,9 +59520,9 @@
       <c r="AF29" s="140"/>
       <c r="AG29" s="140"/>
     </row>
-    <row r="30" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="325"/>
-      <c r="B30" s="408"/>
+    <row r="30" spans="1:33" s="139" customFormat="1">
+      <c r="A30" s="324"/>
+      <c r="B30" s="379"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
       <c r="J30" s="17" t="s">
@@ -59530,10 +59530,10 @@
       </c>
       <c r="K30" s="140"/>
       <c r="L30" s="140"/>
-      <c r="M30" s="379" t="s">
+      <c r="M30" s="376" t="s">
         <v>102</v>
       </c>
-      <c r="N30" s="379"/>
+      <c r="N30" s="376"/>
       <c r="R30" s="140"/>
       <c r="S30" s="140"/>
       <c r="Y30" s="140"/>
@@ -59541,17 +59541,17 @@
       <c r="AF30" s="140"/>
       <c r="AG30" s="140"/>
     </row>
-    <row r="31" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="325"/>
-      <c r="B31" s="408"/>
+    <row r="31" spans="1:33" s="139" customFormat="1">
+      <c r="A31" s="324"/>
+      <c r="B31" s="379"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
       <c r="K31" s="140"/>
       <c r="L31" s="140"/>
-      <c r="N31" s="379" t="s">
+      <c r="N31" s="376" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="379"/>
+      <c r="O31" s="376"/>
       <c r="R31" s="140"/>
       <c r="S31" s="140"/>
       <c r="Y31" s="140"/>
@@ -59559,19 +59559,19 @@
       <c r="AF31" s="140"/>
       <c r="AG31" s="140"/>
     </row>
-    <row r="32" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="325"/>
-      <c r="B32" s="408"/>
+    <row r="32" spans="1:33" s="139" customFormat="1">
+      <c r="A32" s="324"/>
+      <c r="B32" s="379"/>
       <c r="D32" s="140"/>
       <c r="E32" s="140"/>
       <c r="K32" s="140"/>
       <c r="L32" s="140"/>
       <c r="N32" s="141"/>
       <c r="O32" s="141"/>
-      <c r="P32" s="379" t="s">
+      <c r="P32" s="376" t="s">
         <v>113</v>
       </c>
-      <c r="Q32" s="379"/>
+      <c r="Q32" s="376"/>
       <c r="R32" s="140"/>
       <c r="S32" s="140"/>
       <c r="Y32" s="140"/>
@@ -59579,19 +59579,19 @@
       <c r="AF32" s="140"/>
       <c r="AG32" s="140"/>
     </row>
-    <row r="33" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="325"/>
-      <c r="B33" s="408"/>
+    <row r="33" spans="1:33" s="139" customFormat="1">
+      <c r="A33" s="324"/>
+      <c r="B33" s="379"/>
       <c r="D33" s="140"/>
       <c r="E33" s="140"/>
       <c r="K33" s="140"/>
       <c r="L33" s="140"/>
       <c r="N33" s="141"/>
       <c r="O33" s="141"/>
-      <c r="P33" s="379" t="s">
+      <c r="P33" s="376" t="s">
         <v>114</v>
       </c>
-      <c r="Q33" s="379"/>
+      <c r="Q33" s="376"/>
       <c r="R33" s="140"/>
       <c r="S33" s="140"/>
       <c r="Y33" s="140"/>
@@ -59599,9 +59599,9 @@
       <c r="AF33" s="140"/>
       <c r="AG33" s="140"/>
     </row>
-    <row r="34" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="325"/>
-      <c r="B34" s="408"/>
+    <row r="34" spans="1:33" s="139" customFormat="1">
+      <c r="A34" s="324"/>
+      <c r="B34" s="379"/>
       <c r="D34" s="140"/>
       <c r="E34" s="140"/>
       <c r="K34" s="140"/>
@@ -59620,9 +59620,9 @@
       <c r="AF34" s="140"/>
       <c r="AG34" s="140"/>
     </row>
-    <row r="35" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="325"/>
-      <c r="B35" s="408"/>
+    <row r="35" spans="1:33" s="139" customFormat="1">
+      <c r="A35" s="324"/>
+      <c r="B35" s="379"/>
       <c r="D35" s="140"/>
       <c r="E35" s="140"/>
       <c r="K35" s="140"/>
@@ -59641,9 +59641,9 @@
       <c r="AF35" s="140"/>
       <c r="AG35" s="140"/>
     </row>
-    <row r="36" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="325"/>
-      <c r="B36" s="408"/>
+    <row r="36" spans="1:33" s="139" customFormat="1">
+      <c r="A36" s="324"/>
+      <c r="B36" s="379"/>
       <c r="D36" s="140"/>
       <c r="E36" s="140"/>
       <c r="K36" s="140"/>
@@ -59662,9 +59662,9 @@
       <c r="AF36" s="140"/>
       <c r="AG36" s="140"/>
     </row>
-    <row r="37" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="325"/>
-      <c r="B37" s="408"/>
+    <row r="37" spans="1:33" s="139" customFormat="1">
+      <c r="A37" s="324"/>
+      <c r="B37" s="379"/>
       <c r="D37" s="140"/>
       <c r="E37" s="140"/>
       <c r="K37" s="140"/>
@@ -59675,18 +59675,18 @@
       <c r="Q37" s="141"/>
       <c r="R37" s="140"/>
       <c r="S37" s="140"/>
-      <c r="U37" s="370" t="s">
+      <c r="U37" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="V37" s="389"/>
+      <c r="V37" s="393"/>
       <c r="Y37" s="140"/>
       <c r="Z37" s="140"/>
       <c r="AF37" s="140"/>
       <c r="AG37" s="140"/>
     </row>
-    <row r="38" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="325"/>
-      <c r="B38" s="408"/>
+    <row r="38" spans="1:33" s="139" customFormat="1">
+      <c r="A38" s="324"/>
+      <c r="B38" s="379"/>
       <c r="D38" s="140"/>
       <c r="E38" s="140"/>
       <c r="K38" s="140"/>
@@ -59698,19 +59698,19 @@
       <c r="R38" s="140"/>
       <c r="S38" s="140"/>
       <c r="U38" s="141"/>
-      <c r="V38" s="370" t="s">
+      <c r="V38" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="W38" s="370"/>
-      <c r="X38" s="370"/>
+      <c r="W38" s="377"/>
+      <c r="X38" s="377"/>
       <c r="Y38" s="140"/>
       <c r="Z38" s="140"/>
       <c r="AF38" s="140"/>
       <c r="AG38" s="140"/>
     </row>
-    <row r="39" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="325"/>
-      <c r="B39" s="408"/>
+    <row r="39" spans="1:33" s="139" customFormat="1">
+      <c r="A39" s="324"/>
+      <c r="B39" s="379"/>
       <c r="D39" s="140"/>
       <c r="E39" s="140"/>
       <c r="K39" s="140"/>
@@ -59730,9 +59730,9 @@
       <c r="AF39" s="140"/>
       <c r="AG39" s="140"/>
     </row>
-    <row r="40" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="325"/>
-      <c r="B40" s="408"/>
+    <row r="40" spans="1:33" s="139" customFormat="1">
+      <c r="A40" s="324"/>
+      <c r="B40" s="379"/>
       <c r="D40" s="140"/>
       <c r="E40" s="140"/>
       <c r="K40" s="140"/>
@@ -59752,9 +59752,9 @@
       <c r="AF40" s="140"/>
       <c r="AG40" s="140"/>
     </row>
-    <row r="41" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="325"/>
-      <c r="B41" s="408"/>
+    <row r="41" spans="1:33" s="139" customFormat="1">
+      <c r="A41" s="324"/>
+      <c r="B41" s="379"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140"/>
       <c r="K41" s="140"/>
@@ -59774,9 +59774,9 @@
       <c r="AF41" s="140"/>
       <c r="AG41" s="140"/>
     </row>
-    <row r="42" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="325"/>
-      <c r="B42" s="408"/>
+    <row r="42" spans="1:33" s="139" customFormat="1">
+      <c r="A42" s="324"/>
+      <c r="B42" s="379"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140"/>
       <c r="K42" s="140"/>
@@ -59790,17 +59790,17 @@
       <c r="U42" s="141"/>
       <c r="Y42" s="140"/>
       <c r="Z42" s="140"/>
-      <c r="AC42" s="370" t="s">
+      <c r="AC42" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="AD42" s="370"/>
-      <c r="AE42" s="370"/>
-      <c r="AF42" s="370"/>
+      <c r="AD42" s="377"/>
+      <c r="AE42" s="377"/>
+      <c r="AF42" s="377"/>
       <c r="AG42" s="140"/>
     </row>
-    <row r="43" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="325"/>
-      <c r="B43" s="408"/>
+    <row r="43" spans="1:33" s="139" customFormat="1">
+      <c r="A43" s="324"/>
+      <c r="B43" s="379"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140"/>
       <c r="K43" s="140"/>
@@ -59816,15 +59816,15 @@
       <c r="Z43" s="140"/>
       <c r="AC43" s="141"/>
       <c r="AD43" s="141"/>
-      <c r="AE43" s="370" t="s">
+      <c r="AE43" s="377" t="s">
         <v>173</v>
       </c>
-      <c r="AF43" s="370"/>
+      <c r="AF43" s="377"/>
       <c r="AG43" s="140"/>
     </row>
-    <row r="44" spans="1:33" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="326"/>
-      <c r="B44" s="409"/>
+    <row r="44" spans="1:33" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A44" s="325"/>
+      <c r="B44" s="380"/>
       <c r="D44" s="145"/>
       <c r="E44" s="145"/>
       <c r="K44" s="145"/>
@@ -59843,11 +59843,11 @@
       <c r="AF44" s="145"/>
       <c r="AG44" s="145"/>
     </row>
-    <row r="45" spans="1:33" s="9" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="315" t="s">
+    <row r="45" spans="1:33" s="9" customFormat="1" ht="16" thickTop="1">
+      <c r="A45" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="318" t="s">
+      <c r="B45" s="317" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="110" t="s">
@@ -59855,11 +59855,11 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="410" t="s">
+      <c r="F45" s="370" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="411"/>
-      <c r="H45" s="412"/>
+      <c r="G45" s="371"/>
+      <c r="H45" s="372"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="R45" s="14"/>
@@ -59869,9 +59869,9 @@
       <c r="AF45" s="14"/>
       <c r="AG45" s="14"/>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="316"/>
-      <c r="B46" s="320"/>
+    <row r="46" spans="1:33" s="1" customFormat="1">
+      <c r="A46" s="315"/>
+      <c r="B46" s="319"/>
       <c r="C46" s="91" t="s">
         <v>144</v>
       </c>
@@ -59886,9 +59886,9 @@
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="316"/>
-      <c r="B47" s="320"/>
+    <row r="47" spans="1:33" s="1" customFormat="1">
+      <c r="A47" s="315"/>
+      <c r="B47" s="319"/>
       <c r="C47" s="109" t="s">
         <v>145</v>
       </c>
@@ -59903,15 +59903,15 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="316"/>
-      <c r="B48" s="320"/>
+    <row r="48" spans="1:33" s="1" customFormat="1">
+      <c r="A48" s="315"/>
+      <c r="B48" s="319"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="381" t="s">
+      <c r="F48" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="383"/>
+      <c r="G48" s="374"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="R48" s="5"/>
@@ -59921,9 +59921,9 @@
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="316"/>
-      <c r="B49" s="320"/>
+    <row r="49" spans="1:33" s="1" customFormat="1">
+      <c r="A49" s="315"/>
+      <c r="B49" s="319"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="I49" s="109" t="s">
@@ -59938,9 +59938,9 @@
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
     </row>
-    <row r="50" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="316"/>
-      <c r="B50" s="320"/>
+    <row r="50" spans="1:33" s="1" customFormat="1">
+      <c r="A50" s="315"/>
+      <c r="B50" s="319"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="91" t="s">
@@ -59955,17 +59955,17 @@
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
     </row>
-    <row r="51" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="316"/>
-      <c r="B51" s="320"/>
+    <row r="51" spans="1:33" s="1" customFormat="1">
+      <c r="A51" s="315"/>
+      <c r="B51" s="319"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="G51" s="381" t="s">
+      <c r="G51" s="373" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="382"/>
-      <c r="I51" s="382"/>
-      <c r="J51" s="383"/>
+      <c r="H51" s="375"/>
+      <c r="I51" s="375"/>
+      <c r="J51" s="374"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="R51" s="5"/>
@@ -59975,9 +59975,9 @@
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
     </row>
-    <row r="52" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="316"/>
-      <c r="B52" s="320"/>
+    <row r="52" spans="1:33" s="1" customFormat="1">
+      <c r="A52" s="315"/>
+      <c r="B52" s="319"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="J52" s="109" t="s">
@@ -59992,19 +59992,19 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
     </row>
-    <row r="53" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="316"/>
-      <c r="B53" s="320"/>
+    <row r="53" spans="1:33" s="1" customFormat="1">
+      <c r="A53" s="315"/>
+      <c r="B53" s="319"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="381" t="s">
+      <c r="M53" s="373" t="s">
         <v>151</v>
       </c>
-      <c r="N53" s="382"/>
-      <c r="O53" s="382"/>
-      <c r="P53" s="383"/>
+      <c r="N53" s="375"/>
+      <c r="O53" s="375"/>
+      <c r="P53" s="374"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="Y53" s="5"/>
@@ -60012,9 +60012,9 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
     </row>
-    <row r="54" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="316"/>
-      <c r="B54" s="320"/>
+    <row r="54" spans="1:33" s="1" customFormat="1">
+      <c r="A54" s="315"/>
+      <c r="B54" s="319"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="K54" s="5"/>
@@ -60026,9 +60026,9 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
     </row>
-    <row r="55" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="316"/>
-      <c r="B55" s="320"/>
+    <row r="55" spans="1:33" s="1" customFormat="1">
+      <c r="A55" s="315"/>
+      <c r="B55" s="319"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="K55" s="5"/>
@@ -60038,37 +60038,37 @@
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="381" t="s">
+      <c r="T55" s="373" t="s">
         <v>152</v>
       </c>
-      <c r="U55" s="383"/>
+      <c r="U55" s="374"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
     </row>
-    <row r="56" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="316"/>
-      <c r="B56" s="320"/>
+    <row r="56" spans="1:33" s="1" customFormat="1">
+      <c r="A56" s="315"/>
+      <c r="B56" s="319"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="K56" s="115"/>
       <c r="L56" s="115"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="U56" s="381" t="s">
+      <c r="U56" s="373" t="s">
         <v>153</v>
       </c>
-      <c r="V56" s="382"/>
-      <c r="W56" s="383"/>
+      <c r="V56" s="375"/>
+      <c r="W56" s="374"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
     </row>
-    <row r="57" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="316"/>
-      <c r="B57" s="320"/>
+    <row r="57" spans="1:33" s="1" customFormat="1">
+      <c r="A57" s="315"/>
+      <c r="B57" s="319"/>
       <c r="D57" s="115"/>
       <c r="E57" s="115"/>
       <c r="K57" s="115"/>
@@ -60083,9 +60083,9 @@
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
     </row>
-    <row r="58" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="316"/>
-      <c r="B58" s="320"/>
+    <row r="58" spans="1:33" s="1" customFormat="1">
+      <c r="A58" s="315"/>
+      <c r="B58" s="319"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="K58" s="115"/>
@@ -60100,9 +60100,9 @@
       <c r="AF58" s="115"/>
       <c r="AG58" s="115"/>
     </row>
-    <row r="59" spans="1:33" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="316"/>
-      <c r="B59" s="320"/>
+    <row r="59" spans="1:33" s="133" customFormat="1">
+      <c r="A59" s="315"/>
+      <c r="B59" s="319"/>
       <c r="D59" s="138"/>
       <c r="E59" s="138"/>
       <c r="K59" s="138"/>
@@ -60115,15 +60115,15 @@
       <c r="AB59" s="128"/>
       <c r="AC59" s="128"/>
       <c r="AD59" s="128"/>
-      <c r="AE59" s="394" t="s">
+      <c r="AE59" s="386" t="s">
         <v>200</v>
       </c>
-      <c r="AF59" s="395"/>
+      <c r="AF59" s="387"/>
       <c r="AG59" s="138"/>
     </row>
-    <row r="60" spans="1:33" s="10" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="317"/>
-      <c r="B60" s="319"/>
+    <row r="60" spans="1:33" s="10" customFormat="1" ht="16" thickBot="1">
+      <c r="A60" s="316"/>
+      <c r="B60" s="318"/>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
       <c r="K60" s="116"/>
@@ -60132,19 +60132,19 @@
       <c r="S60" s="111"/>
       <c r="Y60" s="111"/>
       <c r="Z60" s="111"/>
-      <c r="AB60" s="393" t="s">
+      <c r="AB60" s="397" t="s">
         <v>216</v>
       </c>
-      <c r="AC60" s="393"/>
-      <c r="AD60" s="393"/>
+      <c r="AC60" s="397"/>
+      <c r="AD60" s="397"/>
       <c r="AF60" s="116"/>
       <c r="AG60" s="116"/>
     </row>
-    <row r="61" spans="1:33" s="9" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="315" t="s">
+    <row r="61" spans="1:33" s="9" customFormat="1" ht="16" thickTop="1">
+      <c r="A61" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="318" t="s">
+      <c r="B61" s="317" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="71" t="s">
@@ -60152,12 +60152,12 @@
       </c>
       <c r="D61" s="117"/>
       <c r="E61" s="117"/>
-      <c r="F61" s="328" t="s">
+      <c r="F61" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="G61" s="328"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="328"/>
+      <c r="G61" s="313"/>
+      <c r="H61" s="313"/>
+      <c r="I61" s="313"/>
       <c r="K61" s="117"/>
       <c r="L61" s="117"/>
       <c r="R61" s="112"/>
@@ -60167,9 +60167,9 @@
       <c r="AF61" s="117"/>
       <c r="AG61" s="117"/>
     </row>
-    <row r="62" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="316"/>
-      <c r="B62" s="320"/>
+    <row r="62" spans="1:33" s="1" customFormat="1">
+      <c r="A62" s="315"/>
+      <c r="B62" s="319"/>
       <c r="D62" s="118"/>
       <c r="E62" s="118"/>
       <c r="J62" s="70" t="s">
@@ -60177,10 +60177,10 @@
       </c>
       <c r="K62" s="118"/>
       <c r="L62" s="118"/>
-      <c r="M62" s="304" t="s">
+      <c r="M62" s="312" t="s">
         <v>157</v>
       </c>
-      <c r="N62" s="304"/>
+      <c r="N62" s="312"/>
       <c r="R62" s="113"/>
       <c r="S62" s="113"/>
       <c r="Y62" s="113"/>
@@ -60188,9 +60188,9 @@
       <c r="AF62" s="118"/>
       <c r="AG62" s="118"/>
     </row>
-    <row r="63" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="316"/>
-      <c r="B63" s="320"/>
+    <row r="63" spans="1:33" s="1" customFormat="1">
+      <c r="A63" s="315"/>
+      <c r="B63" s="319"/>
       <c r="D63" s="118"/>
       <c r="E63" s="118"/>
       <c r="K63" s="118"/>
@@ -60205,9 +60205,9 @@
       <c r="AF63" s="118"/>
       <c r="AG63" s="118"/>
     </row>
-    <row r="64" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="316"/>
-      <c r="B64" s="320"/>
+    <row r="64" spans="1:33" s="1" customFormat="1">
+      <c r="A64" s="315"/>
+      <c r="B64" s="319"/>
       <c r="D64" s="118"/>
       <c r="E64" s="118"/>
       <c r="K64" s="118"/>
@@ -60222,9 +60222,9 @@
       <c r="AF64" s="118"/>
       <c r="AG64" s="118"/>
     </row>
-    <row r="65" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="316"/>
-      <c r="B65" s="320"/>
+    <row r="65" spans="1:33" s="1" customFormat="1">
+      <c r="A65" s="315"/>
+      <c r="B65" s="319"/>
       <c r="D65" s="118"/>
       <c r="E65" s="118"/>
       <c r="K65" s="118"/>
@@ -60239,9 +60239,9 @@
       <c r="AF65" s="118"/>
       <c r="AG65" s="118"/>
     </row>
-    <row r="66" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="316"/>
-      <c r="B66" s="320"/>
+    <row r="66" spans="1:33" s="1" customFormat="1">
+      <c r="A66" s="315"/>
+      <c r="B66" s="319"/>
       <c r="D66" s="118"/>
       <c r="E66" s="118"/>
       <c r="K66" s="118"/>
@@ -60256,9 +60256,9 @@
       <c r="AF66" s="118"/>
       <c r="AG66" s="118"/>
     </row>
-    <row r="67" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="316"/>
-      <c r="B67" s="320"/>
+    <row r="67" spans="1:33" s="1" customFormat="1">
+      <c r="A67" s="315"/>
+      <c r="B67" s="319"/>
       <c r="D67" s="118"/>
       <c r="E67" s="118"/>
       <c r="K67" s="118"/>
@@ -60273,9 +60273,9 @@
       <c r="AF67" s="118"/>
       <c r="AG67" s="118"/>
     </row>
-    <row r="68" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="316"/>
-      <c r="B68" s="320"/>
+    <row r="68" spans="1:33" s="1" customFormat="1">
+      <c r="A68" s="315"/>
+      <c r="B68" s="319"/>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
       <c r="K68" s="118"/>
@@ -60290,9 +60290,9 @@
       <c r="AF68" s="118"/>
       <c r="AG68" s="118"/>
     </row>
-    <row r="69" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="316"/>
-      <c r="B69" s="320"/>
+    <row r="69" spans="1:33" s="1" customFormat="1">
+      <c r="A69" s="315"/>
+      <c r="B69" s="319"/>
       <c r="D69" s="118"/>
       <c r="E69" s="118"/>
       <c r="K69" s="118"/>
@@ -60307,45 +60307,45 @@
       <c r="AF69" s="118"/>
       <c r="AG69" s="118"/>
     </row>
-    <row r="70" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="316"/>
-      <c r="B70" s="320"/>
+    <row r="70" spans="1:33" s="1" customFormat="1">
+      <c r="A70" s="315"/>
+      <c r="B70" s="319"/>
       <c r="D70" s="118"/>
       <c r="E70" s="118"/>
       <c r="K70" s="118"/>
       <c r="L70" s="118"/>
       <c r="R70" s="113"/>
       <c r="S70" s="113"/>
-      <c r="U70" s="304" t="s">
+      <c r="U70" s="312" t="s">
         <v>165</v>
       </c>
-      <c r="V70" s="304"/>
+      <c r="V70" s="312"/>
       <c r="Y70" s="113"/>
       <c r="Z70" s="113"/>
       <c r="AF70" s="118"/>
       <c r="AG70" s="118"/>
     </row>
-    <row r="71" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="316"/>
-      <c r="B71" s="320"/>
+    <row r="71" spans="1:33" s="1" customFormat="1">
+      <c r="A71" s="315"/>
+      <c r="B71" s="319"/>
       <c r="D71" s="118"/>
       <c r="E71" s="118"/>
       <c r="K71" s="118"/>
       <c r="L71" s="118"/>
       <c r="R71" s="113"/>
       <c r="S71" s="113"/>
-      <c r="U71" s="304" t="s">
+      <c r="U71" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="V71" s="304"/>
+      <c r="V71" s="312"/>
       <c r="Y71" s="113"/>
       <c r="Z71" s="113"/>
       <c r="AF71" s="118"/>
       <c r="AG71" s="118"/>
     </row>
-    <row r="72" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="316"/>
-      <c r="B72" s="320"/>
+    <row r="72" spans="1:33" s="1" customFormat="1">
+      <c r="A72" s="315"/>
+      <c r="B72" s="319"/>
       <c r="D72" s="118"/>
       <c r="E72" s="118"/>
       <c r="K72" s="118"/>
@@ -60360,9 +60360,9 @@
       <c r="AF72" s="118"/>
       <c r="AG72" s="118"/>
     </row>
-    <row r="73" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="316"/>
-      <c r="B73" s="320"/>
+    <row r="73" spans="1:33" s="1" customFormat="1">
+      <c r="A73" s="315"/>
+      <c r="B73" s="319"/>
       <c r="D73" s="118"/>
       <c r="E73" s="118"/>
       <c r="K73" s="118"/>
@@ -60377,9 +60377,9 @@
       <c r="AF73" s="118"/>
       <c r="AG73" s="118"/>
     </row>
-    <row r="74" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="316"/>
-      <c r="B74" s="320"/>
+    <row r="74" spans="1:33" s="1" customFormat="1">
+      <c r="A74" s="315"/>
+      <c r="B74" s="319"/>
       <c r="D74" s="118"/>
       <c r="E74" s="118"/>
       <c r="K74" s="118"/>
@@ -60394,9 +60394,9 @@
       <c r="AF74" s="118"/>
       <c r="AG74" s="118"/>
     </row>
-    <row r="75" spans="1:33" s="10" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="317"/>
-      <c r="B75" s="319"/>
+    <row r="75" spans="1:33" s="10" customFormat="1" ht="16" thickBot="1">
+      <c r="A75" s="316"/>
+      <c r="B75" s="318"/>
       <c r="D75" s="119"/>
       <c r="E75" s="119"/>
       <c r="K75" s="119"/>
@@ -60411,7 +60411,7 @@
       <c r="AF75" s="119"/>
       <c r="AG75" s="119"/>
     </row>
-    <row r="76" spans="1:33" s="121" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" s="121" customFormat="1" ht="16" thickTop="1">
       <c r="A76" s="120"/>
       <c r="B76" s="120"/>
       <c r="D76" s="122"/>
@@ -60423,57 +60423,17 @@
       <c r="Y76" s="123"/>
       <c r="Z76" s="123"/>
       <c r="AB76" s="124"/>
-      <c r="AC76" s="384" t="s">
+      <c r="AC76" s="388" t="s">
         <v>175</v>
       </c>
-      <c r="AD76" s="385"/>
-      <c r="AE76" s="385"/>
-      <c r="AF76" s="385"/>
+      <c r="AD76" s="389"/>
+      <c r="AE76" s="389"/>
+      <c r="AF76" s="389"/>
       <c r="AG76" s="122"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG41" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="56">
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B45:B60"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A61:A75"/>
-    <mergeCell ref="B61:B75"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="B28:B44"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="AC76:AF76"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="T55:U55"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="V38:X38"/>
@@ -60490,6 +60450,46 @@
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="AC76:AF76"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="B28:B44"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B45:B60"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="G51:J51"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -60513,37 +60513,37 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="17" max="17" width="25.33203125" customWidth="1"/>
     <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="17.21875" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="19.21875" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" customWidth="1"/>
     <col min="28" max="28" width="15.6640625" customWidth="1"/>
-    <col min="29" max="29" width="16.44140625" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="31" max="31" width="18.21875" customWidth="1"/>
-    <col min="32" max="32" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -60879,21 +60879,21 @@
       <c r="JI1" s="7"/>
       <c r="JJ1" s="7"/>
     </row>
-    <row r="2" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="415" t="s">
+    <row r="2" spans="1:270" s="132" customFormat="1">
+      <c r="A2" s="419" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="418" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="370" t="s">
+      <c r="C2" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
       <c r="I2" s="140"/>
       <c r="J2" s="139"/>
       <c r="K2" s="139"/>
@@ -60919,14 +60919,14 @@
       <c r="AE2" s="139"/>
       <c r="AF2" s="139"/>
     </row>
-    <row r="3" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="369"/>
-      <c r="B3" s="320"/>
-      <c r="C3" s="370" t="s">
+    <row r="3" spans="1:270" s="132" customFormat="1">
+      <c r="A3" s="358"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="377" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
       <c r="F3" s="139"/>
       <c r="G3" s="139"/>
       <c r="H3" s="140"/>
@@ -60955,9 +60955,9 @@
       <c r="AE3" s="139"/>
       <c r="AF3" s="139"/>
     </row>
-    <row r="4" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="369"/>
-      <c r="B4" s="320"/>
+    <row r="4" spans="1:270" s="132" customFormat="1">
+      <c r="A4" s="358"/>
+      <c r="B4" s="319"/>
       <c r="C4" s="139"/>
       <c r="D4" s="139"/>
       <c r="E4" s="139"/>
@@ -60991,9 +60991,9 @@
       <c r="AE4" s="139"/>
       <c r="AF4" s="139"/>
     </row>
-    <row r="5" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="369"/>
-      <c r="B5" s="320"/>
+    <row r="5" spans="1:270" s="132" customFormat="1">
+      <c r="A5" s="358"/>
+      <c r="B5" s="319"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
       <c r="E5" s="139"/>
@@ -61027,9 +61027,9 @@
       <c r="AE5" s="139"/>
       <c r="AF5" s="139"/>
     </row>
-    <row r="6" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="369"/>
-      <c r="B6" s="320"/>
+    <row r="6" spans="1:270" s="132" customFormat="1">
+      <c r="A6" s="358"/>
+      <c r="B6" s="319"/>
       <c r="C6" s="139"/>
       <c r="D6" s="139"/>
       <c r="E6" s="139"/>
@@ -61063,9 +61063,9 @@
       <c r="AE6" s="139"/>
       <c r="AF6" s="139"/>
     </row>
-    <row r="7" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="369"/>
-      <c r="B7" s="320"/>
+    <row r="7" spans="1:270" s="132" customFormat="1">
+      <c r="A7" s="358"/>
+      <c r="B7" s="319"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139"/>
       <c r="E7" s="139"/>
@@ -61099,9 +61099,9 @@
       <c r="AE7" s="139"/>
       <c r="AF7" s="139"/>
     </row>
-    <row r="8" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="369"/>
-      <c r="B8" s="320"/>
+    <row r="8" spans="1:270" s="132" customFormat="1">
+      <c r="A8" s="358"/>
+      <c r="B8" s="319"/>
       <c r="C8" s="139"/>
       <c r="D8" s="139"/>
       <c r="E8" s="139"/>
@@ -61135,9 +61135,9 @@
       <c r="AE8" s="139"/>
       <c r="AF8" s="139"/>
     </row>
-    <row r="9" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="369"/>
-      <c r="B9" s="320"/>
+    <row r="9" spans="1:270" s="132" customFormat="1">
+      <c r="A9" s="358"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="139"/>
@@ -61171,9 +61171,9 @@
       <c r="AE9" s="139"/>
       <c r="AF9" s="139"/>
     </row>
-    <row r="10" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="369"/>
-      <c r="B10" s="320"/>
+    <row r="10" spans="1:270" s="132" customFormat="1">
+      <c r="A10" s="358"/>
+      <c r="B10" s="319"/>
       <c r="C10" s="139"/>
       <c r="D10" s="139"/>
       <c r="E10" s="139"/>
@@ -61207,9 +61207,9 @@
       <c r="AE10" s="139"/>
       <c r="AF10" s="139"/>
     </row>
-    <row r="11" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="369"/>
-      <c r="B11" s="320"/>
+    <row r="11" spans="1:270" s="132" customFormat="1">
+      <c r="A11" s="358"/>
+      <c r="B11" s="319"/>
       <c r="C11" s="139"/>
       <c r="D11" s="139"/>
       <c r="E11" s="139"/>
@@ -61243,9 +61243,9 @@
       <c r="AE11" s="139"/>
       <c r="AF11" s="139"/>
     </row>
-    <row r="12" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="369"/>
-      <c r="B12" s="320"/>
+    <row r="12" spans="1:270" s="132" customFormat="1">
+      <c r="A12" s="358"/>
+      <c r="B12" s="319"/>
       <c r="C12" s="139"/>
       <c r="D12" s="139"/>
       <c r="E12" s="139"/>
@@ -61281,9 +61281,9 @@
       <c r="AE12" s="139"/>
       <c r="AF12" s="139"/>
     </row>
-    <row r="13" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="369"/>
-      <c r="B13" s="320"/>
+    <row r="13" spans="1:270" s="132" customFormat="1">
+      <c r="A13" s="358"/>
+      <c r="B13" s="319"/>
       <c r="C13" s="139"/>
       <c r="D13" s="139"/>
       <c r="E13" s="139"/>
@@ -61299,10 +61299,10 @@
       <c r="O13" s="140"/>
       <c r="P13" s="140"/>
       <c r="Q13" s="139"/>
-      <c r="R13" s="370" t="s">
+      <c r="R13" s="377" t="s">
         <v>186</v>
       </c>
-      <c r="S13" s="370"/>
+      <c r="S13" s="377"/>
       <c r="T13" s="139"/>
       <c r="U13" s="139"/>
       <c r="V13" s="140"/>
@@ -61317,9 +61317,9 @@
       <c r="AE13" s="139"/>
       <c r="AF13" s="139"/>
     </row>
-    <row r="14" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="369"/>
-      <c r="B14" s="320"/>
+    <row r="14" spans="1:270" s="132" customFormat="1">
+      <c r="A14" s="358"/>
+      <c r="B14" s="319"/>
       <c r="C14" s="139"/>
       <c r="D14" s="139"/>
       <c r="E14" s="139"/>
@@ -61353,9 +61353,9 @@
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
     </row>
-    <row r="15" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="369"/>
-      <c r="B15" s="320"/>
+    <row r="15" spans="1:270" s="132" customFormat="1">
+      <c r="A15" s="358"/>
+      <c r="B15" s="319"/>
       <c r="C15" s="139"/>
       <c r="D15" s="139"/>
       <c r="E15" s="139"/>
@@ -61374,10 +61374,10 @@
       <c r="R15" s="125"/>
       <c r="S15" s="125"/>
       <c r="T15" s="139"/>
-      <c r="U15" s="370" t="s">
+      <c r="U15" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="V15" s="370"/>
+      <c r="V15" s="377"/>
       <c r="W15" s="140"/>
       <c r="X15" s="139"/>
       <c r="Y15" s="139"/>
@@ -61389,9 +61389,9 @@
       <c r="AE15" s="139"/>
       <c r="AF15" s="139"/>
     </row>
-    <row r="16" spans="1:270" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="369"/>
-      <c r="B16" s="320"/>
+    <row r="16" spans="1:270" s="132" customFormat="1">
+      <c r="A16" s="358"/>
+      <c r="B16" s="319"/>
       <c r="C16" s="139"/>
       <c r="D16" s="139"/>
       <c r="E16" s="139"/>
@@ -61425,9 +61425,9 @@
       <c r="AE16" s="139"/>
       <c r="AF16" s="139"/>
     </row>
-    <row r="17" spans="1:32" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="369"/>
-      <c r="B17" s="320"/>
+    <row r="17" spans="1:32" s="132" customFormat="1">
+      <c r="A17" s="358"/>
+      <c r="B17" s="319"/>
       <c r="C17" s="139"/>
       <c r="D17" s="139"/>
       <c r="E17" s="139"/>
@@ -61450,10 +61450,10 @@
       <c r="V17" s="140"/>
       <c r="W17" s="140"/>
       <c r="X17" s="139"/>
-      <c r="Y17" s="370" t="s">
+      <c r="Y17" s="377" t="s">
         <v>192</v>
       </c>
-      <c r="Z17" s="370"/>
+      <c r="Z17" s="377"/>
       <c r="AA17" s="139"/>
       <c r="AB17" s="139"/>
       <c r="AC17" s="140"/>
@@ -61461,9 +61461,9 @@
       <c r="AE17" s="139"/>
       <c r="AF17" s="139"/>
     </row>
-    <row r="18" spans="1:32" s="134" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="369"/>
-      <c r="B18" s="320"/>
+    <row r="18" spans="1:32" s="134" customFormat="1" ht="16" thickBot="1">
+      <c r="A18" s="358"/>
+      <c r="B18" s="319"/>
       <c r="C18" s="139"/>
       <c r="D18" s="139"/>
       <c r="E18" s="139"/>
@@ -61488,20 +61488,20 @@
       <c r="X18" s="139"/>
       <c r="Y18" s="139"/>
       <c r="Z18" s="139"/>
-      <c r="AA18" s="413" t="s">
+      <c r="AA18" s="417" t="s">
         <v>232</v>
       </c>
-      <c r="AB18" s="370"/>
-      <c r="AC18" s="370"/>
+      <c r="AB18" s="377"/>
+      <c r="AC18" s="377"/>
       <c r="AD18" s="140"/>
       <c r="AE18" s="155" t="s">
         <v>191</v>
       </c>
       <c r="AF18" s="155"/>
     </row>
-    <row r="19" spans="1:32" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="369"/>
-      <c r="B19" s="320"/>
+    <row r="19" spans="1:32" s="157" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="A19" s="358"/>
+      <c r="B19" s="319"/>
       <c r="C19" s="139"/>
       <c r="D19" s="139"/>
       <c r="E19" s="139"/>
@@ -61535,9 +61535,9 @@
       <c r="AE19" s="139"/>
       <c r="AF19" s="139"/>
     </row>
-    <row r="20" spans="1:32" s="157" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="416"/>
-      <c r="B20" s="319"/>
+    <row r="20" spans="1:32" s="157" customFormat="1" ht="17" thickTop="1" thickBot="1">
+      <c r="A20" s="420"/>
+      <c r="B20" s="318"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="143"/>
@@ -61569,19 +61569,19 @@
       <c r="AE20" s="143"/>
       <c r="AF20" s="143"/>
     </row>
-    <row r="21" spans="1:32" s="179" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="179" customFormat="1" ht="16" thickTop="1">
       <c r="A21" s="172" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="384" t="s">
+      <c r="C21" s="388" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="334"/>
+      <c r="D21" s="389"/>
+      <c r="E21" s="389"/>
+      <c r="F21" s="300"/>
       <c r="H21" s="180"/>
       <c r="I21" s="180"/>
       <c r="O21" s="180"/>
@@ -61591,11 +61591,11 @@
       <c r="AC21" s="180"/>
       <c r="AD21" s="180"/>
     </row>
-    <row r="22" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="408" t="s">
+    <row r="22" spans="1:32" s="139" customFormat="1">
+      <c r="A22" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="408" t="s">
+      <c r="B22" s="379" t="s">
         <v>193</v>
       </c>
       <c r="H22" s="140"/>
@@ -61610,9 +61610,9 @@
       <c r="AC22" s="140"/>
       <c r="AD22" s="140"/>
     </row>
-    <row r="23" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="408"/>
-      <c r="B23" s="408"/>
+    <row r="23" spans="1:32" s="139" customFormat="1">
+      <c r="A23" s="379"/>
+      <c r="B23" s="379"/>
       <c r="H23" s="140"/>
       <c r="I23" s="140"/>
       <c r="M23" s="129" t="s">
@@ -61626,9 +61626,9 @@
       <c r="AC23" s="140"/>
       <c r="AD23" s="140"/>
     </row>
-    <row r="24" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="408"/>
-      <c r="B24" s="408"/>
+    <row r="24" spans="1:32" s="139" customFormat="1">
+      <c r="A24" s="379"/>
+      <c r="B24" s="379"/>
       <c r="H24" s="127"/>
       <c r="I24" s="127"/>
       <c r="O24" s="127"/>
@@ -61643,9 +61643,9 @@
       <c r="AC24" s="127"/>
       <c r="AD24" s="127"/>
     </row>
-    <row r="25" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="408"/>
-      <c r="B25" s="408"/>
+    <row r="25" spans="1:32" s="139" customFormat="1">
+      <c r="A25" s="379"/>
+      <c r="B25" s="379"/>
       <c r="H25" s="127"/>
       <c r="I25" s="127"/>
       <c r="O25" s="127"/>
@@ -61659,9 +61659,9 @@
       <c r="AC25" s="127"/>
       <c r="AD25" s="127"/>
     </row>
-    <row r="26" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="408"/>
-      <c r="B26" s="408"/>
+    <row r="26" spans="1:32" s="139" customFormat="1">
+      <c r="A26" s="379"/>
+      <c r="B26" s="379"/>
       <c r="H26" s="127"/>
       <c r="I26" s="127"/>
       <c r="O26" s="127"/>
@@ -61675,29 +61675,29 @@
       <c r="AC26" s="127"/>
       <c r="AD26" s="127"/>
     </row>
-    <row r="27" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="408"/>
-      <c r="B27" s="408"/>
+    <row r="27" spans="1:32" s="139" customFormat="1">
+      <c r="A27" s="379"/>
+      <c r="B27" s="379"/>
       <c r="H27" s="127"/>
       <c r="I27" s="127"/>
       <c r="O27" s="127"/>
       <c r="P27" s="127"/>
       <c r="V27" s="127"/>
       <c r="W27" s="127"/>
-      <c r="Z27" s="349" t="s">
+      <c r="Z27" s="366" t="s">
         <v>199</v>
       </c>
-      <c r="AA27" s="349"/>
-      <c r="AB27" s="349"/>
+      <c r="AA27" s="366"/>
+      <c r="AB27" s="366"/>
       <c r="AC27" s="127"/>
       <c r="AD27" s="127"/>
       <c r="AF27" s="171" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="133" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="409"/>
-      <c r="B28" s="409"/>
+    <row r="28" spans="1:32" s="133" customFormat="1" ht="16" thickBot="1">
+      <c r="A28" s="380"/>
+      <c r="B28" s="380"/>
       <c r="H28" s="174"/>
       <c r="I28" s="174"/>
       <c r="O28" s="174"/>
@@ -61712,11 +61712,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="139" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="408" t="s">
+    <row r="29" spans="1:32" s="139" customFormat="1" ht="16" thickTop="1">
+      <c r="A29" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="408" t="s">
+      <c r="B29" s="379" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="168" t="s">
@@ -61731,9 +61731,9 @@
       <c r="AC29" s="127"/>
       <c r="AD29" s="127"/>
     </row>
-    <row r="30" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="408"/>
-      <c r="B30" s="408"/>
+    <row r="30" spans="1:32" s="139" customFormat="1">
+      <c r="A30" s="379"/>
+      <c r="B30" s="379"/>
       <c r="D30" s="168" t="s">
         <v>201</v>
       </c>
@@ -61746,9 +61746,9 @@
       <c r="AC30" s="127"/>
       <c r="AD30" s="127"/>
     </row>
-    <row r="31" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="408"/>
-      <c r="B31" s="408"/>
+    <row r="31" spans="1:32" s="139" customFormat="1">
+      <c r="A31" s="379"/>
+      <c r="B31" s="379"/>
       <c r="E31" s="168" t="s">
         <v>202</v>
       </c>
@@ -61761,14 +61761,14 @@
       <c r="AC31" s="127"/>
       <c r="AD31" s="127"/>
     </row>
-    <row r="32" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="408"/>
-      <c r="B32" s="408"/>
-      <c r="F32" s="370" t="s">
+    <row r="32" spans="1:32" s="139" customFormat="1">
+      <c r="A32" s="379"/>
+      <c r="B32" s="379"/>
+      <c r="F32" s="377" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="370"/>
-      <c r="H32" s="370"/>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377"/>
       <c r="I32" s="140"/>
       <c r="O32" s="140"/>
       <c r="P32" s="140"/>
@@ -61777,9 +61777,9 @@
       <c r="AC32" s="127"/>
       <c r="AD32" s="127"/>
     </row>
-    <row r="33" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="408"/>
-      <c r="B33" s="408"/>
+    <row r="33" spans="1:32" s="139" customFormat="1">
+      <c r="A33" s="379"/>
+      <c r="B33" s="379"/>
       <c r="H33" s="140"/>
       <c r="I33" s="140"/>
       <c r="J33" s="168" t="s">
@@ -61792,15 +61792,15 @@
       <c r="AC33" s="127"/>
       <c r="AD33" s="127"/>
     </row>
-    <row r="34" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="408"/>
-      <c r="B34" s="408"/>
+    <row r="34" spans="1:32" s="139" customFormat="1">
+      <c r="A34" s="379"/>
+      <c r="B34" s="379"/>
       <c r="H34" s="140"/>
       <c r="I34" s="140"/>
-      <c r="J34" s="370" t="s">
+      <c r="J34" s="377" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="370"/>
+      <c r="K34" s="377"/>
       <c r="O34" s="140"/>
       <c r="P34" s="140"/>
       <c r="V34" s="140"/>
@@ -61808,9 +61808,9 @@
       <c r="AC34" s="127"/>
       <c r="AD34" s="127"/>
     </row>
-    <row r="35" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="408"/>
-      <c r="B35" s="408"/>
+    <row r="35" spans="1:32" s="139" customFormat="1">
+      <c r="A35" s="379"/>
+      <c r="B35" s="379"/>
       <c r="H35" s="140"/>
       <c r="I35" s="140"/>
       <c r="L35" s="168" t="s">
@@ -61823,25 +61823,25 @@
       <c r="AC35" s="127"/>
       <c r="AD35" s="127"/>
     </row>
-    <row r="36" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="408"/>
-      <c r="B36" s="408"/>
+    <row r="36" spans="1:32" s="139" customFormat="1">
+      <c r="A36" s="379"/>
+      <c r="B36" s="379"/>
       <c r="H36" s="140"/>
       <c r="I36" s="140"/>
-      <c r="M36" s="370" t="s">
+      <c r="M36" s="377" t="s">
         <v>207</v>
       </c>
-      <c r="N36" s="370"/>
-      <c r="O36" s="370"/>
+      <c r="N36" s="377"/>
+      <c r="O36" s="377"/>
       <c r="P36" s="140"/>
       <c r="V36" s="140"/>
       <c r="W36" s="140"/>
       <c r="AC36" s="127"/>
       <c r="AD36" s="127"/>
     </row>
-    <row r="37" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="408"/>
-      <c r="B37" s="408"/>
+    <row r="37" spans="1:32" s="139" customFormat="1">
+      <c r="A37" s="379"/>
+      <c r="B37" s="379"/>
       <c r="H37" s="140"/>
       <c r="I37" s="140"/>
       <c r="O37" s="140"/>
@@ -61854,9 +61854,9 @@
       <c r="AC37" s="127"/>
       <c r="AD37" s="127"/>
     </row>
-    <row r="38" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="408"/>
-      <c r="B38" s="408"/>
+    <row r="38" spans="1:32" s="139" customFormat="1">
+      <c r="A38" s="379"/>
+      <c r="B38" s="379"/>
       <c r="H38" s="140"/>
       <c r="I38" s="140"/>
       <c r="O38" s="140"/>
@@ -61869,9 +61869,9 @@
       <c r="AC38" s="127"/>
       <c r="AD38" s="127"/>
     </row>
-    <row r="39" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="408"/>
-      <c r="B39" s="408"/>
+    <row r="39" spans="1:32" s="139" customFormat="1">
+      <c r="A39" s="379"/>
+      <c r="B39" s="379"/>
       <c r="H39" s="140"/>
       <c r="I39" s="140"/>
       <c r="O39" s="140"/>
@@ -61884,9 +61884,9 @@
       <c r="AC39" s="127"/>
       <c r="AD39" s="127"/>
     </row>
-    <row r="40" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="408"/>
-      <c r="B40" s="408"/>
+    <row r="40" spans="1:32" s="139" customFormat="1">
+      <c r="A40" s="379"/>
+      <c r="B40" s="379"/>
       <c r="H40" s="140"/>
       <c r="I40" s="140"/>
       <c r="O40" s="140"/>
@@ -61899,24 +61899,24 @@
       <c r="AC40" s="127"/>
       <c r="AD40" s="127"/>
     </row>
-    <row r="41" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="408"/>
-      <c r="B41" s="408"/>
+    <row r="41" spans="1:32" s="139" customFormat="1">
+      <c r="A41" s="379"/>
+      <c r="B41" s="379"/>
       <c r="H41" s="127"/>
       <c r="I41" s="127"/>
       <c r="O41" s="127"/>
       <c r="P41" s="127"/>
-      <c r="U41" s="370" t="s">
+      <c r="U41" s="377" t="s">
         <v>212</v>
       </c>
-      <c r="V41" s="370"/>
+      <c r="V41" s="377"/>
       <c r="W41" s="140"/>
       <c r="AC41" s="127"/>
       <c r="AD41" s="127"/>
     </row>
-    <row r="42" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="408"/>
-      <c r="B42" s="408"/>
+    <row r="42" spans="1:32" s="139" customFormat="1">
+      <c r="A42" s="379"/>
+      <c r="B42" s="379"/>
       <c r="H42" s="127"/>
       <c r="I42" s="127"/>
       <c r="O42" s="127"/>
@@ -61929,9 +61929,9 @@
       <c r="AC42" s="127"/>
       <c r="AD42" s="127"/>
     </row>
-    <row r="43" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="408"/>
-      <c r="B43" s="408"/>
+    <row r="43" spans="1:32" s="139" customFormat="1">
+      <c r="A43" s="379"/>
+      <c r="B43" s="379"/>
       <c r="H43" s="127"/>
       <c r="I43" s="127"/>
       <c r="O43" s="127"/>
@@ -61944,25 +61944,25 @@
       <c r="AC43" s="127"/>
       <c r="AD43" s="127"/>
     </row>
-    <row r="44" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="408"/>
-      <c r="B44" s="408"/>
+    <row r="44" spans="1:32" s="139" customFormat="1">
+      <c r="A44" s="379"/>
+      <c r="B44" s="379"/>
       <c r="H44" s="127"/>
       <c r="I44" s="127"/>
       <c r="O44" s="127"/>
       <c r="P44" s="127"/>
       <c r="V44" s="140"/>
       <c r="W44" s="140"/>
-      <c r="Z44" s="370" t="s">
+      <c r="Z44" s="377" t="s">
         <v>215</v>
       </c>
-      <c r="AA44" s="370"/>
+      <c r="AA44" s="377"/>
       <c r="AC44" s="127"/>
       <c r="AD44" s="127"/>
     </row>
-    <row r="45" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="408"/>
-      <c r="B45" s="408"/>
+    <row r="45" spans="1:32" s="139" customFormat="1">
+      <c r="A45" s="379"/>
+      <c r="B45" s="379"/>
       <c r="H45" s="127"/>
       <c r="I45" s="127"/>
       <c r="O45" s="127"/>
@@ -61973,15 +61973,15 @@
         <v>237</v>
       </c>
       <c r="AC45" s="127"/>
-      <c r="AD45" s="370" t="s">
+      <c r="AD45" s="377" t="s">
         <v>237</v>
       </c>
-      <c r="AE45" s="370"/>
-      <c r="AF45" s="370"/>
+      <c r="AE45" s="377"/>
+      <c r="AF45" s="377"/>
     </row>
-    <row r="46" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="408"/>
-      <c r="B46" s="408"/>
+    <row r="46" spans="1:32" s="139" customFormat="1">
+      <c r="A46" s="379"/>
+      <c r="B46" s="379"/>
       <c r="H46" s="127"/>
       <c r="I46" s="127"/>
       <c r="O46" s="127"/>
@@ -61992,15 +61992,15 @@
         <v>211</v>
       </c>
       <c r="AC46" s="127"/>
-      <c r="AD46" s="370" t="s">
+      <c r="AD46" s="377" t="s">
         <v>211</v>
       </c>
-      <c r="AE46" s="370"/>
-      <c r="AF46" s="370"/>
+      <c r="AE46" s="377"/>
+      <c r="AF46" s="377"/>
     </row>
-    <row r="47" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="408"/>
-      <c r="B47" s="408"/>
+    <row r="47" spans="1:32" s="139" customFormat="1">
+      <c r="A47" s="379"/>
+      <c r="B47" s="379"/>
       <c r="H47" s="127"/>
       <c r="I47" s="127"/>
       <c r="O47" s="127"/>
@@ -62013,9 +62013,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="409"/>
-      <c r="B48" s="409"/>
+    <row r="48" spans="1:32" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A48" s="380"/>
+      <c r="B48" s="380"/>
       <c r="H48" s="131"/>
       <c r="I48" s="131"/>
       <c r="O48" s="131"/>
@@ -62025,11 +62025,11 @@
       <c r="AC48" s="131"/>
       <c r="AD48" s="131"/>
     </row>
-    <row r="49" spans="1:32" s="11" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="407" t="s">
+    <row r="49" spans="1:32" s="11" customFormat="1" ht="16" thickTop="1">
+      <c r="A49" s="378" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="407" t="s">
+      <c r="B49" s="378" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="181" t="s">
@@ -62065,15 +62065,15 @@
       <c r="AE49" s="178"/>
       <c r="AF49" s="178"/>
     </row>
-    <row r="50" spans="1:32" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="408"/>
-      <c r="B50" s="408"/>
-      <c r="C50" s="418" t="s">
+    <row r="50" spans="1:32" s="139" customFormat="1">
+      <c r="A50" s="379"/>
+      <c r="B50" s="379"/>
+      <c r="C50" s="413" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="418"/>
-      <c r="E50" s="418"/>
-      <c r="F50" s="418"/>
+      <c r="D50" s="413"/>
+      <c r="E50" s="413"/>
+      <c r="F50" s="413"/>
       <c r="G50" s="150"/>
       <c r="H50" s="151"/>
       <c r="I50" s="151"/>
@@ -62101,23 +62101,23 @@
       <c r="AE50" s="141"/>
       <c r="AF50" s="141"/>
     </row>
-    <row r="51" spans="1:32" s="178" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="408"/>
-      <c r="B51" s="408"/>
+    <row r="51" spans="1:32" s="178" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A51" s="379"/>
+      <c r="B51" s="379"/>
       <c r="C51" s="175"/>
-      <c r="D51" s="417" t="s">
+      <c r="D51" s="416" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="417"/>
-      <c r="F51" s="417"/>
-      <c r="G51" s="417"/>
-      <c r="H51" s="417"/>
+      <c r="E51" s="416"/>
+      <c r="F51" s="416"/>
+      <c r="G51" s="416"/>
+      <c r="H51" s="416"/>
       <c r="I51" s="176"/>
-      <c r="J51" s="417" t="s">
+      <c r="J51" s="416" t="s">
         <v>219</v>
       </c>
-      <c r="K51" s="417"/>
-      <c r="L51" s="417"/>
+      <c r="K51" s="416"/>
+      <c r="L51" s="416"/>
       <c r="M51" s="175"/>
       <c r="N51" s="175"/>
       <c r="O51" s="176"/>
@@ -62137,23 +62137,23 @@
       <c r="AC51" s="176"/>
       <c r="AD51" s="177"/>
     </row>
-    <row r="52" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="408"/>
-      <c r="B52" s="408"/>
+    <row r="52" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A52" s="379"/>
+      <c r="B52" s="379"/>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
       <c r="E52" s="150"/>
-      <c r="F52" s="418" t="s">
+      <c r="F52" s="413" t="s">
         <v>220</v>
       </c>
-      <c r="G52" s="418"/>
-      <c r="H52" s="418"/>
+      <c r="G52" s="413"/>
+      <c r="H52" s="413"/>
       <c r="I52" s="151"/>
-      <c r="J52" s="418" t="s">
+      <c r="J52" s="413" t="s">
         <v>220</v>
       </c>
-      <c r="K52" s="418"/>
-      <c r="L52" s="418"/>
+      <c r="K52" s="413"/>
+      <c r="L52" s="413"/>
       <c r="M52" s="150"/>
       <c r="N52" s="150"/>
       <c r="O52" s="151"/>
@@ -62173,9 +62173,9 @@
       <c r="AC52" s="151"/>
       <c r="AD52" s="149"/>
     </row>
-    <row r="53" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="408"/>
-      <c r="B53" s="408"/>
+    <row r="53" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A53" s="379"/>
+      <c r="B53" s="379"/>
       <c r="C53" s="150"/>
       <c r="D53" s="150"/>
       <c r="E53" s="150"/>
@@ -62207,9 +62207,9 @@
       <c r="AC53" s="151"/>
       <c r="AD53" s="149"/>
     </row>
-    <row r="54" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="408"/>
-      <c r="B54" s="408"/>
+    <row r="54" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A54" s="379"/>
+      <c r="B54" s="379"/>
       <c r="C54" s="150"/>
       <c r="D54" s="150"/>
       <c r="E54" s="150"/>
@@ -62220,11 +62220,11 @@
       <c r="J54" s="150"/>
       <c r="K54" s="150"/>
       <c r="L54" s="150"/>
-      <c r="M54" s="418" t="s">
+      <c r="M54" s="413" t="s">
         <v>222</v>
       </c>
-      <c r="N54" s="418"/>
-      <c r="O54" s="418"/>
+      <c r="N54" s="413"/>
+      <c r="O54" s="413"/>
       <c r="P54" s="151"/>
       <c r="Q54" s="150"/>
       <c r="R54" s="150"/>
@@ -62241,9 +62241,9 @@
       <c r="AC54" s="151"/>
       <c r="AD54" s="149"/>
     </row>
-    <row r="55" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="408"/>
-      <c r="B55" s="408"/>
+    <row r="55" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A55" s="379"/>
+      <c r="B55" s="379"/>
       <c r="C55" s="150"/>
       <c r="D55" s="150"/>
       <c r="E55" s="150"/>
@@ -62275,9 +62275,9 @@
       <c r="AC55" s="151"/>
       <c r="AD55" s="149"/>
     </row>
-    <row r="56" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="408"/>
-      <c r="B56" s="408"/>
+    <row r="56" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A56" s="379"/>
+      <c r="B56" s="379"/>
       <c r="C56" s="150"/>
       <c r="D56" s="150"/>
       <c r="E56" s="150"/>
@@ -62296,24 +62296,24 @@
       <c r="R56" s="150"/>
       <c r="S56" s="150"/>
       <c r="T56" s="150"/>
-      <c r="U56" s="418" t="s">
+      <c r="U56" s="413" t="s">
         <v>224</v>
       </c>
-      <c r="V56" s="418"/>
+      <c r="V56" s="413"/>
       <c r="W56" s="151"/>
-      <c r="X56" s="418" t="s">
+      <c r="X56" s="413" t="s">
         <v>224</v>
       </c>
-      <c r="Y56" s="418"/>
-      <c r="Z56" s="418"/>
+      <c r="Y56" s="413"/>
+      <c r="Z56" s="413"/>
       <c r="AA56" s="150"/>
       <c r="AB56" s="150"/>
       <c r="AC56" s="151"/>
       <c r="AD56" s="149"/>
     </row>
-    <row r="57" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="408"/>
-      <c r="B57" s="408"/>
+    <row r="57" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A57" s="379"/>
+      <c r="B57" s="379"/>
       <c r="C57" s="150"/>
       <c r="D57" s="150"/>
       <c r="E57" s="150"/>
@@ -62332,24 +62332,24 @@
       <c r="R57" s="150"/>
       <c r="S57" s="150"/>
       <c r="T57" s="150"/>
-      <c r="U57" s="418" t="s">
+      <c r="U57" s="413" t="s">
         <v>225</v>
       </c>
-      <c r="V57" s="418"/>
+      <c r="V57" s="413"/>
       <c r="W57" s="151"/>
-      <c r="X57" s="418" t="s">
+      <c r="X57" s="413" t="s">
         <v>225</v>
       </c>
-      <c r="Y57" s="418"/>
-      <c r="Z57" s="418"/>
-      <c r="AA57" s="418"/>
+      <c r="Y57" s="413"/>
+      <c r="Z57" s="413"/>
+      <c r="AA57" s="413"/>
       <c r="AB57" s="150"/>
       <c r="AC57" s="151"/>
       <c r="AD57" s="149"/>
     </row>
-    <row r="58" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="408"/>
-      <c r="B58" s="408"/>
+    <row r="58" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A58" s="379"/>
+      <c r="B58" s="379"/>
       <c r="C58" s="150"/>
       <c r="D58" s="150"/>
       <c r="E58" s="150"/>
@@ -62375,15 +62375,15 @@
       <c r="Y58" s="159"/>
       <c r="Z58" s="159"/>
       <c r="AA58" s="159"/>
-      <c r="AB58" s="419" t="s">
+      <c r="AB58" s="414" t="s">
         <v>234</v>
       </c>
-      <c r="AC58" s="419"/>
+      <c r="AC58" s="414"/>
       <c r="AD58" s="149"/>
     </row>
-    <row r="59" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="408"/>
-      <c r="B59" s="408"/>
+    <row r="59" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1">
+      <c r="A59" s="379"/>
+      <c r="B59" s="379"/>
       <c r="C59" s="150"/>
       <c r="D59" s="150"/>
       <c r="E59" s="150"/>
@@ -62415,9 +62415,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="141" customFormat="1" ht="15.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="409"/>
-      <c r="B60" s="409"/>
+    <row r="60" spans="1:32" s="141" customFormat="1" ht="15.25" customHeight="1" thickBot="1">
+      <c r="A60" s="380"/>
+      <c r="B60" s="380"/>
       <c r="C60" s="143"/>
       <c r="D60" s="143"/>
       <c r="E60" s="143"/>
@@ -62446,15 +62446,34 @@
       <c r="AB60" s="143"/>
       <c r="AC60" s="131"/>
       <c r="AD60" s="131"/>
-      <c r="AE60" s="420" t="s">
+      <c r="AE60" s="415" t="s">
         <v>236</v>
       </c>
-      <c r="AF60" s="420"/>
+      <c r="AF60" s="415"/>
     </row>
-    <row r="61" spans="1:32" ht="15.15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:32" ht="16" thickTop="1"/>
   </sheetData>
   <autoFilter ref="A1:AF21" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="M36:O36"/>
     <mergeCell ref="B29:B48"/>
     <mergeCell ref="A29:A48"/>
     <mergeCell ref="B49:B60"/>
@@ -62471,25 +62490,6 @@
     <mergeCell ref="AB58:AC58"/>
     <mergeCell ref="AE60:AF60"/>
     <mergeCell ref="C50:F50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="A22:A28"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -62513,30 +62513,30 @@
       <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:237" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:237" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -62841,27 +62841,27 @@
       <c r="IB1" s="7"/>
       <c r="IC1" s="7"/>
     </row>
-    <row r="2" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="408" t="s">
+    <row r="2" spans="1:237" s="139" customFormat="1">
+      <c r="A2" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="408" t="s">
+      <c r="B2" s="379" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="140"/>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="377" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="370"/>
+      <c r="E2" s="377"/>
       <c r="F2" s="140"/>
-      <c r="G2" s="435" t="s">
+      <c r="G2" s="424" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="406" t="s">
+      <c r="H2" s="385" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="394"/>
-      <c r="J2" s="395"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="387"/>
       <c r="M2" s="140"/>
       <c r="N2" s="140"/>
       <c r="T2" s="140"/>
@@ -62869,16 +62869,16 @@
       <c r="AA2" s="140"/>
       <c r="AB2" s="140"/>
     </row>
-    <row r="3" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="408"/>
-      <c r="B3" s="408"/>
+    <row r="3" spans="1:237" s="139" customFormat="1">
+      <c r="A3" s="379"/>
+      <c r="B3" s="379"/>
       <c r="C3" s="140"/>
       <c r="F3" s="140"/>
-      <c r="G3" s="436"/>
-      <c r="J3" s="421" t="s">
+      <c r="G3" s="425"/>
+      <c r="J3" s="443" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="370"/>
+      <c r="K3" s="377"/>
       <c r="M3" s="140"/>
       <c r="N3" s="140"/>
       <c r="T3" s="140"/>
@@ -62886,16 +62886,16 @@
       <c r="AA3" s="140"/>
       <c r="AB3" s="140"/>
     </row>
-    <row r="4" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="408"/>
-      <c r="B4" s="408"/>
+    <row r="4" spans="1:237" s="139" customFormat="1">
+      <c r="A4" s="379"/>
+      <c r="B4" s="379"/>
       <c r="C4" s="140"/>
       <c r="F4" s="140"/>
-      <c r="G4" s="436"/>
-      <c r="K4" s="370" t="s">
+      <c r="G4" s="425"/>
+      <c r="K4" s="377" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="370"/>
+      <c r="L4" s="377"/>
       <c r="M4" s="140"/>
       <c r="N4" s="140"/>
       <c r="O4" s="168" t="s">
@@ -62906,37 +62906,37 @@
       <c r="AA4" s="140"/>
       <c r="AB4" s="140"/>
     </row>
-    <row r="5" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="408"/>
-      <c r="B5" s="408"/>
+    <row r="5" spans="1:237" s="139" customFormat="1">
+      <c r="A5" s="379"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="140"/>
       <c r="F5" s="140"/>
-      <c r="G5" s="436"/>
+      <c r="G5" s="425"/>
       <c r="M5" s="140"/>
       <c r="N5" s="140"/>
-      <c r="P5" s="370" t="s">
+      <c r="P5" s="377" t="s">
         <v>271</v>
       </c>
-      <c r="Q5" s="370"/>
+      <c r="Q5" s="377"/>
       <c r="T5" s="140"/>
       <c r="U5" s="140"/>
       <c r="AA5" s="140"/>
       <c r="AB5" s="140"/>
     </row>
-    <row r="6" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="408"/>
-      <c r="B6" s="408"/>
+    <row r="6" spans="1:237" s="139" customFormat="1">
+      <c r="A6" s="379"/>
+      <c r="B6" s="379"/>
       <c r="C6" s="140"/>
       <c r="F6" s="140"/>
-      <c r="G6" s="436"/>
+      <c r="G6" s="425"/>
       <c r="M6" s="140"/>
       <c r="N6" s="140"/>
-      <c r="P6" s="370" t="s">
+      <c r="P6" s="377" t="s">
         <v>268</v>
       </c>
-      <c r="Q6" s="370"/>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370"/>
+      <c r="Q6" s="377"/>
+      <c r="R6" s="377"/>
+      <c r="S6" s="377"/>
       <c r="T6" s="140"/>
       <c r="U6" s="140"/>
       <c r="V6" s="168" t="s">
@@ -62945,65 +62945,65 @@
       <c r="AA6" s="140"/>
       <c r="AB6" s="140"/>
     </row>
-    <row r="7" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="408"/>
-      <c r="B7" s="408"/>
+    <row r="7" spans="1:237" s="139" customFormat="1">
+      <c r="A7" s="379"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="140"/>
       <c r="F7" s="140"/>
-      <c r="G7" s="436"/>
+      <c r="G7" s="425"/>
       <c r="M7" s="140"/>
       <c r="N7" s="140"/>
       <c r="T7" s="140"/>
       <c r="U7" s="140"/>
-      <c r="V7" s="370" t="s">
+      <c r="V7" s="377" t="s">
         <v>275</v>
       </c>
-      <c r="W7" s="370"/>
+      <c r="W7" s="377"/>
       <c r="AA7" s="140"/>
       <c r="AB7" s="140"/>
     </row>
-    <row r="8" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="408"/>
-      <c r="B8" s="408"/>
+    <row r="8" spans="1:237" s="139" customFormat="1">
+      <c r="A8" s="379"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="140"/>
       <c r="F8" s="140"/>
-      <c r="G8" s="436"/>
+      <c r="G8" s="425"/>
       <c r="M8" s="140"/>
       <c r="N8" s="140"/>
       <c r="T8" s="140"/>
       <c r="U8" s="140"/>
-      <c r="W8" s="370" t="s">
+      <c r="W8" s="377" t="s">
         <v>273</v>
       </c>
-      <c r="X8" s="370"/>
-      <c r="Y8" s="370"/>
-      <c r="Z8" s="370"/>
+      <c r="X8" s="377"/>
+      <c r="Y8" s="377"/>
+      <c r="Z8" s="377"/>
       <c r="AA8" s="140"/>
       <c r="AB8" s="140"/>
     </row>
-    <row r="9" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="408"/>
-      <c r="B9" s="408"/>
+    <row r="9" spans="1:237" s="139" customFormat="1">
+      <c r="A9" s="379"/>
+      <c r="B9" s="379"/>
       <c r="C9" s="140"/>
       <c r="F9" s="140"/>
-      <c r="G9" s="436"/>
+      <c r="G9" s="425"/>
       <c r="M9" s="140"/>
       <c r="N9" s="140"/>
       <c r="T9" s="140"/>
       <c r="U9" s="140"/>
       <c r="AA9" s="140"/>
       <c r="AB9" s="140"/>
-      <c r="AC9" s="370" t="s">
+      <c r="AC9" s="377" t="s">
         <v>269</v>
       </c>
-      <c r="AD9" s="370"/>
+      <c r="AD9" s="377"/>
     </row>
-    <row r="10" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="408"/>
-      <c r="B10" s="408"/>
+    <row r="10" spans="1:237" s="139" customFormat="1">
+      <c r="A10" s="379"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="140"/>
       <c r="F10" s="140"/>
-      <c r="G10" s="436"/>
+      <c r="G10" s="425"/>
       <c r="M10" s="140"/>
       <c r="N10" s="140"/>
       <c r="T10" s="140"/>
@@ -63014,40 +63014,40 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:237" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="409"/>
-      <c r="B11" s="409"/>
+    <row r="11" spans="1:237" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A11" s="380"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="145"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="437"/>
+      <c r="G11" s="426"/>
       <c r="M11" s="145"/>
       <c r="N11" s="145"/>
       <c r="T11" s="145"/>
       <c r="U11" s="145"/>
       <c r="AA11" s="145"/>
       <c r="AB11" s="145"/>
-      <c r="AF11" s="420" t="s">
+      <c r="AF11" s="415" t="s">
         <v>276</v>
       </c>
-      <c r="AG11" s="420"/>
+      <c r="AG11" s="415"/>
     </row>
-    <row r="12" spans="1:237" s="11" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="423" t="s">
+    <row r="12" spans="1:237" s="11" customFormat="1" ht="16" thickTop="1">
+      <c r="A12" s="434" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="440" t="s">
+      <c r="B12" s="429" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="170"/>
       <c r="F12" s="170"/>
-      <c r="G12" s="443" t="s">
+      <c r="G12" s="432" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="443"/>
-      <c r="I12" s="443"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="432"/>
       <c r="M12" s="170"/>
       <c r="N12" s="170"/>
-      <c r="P12" s="435" t="s">
+      <c r="P12" s="424" t="s">
         <v>121</v>
       </c>
       <c r="T12" s="170"/>
@@ -63055,47 +63055,47 @@
       <c r="AA12" s="170"/>
       <c r="AB12" s="170"/>
     </row>
-    <row r="13" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="424"/>
-      <c r="B13" s="441"/>
+    <row r="13" spans="1:237" s="139" customFormat="1">
+      <c r="A13" s="435"/>
+      <c r="B13" s="430"/>
       <c r="C13" s="140"/>
       <c r="F13" s="140"/>
       <c r="G13" s="140"/>
-      <c r="J13" s="370" t="s">
+      <c r="J13" s="377" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="370"/>
+      <c r="K13" s="377"/>
       <c r="M13" s="140"/>
       <c r="N13" s="140"/>
-      <c r="P13" s="436"/>
+      <c r="P13" s="425"/>
       <c r="T13" s="140"/>
       <c r="U13" s="140"/>
       <c r="AA13" s="140"/>
       <c r="AB13" s="140"/>
     </row>
-    <row r="14" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="424"/>
-      <c r="B14" s="441"/>
+    <row r="14" spans="1:237" s="139" customFormat="1">
+      <c r="A14" s="435"/>
+      <c r="B14" s="430"/>
       <c r="C14" s="140"/>
       <c r="F14" s="140"/>
       <c r="G14" s="140"/>
-      <c r="L14" s="370" t="s">
+      <c r="L14" s="377" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="370"/>
+      <c r="M14" s="377"/>
       <c r="N14" s="140"/>
       <c r="O14" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="P14" s="436"/>
+      <c r="P14" s="425"/>
       <c r="T14" s="140"/>
       <c r="U14" s="140"/>
       <c r="AA14" s="140"/>
       <c r="AB14" s="140"/>
     </row>
-    <row r="15" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="424"/>
-      <c r="B15" s="441"/>
+    <row r="15" spans="1:237" s="139" customFormat="1">
+      <c r="A15" s="435"/>
+      <c r="B15" s="430"/>
       <c r="C15" s="140"/>
       <c r="F15" s="140"/>
       <c r="G15" s="140"/>
@@ -63106,21 +63106,21 @@
       <c r="O15" s="163" t="s">
         <v>246</v>
       </c>
-      <c r="P15" s="436"/>
+      <c r="P15" s="425"/>
       <c r="T15" s="140"/>
       <c r="U15" s="140"/>
       <c r="AA15" s="140"/>
       <c r="AB15" s="140"/>
     </row>
-    <row r="16" spans="1:237" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="424"/>
-      <c r="B16" s="441"/>
+    <row r="16" spans="1:237" s="139" customFormat="1">
+      <c r="A16" s="435"/>
+      <c r="B16" s="430"/>
       <c r="C16" s="140"/>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
       <c r="M16" s="140"/>
       <c r="N16" s="140"/>
-      <c r="P16" s="436"/>
+      <c r="P16" s="425"/>
       <c r="Q16" s="167" t="s">
         <v>247</v>
       </c>
@@ -63129,15 +63129,15 @@
       <c r="AA16" s="140"/>
       <c r="AB16" s="140"/>
     </row>
-    <row r="17" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="424"/>
-      <c r="B17" s="441"/>
+    <row r="17" spans="1:33" s="139" customFormat="1">
+      <c r="A17" s="435"/>
+      <c r="B17" s="430"/>
       <c r="C17" s="140"/>
       <c r="F17" s="140"/>
       <c r="G17" s="140"/>
       <c r="M17" s="140"/>
       <c r="N17" s="140"/>
-      <c r="P17" s="436"/>
+      <c r="P17" s="425"/>
       <c r="R17" s="167" t="s">
         <v>248</v>
       </c>
@@ -63146,15 +63146,15 @@
       <c r="AA17" s="140"/>
       <c r="AB17" s="140"/>
     </row>
-    <row r="18" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="424"/>
-      <c r="B18" s="441"/>
+    <row r="18" spans="1:33" s="139" customFormat="1">
+      <c r="A18" s="435"/>
+      <c r="B18" s="430"/>
       <c r="C18" s="140"/>
       <c r="F18" s="140"/>
       <c r="G18" s="140"/>
       <c r="M18" s="140"/>
       <c r="N18" s="140"/>
-      <c r="P18" s="436"/>
+      <c r="P18" s="425"/>
       <c r="S18" s="168" t="s">
         <v>243</v>
       </c>
@@ -63163,52 +63163,52 @@
       <c r="AA18" s="140"/>
       <c r="AB18" s="140"/>
     </row>
-    <row r="19" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="424"/>
-      <c r="B19" s="441"/>
+    <row r="19" spans="1:33" s="139" customFormat="1">
+      <c r="A19" s="435"/>
+      <c r="B19" s="430"/>
       <c r="C19" s="140"/>
       <c r="F19" s="140"/>
       <c r="G19" s="140"/>
       <c r="M19" s="140"/>
       <c r="N19" s="140"/>
-      <c r="P19" s="436"/>
+      <c r="P19" s="425"/>
       <c r="T19" s="140"/>
       <c r="U19" s="140"/>
-      <c r="V19" s="370" t="s">
+      <c r="V19" s="377" t="s">
         <v>252</v>
       </c>
-      <c r="W19" s="370"/>
+      <c r="W19" s="377"/>
       <c r="AA19" s="140"/>
       <c r="AB19" s="140"/>
     </row>
-    <row r="20" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="424"/>
-      <c r="B20" s="441"/>
+    <row r="20" spans="1:33" s="139" customFormat="1">
+      <c r="A20" s="435"/>
+      <c r="B20" s="430"/>
       <c r="C20" s="140"/>
       <c r="F20" s="140"/>
       <c r="G20" s="140"/>
       <c r="M20" s="140"/>
       <c r="N20" s="140"/>
-      <c r="P20" s="436"/>
+      <c r="P20" s="425"/>
       <c r="T20" s="140"/>
       <c r="U20" s="140"/>
       <c r="V20" s="164"/>
-      <c r="W20" s="370" t="s">
+      <c r="W20" s="377" t="s">
         <v>253</v>
       </c>
-      <c r="X20" s="370"/>
+      <c r="X20" s="377"/>
       <c r="AA20" s="140"/>
       <c r="AB20" s="140"/>
     </row>
-    <row r="21" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="424"/>
-      <c r="B21" s="441"/>
+    <row r="21" spans="1:33" s="139" customFormat="1">
+      <c r="A21" s="435"/>
+      <c r="B21" s="430"/>
       <c r="C21" s="140"/>
       <c r="F21" s="140"/>
       <c r="G21" s="140"/>
       <c r="M21" s="140"/>
       <c r="N21" s="140"/>
-      <c r="P21" s="436"/>
+      <c r="P21" s="425"/>
       <c r="T21" s="140"/>
       <c r="U21" s="140"/>
       <c r="Y21" s="168" t="s">
@@ -63217,35 +63217,35 @@
       <c r="AA21" s="140"/>
       <c r="AB21" s="140"/>
     </row>
-    <row r="22" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="424"/>
-      <c r="B22" s="441"/>
+    <row r="22" spans="1:33" s="139" customFormat="1">
+      <c r="A22" s="435"/>
+      <c r="B22" s="430"/>
       <c r="C22" s="140"/>
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
       <c r="M22" s="140"/>
       <c r="N22" s="140"/>
-      <c r="P22" s="436"/>
+      <c r="P22" s="425"/>
       <c r="T22" s="140"/>
       <c r="U22" s="140"/>
       <c r="W22" s="125"/>
       <c r="X22" s="125"/>
-      <c r="Y22" s="370" t="s">
+      <c r="Y22" s="377" t="s">
         <v>251</v>
       </c>
-      <c r="Z22" s="370"/>
+      <c r="Z22" s="377"/>
       <c r="AA22" s="140"/>
       <c r="AB22" s="140"/>
     </row>
-    <row r="23" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="424"/>
-      <c r="B23" s="441"/>
+    <row r="23" spans="1:33" s="139" customFormat="1">
+      <c r="A23" s="435"/>
+      <c r="B23" s="430"/>
       <c r="C23" s="140"/>
       <c r="F23" s="140"/>
       <c r="G23" s="140"/>
       <c r="M23" s="140"/>
       <c r="N23" s="140"/>
-      <c r="P23" s="436"/>
+      <c r="P23" s="425"/>
       <c r="T23" s="140"/>
       <c r="U23" s="140"/>
       <c r="W23" s="125"/>
@@ -63255,20 +63255,20 @@
       </c>
       <c r="AA23" s="140"/>
       <c r="AB23" s="140"/>
-      <c r="AC23" s="370" t="s">
+      <c r="AC23" s="377" t="s">
         <v>254</v>
       </c>
-      <c r="AD23" s="370"/>
+      <c r="AD23" s="377"/>
     </row>
-    <row r="24" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="424"/>
-      <c r="B24" s="441"/>
+    <row r="24" spans="1:33" s="139" customFormat="1">
+      <c r="A24" s="435"/>
+      <c r="B24" s="430"/>
       <c r="C24" s="140"/>
       <c r="F24" s="140"/>
       <c r="G24" s="140"/>
       <c r="M24" s="140"/>
       <c r="N24" s="140"/>
-      <c r="P24" s="436"/>
+      <c r="P24" s="425"/>
       <c r="T24" s="140"/>
       <c r="U24" s="140"/>
       <c r="W24" s="125"/>
@@ -63279,15 +63279,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="424"/>
-      <c r="B25" s="441"/>
+    <row r="25" spans="1:33" s="139" customFormat="1">
+      <c r="A25" s="435"/>
+      <c r="B25" s="430"/>
       <c r="C25" s="140"/>
       <c r="F25" s="140"/>
       <c r="G25" s="140"/>
       <c r="M25" s="140"/>
       <c r="N25" s="140"/>
-      <c r="P25" s="436"/>
+      <c r="P25" s="425"/>
       <c r="T25" s="140"/>
       <c r="U25" s="140"/>
       <c r="W25" s="125"/>
@@ -63295,20 +63295,20 @@
       <c r="AA25" s="140"/>
       <c r="AB25" s="140"/>
       <c r="AC25" s="126"/>
-      <c r="AE25" s="370" t="s">
+      <c r="AE25" s="377" t="s">
         <v>243</v>
       </c>
-      <c r="AF25" s="370"/>
+      <c r="AF25" s="377"/>
     </row>
-    <row r="26" spans="1:33" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="425"/>
-      <c r="B26" s="442"/>
+    <row r="26" spans="1:33" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A26" s="436"/>
+      <c r="B26" s="431"/>
       <c r="C26" s="145"/>
       <c r="F26" s="145"/>
       <c r="G26" s="145"/>
       <c r="M26" s="145"/>
       <c r="N26" s="145"/>
-      <c r="P26" s="437"/>
+      <c r="P26" s="426"/>
       <c r="T26" s="145"/>
       <c r="U26" s="145"/>
       <c r="W26" s="136"/>
@@ -63322,20 +63322,20 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="11" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="408" t="s">
+    <row r="27" spans="1:33" s="11" customFormat="1" ht="16" thickTop="1">
+      <c r="A27" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="408" t="s">
+      <c r="B27" s="379" t="s">
         <v>249</v>
       </c>
       <c r="C27" s="170"/>
-      <c r="D27" s="438" t="s">
+      <c r="D27" s="427" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="438"/>
+      <c r="E27" s="427"/>
       <c r="F27" s="170"/>
-      <c r="G27" s="438" t="s">
+      <c r="G27" s="427" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="186" t="s">
@@ -63349,14 +63349,14 @@
       <c r="AA27" s="170"/>
       <c r="AB27" s="170"/>
     </row>
-    <row r="28" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="408"/>
-      <c r="B28" s="408"/>
+    <row r="28" spans="1:33" s="139" customFormat="1">
+      <c r="A28" s="379"/>
+      <c r="B28" s="379"/>
       <c r="C28" s="140"/>
-      <c r="D28" s="438"/>
-      <c r="E28" s="438"/>
+      <c r="D28" s="427"/>
+      <c r="E28" s="427"/>
       <c r="F28" s="140"/>
-      <c r="G28" s="438"/>
+      <c r="G28" s="427"/>
       <c r="J28" s="186" t="s">
         <v>278</v>
       </c>
@@ -63367,14 +63367,14 @@
       <c r="AA28" s="140"/>
       <c r="AB28" s="140"/>
     </row>
-    <row r="29" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="408"/>
-      <c r="B29" s="408"/>
+    <row r="29" spans="1:33" s="139" customFormat="1">
+      <c r="A29" s="379"/>
+      <c r="B29" s="379"/>
       <c r="C29" s="140"/>
-      <c r="D29" s="438"/>
-      <c r="E29" s="438"/>
+      <c r="D29" s="427"/>
+      <c r="E29" s="427"/>
       <c r="F29" s="140"/>
-      <c r="G29" s="438"/>
+      <c r="G29" s="427"/>
       <c r="K29" s="186" t="s">
         <v>198</v>
       </c>
@@ -63385,38 +63385,38 @@
       <c r="AA29" s="140"/>
       <c r="AB29" s="140"/>
     </row>
-    <row r="30" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="408"/>
-      <c r="B30" s="408"/>
+    <row r="30" spans="1:33" s="139" customFormat="1">
+      <c r="A30" s="379"/>
+      <c r="B30" s="379"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="438"/>
-      <c r="E30" s="438"/>
+      <c r="D30" s="427"/>
+      <c r="E30" s="427"/>
       <c r="F30" s="140"/>
-      <c r="G30" s="438"/>
+      <c r="G30" s="427"/>
       <c r="L30" s="186" t="s">
         <v>279</v>
       </c>
       <c r="M30" s="140"/>
       <c r="N30" s="140"/>
-      <c r="O30" s="426" t="s">
+      <c r="O30" s="437" t="s">
         <v>279</v>
       </c>
-      <c r="P30" s="427"/>
-      <c r="Q30" s="427"/>
-      <c r="R30" s="428"/>
+      <c r="P30" s="438"/>
+      <c r="Q30" s="438"/>
+      <c r="R30" s="439"/>
       <c r="T30" s="140"/>
       <c r="U30" s="140"/>
       <c r="AA30" s="140"/>
       <c r="AB30" s="140"/>
     </row>
-    <row r="31" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="408"/>
-      <c r="B31" s="408"/>
+    <row r="31" spans="1:33" s="139" customFormat="1">
+      <c r="A31" s="379"/>
+      <c r="B31" s="379"/>
       <c r="C31" s="140"/>
-      <c r="D31" s="438"/>
-      <c r="E31" s="438"/>
+      <c r="D31" s="427"/>
+      <c r="E31" s="427"/>
       <c r="F31" s="140"/>
-      <c r="G31" s="438"/>
+      <c r="G31" s="427"/>
       <c r="M31" s="140"/>
       <c r="N31" s="140"/>
       <c r="S31" s="186" t="s">
@@ -63427,49 +63427,49 @@
       <c r="AA31" s="140"/>
       <c r="AB31" s="140"/>
     </row>
-    <row r="32" spans="1:33" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="409"/>
-      <c r="B32" s="409"/>
+    <row r="32" spans="1:33" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A32" s="380"/>
+      <c r="B32" s="380"/>
       <c r="C32" s="145"/>
-      <c r="D32" s="439"/>
-      <c r="E32" s="439"/>
+      <c r="D32" s="428"/>
+      <c r="E32" s="428"/>
       <c r="F32" s="145"/>
-      <c r="G32" s="439"/>
+      <c r="G32" s="428"/>
       <c r="M32" s="145"/>
       <c r="N32" s="145"/>
       <c r="T32" s="145"/>
       <c r="U32" s="145"/>
-      <c r="Y32" s="422" t="s">
+      <c r="Y32" s="433" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" s="422"/>
+      <c r="Z32" s="433"/>
       <c r="AA32" s="145"/>
       <c r="AB32" s="145"/>
-      <c r="AC32" s="432" t="s">
+      <c r="AC32" s="421" t="s">
         <v>282</v>
       </c>
-      <c r="AD32" s="433"/>
-      <c r="AE32" s="433"/>
-      <c r="AF32" s="433"/>
-      <c r="AG32" s="434"/>
+      <c r="AD32" s="422"/>
+      <c r="AE32" s="422"/>
+      <c r="AF32" s="422"/>
+      <c r="AG32" s="423"/>
     </row>
-    <row r="33" spans="1:33" s="11" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="429" t="s">
+    <row r="33" spans="1:33" s="11" customFormat="1" ht="16" thickTop="1">
+      <c r="A33" s="440" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="429" t="s">
+      <c r="B33" s="440" t="s">
         <v>258</v>
       </c>
       <c r="C33" s="170"/>
-      <c r="D33" s="431" t="s">
+      <c r="D33" s="442" t="s">
         <v>259</v>
       </c>
-      <c r="E33" s="431"/>
+      <c r="E33" s="442"/>
       <c r="F33" s="170"/>
-      <c r="G33" s="431" t="s">
+      <c r="G33" s="442" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="431"/>
+      <c r="H33" s="442"/>
       <c r="I33" s="184"/>
       <c r="J33" s="184"/>
       <c r="K33" s="184"/>
@@ -63492,21 +63492,21 @@
       <c r="AB33" s="170"/>
       <c r="AC33" s="184"/>
     </row>
-    <row r="34" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="429"/>
-      <c r="B34" s="429"/>
+    <row r="34" spans="1:33" s="139" customFormat="1">
+      <c r="A34" s="440"/>
+      <c r="B34" s="440"/>
       <c r="C34" s="140"/>
       <c r="D34" s="183"/>
       <c r="E34" s="183"/>
       <c r="F34" s="140"/>
       <c r="G34" s="140"/>
       <c r="H34" s="183"/>
-      <c r="I34" s="422" t="s">
+      <c r="I34" s="433" t="s">
         <v>259</v>
       </c>
-      <c r="J34" s="422"/>
-      <c r="K34" s="422"/>
-      <c r="L34" s="422"/>
+      <c r="J34" s="433"/>
+      <c r="K34" s="433"/>
+      <c r="L34" s="433"/>
       <c r="M34" s="140"/>
       <c r="N34" s="140"/>
       <c r="O34" s="183"/>
@@ -63525,9 +63525,9 @@
       <c r="AB34" s="140"/>
       <c r="AC34" s="183"/>
     </row>
-    <row r="35" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="429"/>
-      <c r="B35" s="429"/>
+    <row r="35" spans="1:33" s="139" customFormat="1">
+      <c r="A35" s="440"/>
+      <c r="B35" s="440"/>
       <c r="C35" s="140"/>
       <c r="D35" s="183"/>
       <c r="E35" s="183"/>
@@ -63539,10 +63539,10 @@
       <c r="K35" s="183"/>
       <c r="L35" s="183"/>
       <c r="M35" s="140"/>
-      <c r="N35" s="422" t="s">
+      <c r="N35" s="433" t="s">
         <v>261</v>
       </c>
-      <c r="O35" s="422"/>
+      <c r="O35" s="433"/>
       <c r="P35" s="183"/>
       <c r="Q35" s="183"/>
       <c r="R35" s="183"/>
@@ -63558,9 +63558,9 @@
       <c r="AB35" s="140"/>
       <c r="AC35" s="183"/>
     </row>
-    <row r="36" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="429"/>
-      <c r="B36" s="429"/>
+    <row r="36" spans="1:33" s="139" customFormat="1">
+      <c r="A36" s="440"/>
+      <c r="B36" s="440"/>
       <c r="C36" s="140"/>
       <c r="D36" s="183"/>
       <c r="E36" s="183"/>
@@ -63574,10 +63574,10 @@
       <c r="M36" s="140"/>
       <c r="N36" s="140"/>
       <c r="O36" s="183"/>
-      <c r="P36" s="422" t="s">
+      <c r="P36" s="433" t="s">
         <v>262</v>
       </c>
-      <c r="Q36" s="422"/>
+      <c r="Q36" s="433"/>
       <c r="R36" s="183"/>
       <c r="S36" s="183"/>
       <c r="T36" s="140"/>
@@ -63591,9 +63591,9 @@
       <c r="AB36" s="140"/>
       <c r="AC36" s="183"/>
     </row>
-    <row r="37" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="429"/>
-      <c r="B37" s="429"/>
+    <row r="37" spans="1:33" s="139" customFormat="1">
+      <c r="A37" s="440"/>
+      <c r="B37" s="440"/>
       <c r="C37" s="140"/>
       <c r="D37" s="183"/>
       <c r="E37" s="183"/>
@@ -63609,10 +63609,10 @@
       <c r="O37" s="183"/>
       <c r="P37" s="183"/>
       <c r="Q37" s="183"/>
-      <c r="R37" s="422" t="s">
+      <c r="R37" s="433" t="s">
         <v>211</v>
       </c>
-      <c r="S37" s="422"/>
+      <c r="S37" s="433"/>
       <c r="T37" s="140"/>
       <c r="U37" s="140"/>
       <c r="V37" s="183"/>
@@ -63624,9 +63624,9 @@
       <c r="AB37" s="140"/>
       <c r="AC37" s="183"/>
     </row>
-    <row r="38" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="429"/>
-      <c r="B38" s="429"/>
+    <row r="38" spans="1:33" s="139" customFormat="1">
+      <c r="A38" s="440"/>
+      <c r="B38" s="440"/>
       <c r="C38" s="140"/>
       <c r="D38" s="183"/>
       <c r="E38" s="183"/>
@@ -63646,10 +63646,10 @@
       <c r="S38" s="183"/>
       <c r="T38" s="140"/>
       <c r="U38" s="140"/>
-      <c r="V38" s="422" t="s">
+      <c r="V38" s="433" t="s">
         <v>259</v>
       </c>
-      <c r="W38" s="422"/>
+      <c r="W38" s="433"/>
       <c r="X38" s="169"/>
       <c r="Y38" s="183"/>
       <c r="Z38" s="183"/>
@@ -63657,9 +63657,9 @@
       <c r="AB38" s="140"/>
       <c r="AC38" s="183"/>
     </row>
-    <row r="39" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="429"/>
-      <c r="B39" s="429"/>
+    <row r="39" spans="1:33" s="139" customFormat="1">
+      <c r="A39" s="440"/>
+      <c r="B39" s="440"/>
       <c r="C39" s="140"/>
       <c r="D39" s="183"/>
       <c r="E39" s="183"/>
@@ -63681,18 +63681,18 @@
       <c r="U39" s="140"/>
       <c r="V39" s="183"/>
       <c r="W39" s="183"/>
-      <c r="X39" s="422" t="s">
+      <c r="X39" s="433" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" s="422"/>
+      <c r="Y39" s="433"/>
       <c r="Z39" s="183"/>
       <c r="AA39" s="140"/>
       <c r="AB39" s="140"/>
       <c r="AC39" s="183"/>
     </row>
-    <row r="40" spans="1:33" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="429"/>
-      <c r="B40" s="429"/>
+    <row r="40" spans="1:33" s="139" customFormat="1">
+      <c r="A40" s="440"/>
+      <c r="B40" s="440"/>
       <c r="C40" s="140"/>
       <c r="D40" s="183"/>
       <c r="E40" s="183"/>
@@ -63725,9 +63725,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="143" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="430"/>
-      <c r="B41" s="430"/>
+    <row r="41" spans="1:33" s="143" customFormat="1" ht="16" thickBot="1">
+      <c r="A41" s="441"/>
+      <c r="B41" s="441"/>
       <c r="C41" s="145"/>
       <c r="F41" s="145"/>
       <c r="G41" s="145"/>
@@ -63737,17 +63737,43 @@
       <c r="U41" s="145"/>
       <c r="AA41" s="145"/>
       <c r="AB41" s="145"/>
-      <c r="AD41" s="432" t="s">
+      <c r="AD41" s="421" t="s">
         <v>265</v>
       </c>
-      <c r="AE41" s="433"/>
-      <c r="AF41" s="433"/>
-      <c r="AG41" s="434"/>
+      <c r="AE41" s="422"/>
+      <c r="AF41" s="422"/>
+      <c r="AG41" s="423"/>
     </row>
-    <row r="42" spans="1:33" ht="15.15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:33" ht="16" thickTop="1"/>
   </sheetData>
   <autoFilter ref="A1:G32" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="42">
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="AD41:AG41"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="G2:G11"/>
@@ -63764,32 +63790,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="P12:P26"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="A12:A26"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="V7:W7"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -63813,22 +63813,22 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
     <col min="23" max="23" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:265" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>328</v>
       </c>
@@ -64159,11 +64159,11 @@
       <c r="JD1" s="7"/>
       <c r="JE1" s="7"/>
     </row>
-    <row r="2" spans="1:265" s="194" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="444" t="s">
+    <row r="2" spans="1:265" s="194" customFormat="1" thickTop="1">
+      <c r="A2" s="453" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="444" t="s">
+      <c r="B2" s="453" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="192"/>
@@ -64185,16 +64185,16 @@
       <c r="AE2" s="192"/>
       <c r="AF2" s="192"/>
     </row>
-    <row r="3" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A3" s="445"/>
-      <c r="B3" s="445"/>
+    <row r="3" spans="1:265" s="189" customFormat="1" ht="14">
+      <c r="A3" s="454"/>
+      <c r="B3" s="454"/>
       <c r="C3" s="187"/>
       <c r="D3" s="187"/>
-      <c r="F3" s="447" t="s">
+      <c r="F3" s="452" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="447"/>
-      <c r="H3" s="447"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
       <c r="I3" s="187"/>
       <c r="J3" s="187"/>
       <c r="K3" s="187"/>
@@ -64207,9 +64207,9 @@
       <c r="AE3" s="187"/>
       <c r="AF3" s="187"/>
     </row>
-    <row r="4" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A4" s="445"/>
-      <c r="B4" s="445"/>
+    <row r="4" spans="1:265" s="189" customFormat="1" ht="14">
+      <c r="A4" s="454"/>
+      <c r="B4" s="454"/>
       <c r="C4" s="187"/>
       <c r="D4" s="187"/>
       <c r="H4" s="213" t="s">
@@ -64230,39 +64230,39 @@
       <c r="AE4" s="187"/>
       <c r="AF4" s="187"/>
     </row>
-    <row r="5" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A5" s="445"/>
-      <c r="B5" s="445"/>
+    <row r="5" spans="1:265" s="189" customFormat="1" ht="14">
+      <c r="A5" s="454"/>
+      <c r="B5" s="454"/>
       <c r="C5" s="187"/>
       <c r="D5" s="187"/>
       <c r="I5" s="187"/>
       <c r="J5" s="187"/>
       <c r="K5" s="187"/>
-      <c r="M5" s="447" t="s">
+      <c r="M5" s="452" t="s">
         <v>305</v>
       </c>
-      <c r="N5" s="447"/>
-      <c r="O5" s="447"/>
-      <c r="P5" s="447"/>
+      <c r="N5" s="452"/>
+      <c r="O5" s="452"/>
+      <c r="P5" s="452"/>
       <c r="Q5" s="187"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="447" t="s">
+      <c r="S5" s="452" t="s">
         <v>305</v>
       </c>
-      <c r="T5" s="447"/>
-      <c r="U5" s="447"/>
-      <c r="V5" s="447"/>
-      <c r="W5" s="447"/>
-      <c r="X5" s="447"/>
+      <c r="T5" s="452"/>
+      <c r="U5" s="452"/>
+      <c r="V5" s="452"/>
+      <c r="W5" s="452"/>
+      <c r="X5" s="452"/>
       <c r="Y5" s="206"/>
       <c r="AC5" s="190"/>
       <c r="AD5" s="190"/>
       <c r="AE5" s="187"/>
       <c r="AF5" s="187"/>
     </row>
-    <row r="6" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A6" s="445"/>
-      <c r="B6" s="445"/>
+    <row r="6" spans="1:265" s="189" customFormat="1" ht="14">
+      <c r="A6" s="454"/>
+      <c r="B6" s="454"/>
       <c r="C6" s="187"/>
       <c r="D6" s="187"/>
       <c r="I6" s="187"/>
@@ -64270,11 +64270,11 @@
       <c r="K6" s="187"/>
       <c r="Q6" s="187"/>
       <c r="R6" s="187"/>
-      <c r="U6" s="447" t="s">
+      <c r="U6" s="452" t="s">
         <v>306</v>
       </c>
-      <c r="V6" s="447"/>
-      <c r="W6" s="447"/>
+      <c r="V6" s="452"/>
+      <c r="W6" s="452"/>
       <c r="X6" s="206"/>
       <c r="Y6" s="206"/>
       <c r="AC6" s="190"/>
@@ -64282,9 +64282,9 @@
       <c r="AE6" s="187"/>
       <c r="AF6" s="187"/>
     </row>
-    <row r="7" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A7" s="445"/>
-      <c r="B7" s="445"/>
+    <row r="7" spans="1:265" s="189" customFormat="1" ht="14">
+      <c r="A7" s="454"/>
+      <c r="B7" s="454"/>
       <c r="C7" s="187"/>
       <c r="D7" s="187"/>
       <c r="I7" s="187"/>
@@ -64292,21 +64292,21 @@
       <c r="K7" s="187"/>
       <c r="Q7" s="187"/>
       <c r="R7" s="187"/>
-      <c r="X7" s="447" t="s">
+      <c r="X7" s="452" t="s">
         <v>307</v>
       </c>
-      <c r="Y7" s="447"/>
-      <c r="Z7" s="447"/>
-      <c r="AA7" s="447"/>
-      <c r="AB7" s="447"/>
+      <c r="Y7" s="452"/>
+      <c r="Z7" s="452"/>
+      <c r="AA7" s="452"/>
+      <c r="AB7" s="452"/>
       <c r="AC7" s="187"/>
       <c r="AD7" s="187"/>
       <c r="AE7" s="187"/>
       <c r="AF7" s="187"/>
     </row>
-    <row r="8" spans="1:265" s="209" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="446"/>
-      <c r="B8" s="446"/>
+    <row r="8" spans="1:265" s="209" customFormat="1" thickBot="1">
+      <c r="A8" s="455"/>
+      <c r="B8" s="455"/>
       <c r="C8" s="214"/>
       <c r="D8" s="214"/>
       <c r="I8" s="214"/>
@@ -64314,21 +64314,21 @@
       <c r="K8" s="214"/>
       <c r="Q8" s="214"/>
       <c r="R8" s="214"/>
-      <c r="W8" s="448" t="s">
+      <c r="W8" s="450" t="s">
         <v>308</v>
       </c>
-      <c r="X8" s="448"/>
+      <c r="X8" s="450"/>
       <c r="Y8" s="208"/>
       <c r="AC8" s="214"/>
       <c r="AD8" s="214"/>
       <c r="AE8" s="214"/>
       <c r="AF8" s="214"/>
     </row>
-    <row r="9" spans="1:265" s="198" customFormat="1" ht="15.15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="444" t="s">
+    <row r="9" spans="1:265" s="198" customFormat="1" ht="16" thickTop="1">
+      <c r="A9" s="453" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="444" t="s">
+      <c r="B9" s="453" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="192"/>
@@ -64364,9 +64364,9 @@
       <c r="AE9" s="197"/>
       <c r="AF9" s="197"/>
     </row>
-    <row r="10" spans="1:265" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="449"/>
-      <c r="B10" s="449"/>
+    <row r="10" spans="1:265" s="231" customFormat="1">
+      <c r="A10" s="461"/>
+      <c r="B10" s="461"/>
       <c r="C10" s="225"/>
       <c r="D10" s="225"/>
       <c r="E10" s="188" t="s">
@@ -64400,24 +64400,24 @@
       <c r="AE10" s="177"/>
       <c r="AF10" s="177"/>
     </row>
-    <row r="11" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="445"/>
-      <c r="B11" s="445"/>
+    <row r="11" spans="1:265" s="199" customFormat="1">
+      <c r="A11" s="454"/>
+      <c r="B11" s="454"/>
       <c r="C11" s="187"/>
       <c r="D11" s="187"/>
-      <c r="F11" s="450" t="s">
+      <c r="F11" s="446" t="s">
         <v>285</v>
       </c>
-      <c r="G11" s="451"/>
-      <c r="H11" s="452"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="448"/>
       <c r="I11" s="187"/>
       <c r="J11" s="187"/>
       <c r="K11" s="187"/>
-      <c r="L11" s="450" t="s">
+      <c r="L11" s="446" t="s">
         <v>285</v>
       </c>
-      <c r="M11" s="451"/>
-      <c r="N11" s="452"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="448"/>
       <c r="O11" s="189"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="187"/>
@@ -64437,16 +64437,16 @@
       <c r="AE11" s="149"/>
       <c r="AF11" s="149"/>
     </row>
-    <row r="12" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="445"/>
-      <c r="B12" s="445"/>
+    <row r="12" spans="1:265" s="199" customFormat="1">
+      <c r="A12" s="454"/>
+      <c r="B12" s="454"/>
       <c r="C12" s="187"/>
       <c r="D12" s="187"/>
       <c r="E12" s="189"/>
-      <c r="F12" s="453" t="s">
+      <c r="F12" s="462" t="s">
         <v>286</v>
       </c>
-      <c r="G12" s="454"/>
+      <c r="G12" s="463"/>
       <c r="H12" s="189"/>
       <c r="I12" s="187"/>
       <c r="J12" s="187"/>
@@ -64473,9 +64473,9 @@
       <c r="AE12" s="149"/>
       <c r="AF12" s="149"/>
     </row>
-    <row r="13" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="445"/>
-      <c r="B13" s="445"/>
+    <row r="13" spans="1:265" s="199" customFormat="1">
+      <c r="A13" s="454"/>
+      <c r="B13" s="454"/>
       <c r="C13" s="187"/>
       <c r="D13" s="187"/>
       <c r="E13" s="189"/>
@@ -64485,10 +64485,10 @@
       <c r="I13" s="187"/>
       <c r="J13" s="187"/>
       <c r="K13" s="187"/>
-      <c r="L13" s="453" t="s">
+      <c r="L13" s="462" t="s">
         <v>287</v>
       </c>
-      <c r="M13" s="454"/>
+      <c r="M13" s="463"/>
       <c r="N13" s="189"/>
       <c r="O13" s="189"/>
       <c r="P13" s="189"/>
@@ -64509,9 +64509,9 @@
       <c r="AE13" s="149"/>
       <c r="AF13" s="149"/>
     </row>
-    <row r="14" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="445"/>
-      <c r="B14" s="445"/>
+    <row r="14" spans="1:265" s="199" customFormat="1">
+      <c r="A14" s="454"/>
+      <c r="B14" s="454"/>
       <c r="C14" s="187"/>
       <c r="D14" s="187"/>
       <c r="E14" s="189"/>
@@ -64523,18 +64523,18 @@
       <c r="K14" s="187"/>
       <c r="L14" s="189"/>
       <c r="M14" s="189"/>
-      <c r="N14" s="453" t="s">
+      <c r="N14" s="462" t="s">
         <v>288</v>
       </c>
-      <c r="O14" s="455"/>
-      <c r="P14" s="455"/>
-      <c r="Q14" s="454"/>
+      <c r="O14" s="464"/>
+      <c r="P14" s="464"/>
+      <c r="Q14" s="463"/>
       <c r="R14" s="187"/>
-      <c r="S14" s="450" t="s">
+      <c r="S14" s="446" t="s">
         <v>289</v>
       </c>
-      <c r="T14" s="451"/>
-      <c r="U14" s="452"/>
+      <c r="T14" s="447"/>
+      <c r="U14" s="448"/>
       <c r="V14" s="189"/>
       <c r="W14" s="189"/>
       <c r="X14" s="187"/>
@@ -64547,9 +64547,9 @@
       <c r="AE14" s="149"/>
       <c r="AF14" s="149"/>
     </row>
-    <row r="15" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="445"/>
-      <c r="B15" s="445"/>
+    <row r="15" spans="1:265" s="199" customFormat="1">
+      <c r="A15" s="454"/>
+      <c r="B15" s="454"/>
       <c r="C15" s="187"/>
       <c r="D15" s="187"/>
       <c r="E15" s="189"/>
@@ -64562,10 +64562,10 @@
       <c r="L15" s="189"/>
       <c r="M15" s="189"/>
       <c r="N15" s="189"/>
-      <c r="O15" s="456" t="s">
+      <c r="O15" s="449" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="456"/>
+      <c r="P15" s="449"/>
       <c r="Q15" s="187"/>
       <c r="R15" s="187"/>
       <c r="S15" s="189"/>
@@ -64583,9 +64583,9 @@
       <c r="AE15" s="149"/>
       <c r="AF15" s="149"/>
     </row>
-    <row r="16" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="445"/>
-      <c r="B16" s="445"/>
+    <row r="16" spans="1:265" s="199" customFormat="1">
+      <c r="A16" s="454"/>
+      <c r="B16" s="454"/>
       <c r="C16" s="187"/>
       <c r="D16" s="187"/>
       <c r="E16" s="189"/>
@@ -64604,11 +64604,11 @@
         <v>291</v>
       </c>
       <c r="R16" s="187"/>
-      <c r="S16" s="456" t="s">
+      <c r="S16" s="449" t="s">
         <v>291</v>
       </c>
-      <c r="T16" s="456"/>
-      <c r="U16" s="456"/>
+      <c r="T16" s="449"/>
+      <c r="U16" s="449"/>
       <c r="V16" s="189"/>
       <c r="W16" s="189"/>
       <c r="X16" s="187"/>
@@ -64621,9 +64621,9 @@
       <c r="AE16" s="149"/>
       <c r="AF16" s="149"/>
     </row>
-    <row r="17" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="445"/>
-      <c r="B17" s="445"/>
+    <row r="17" spans="1:265" s="199" customFormat="1">
+      <c r="A17" s="454"/>
+      <c r="B17" s="454"/>
       <c r="C17" s="187"/>
       <c r="D17" s="187"/>
       <c r="E17" s="189"/>
@@ -64643,10 +64643,10 @@
       <c r="S17" s="189"/>
       <c r="T17" s="189"/>
       <c r="U17" s="189"/>
-      <c r="V17" s="456" t="s">
+      <c r="V17" s="449" t="s">
         <v>292</v>
       </c>
-      <c r="W17" s="456"/>
+      <c r="W17" s="449"/>
       <c r="X17" s="187"/>
       <c r="Y17" s="187"/>
       <c r="Z17" s="191" t="s">
@@ -64659,9 +64659,9 @@
       <c r="AE17" s="149"/>
       <c r="AF17" s="149"/>
     </row>
-    <row r="18" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="445"/>
-      <c r="B18" s="445"/>
+    <row r="18" spans="1:265" s="199" customFormat="1">
+      <c r="A18" s="454"/>
+      <c r="B18" s="454"/>
       <c r="C18" s="187"/>
       <c r="D18" s="187"/>
       <c r="E18" s="189"/>
@@ -64686,18 +64686,18 @@
       <c r="X18" s="187"/>
       <c r="Y18" s="187"/>
       <c r="Z18" s="190"/>
-      <c r="AA18" s="456" t="s">
+      <c r="AA18" s="449" t="s">
         <v>293</v>
       </c>
-      <c r="AB18" s="456"/>
-      <c r="AC18" s="456"/>
-      <c r="AD18" s="456"/>
+      <c r="AB18" s="449"/>
+      <c r="AC18" s="449"/>
+      <c r="AD18" s="449"/>
       <c r="AE18" s="149"/>
       <c r="AF18" s="149"/>
     </row>
-    <row r="19" spans="1:265" s="199" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="445"/>
-      <c r="B19" s="445"/>
+    <row r="19" spans="1:265" s="199" customFormat="1">
+      <c r="A19" s="454"/>
+      <c r="B19" s="454"/>
       <c r="C19" s="149"/>
       <c r="D19" s="149"/>
       <c r="I19" s="149"/>
@@ -64712,9 +64712,9 @@
       <c r="AE19" s="149"/>
       <c r="AF19" s="149"/>
     </row>
-    <row r="20" spans="1:265" s="202" customFormat="1" ht="15.15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="446"/>
-      <c r="B20" s="446"/>
+    <row r="20" spans="1:265" s="202" customFormat="1" ht="16" thickBot="1">
+      <c r="A20" s="455"/>
+      <c r="B20" s="455"/>
       <c r="C20" s="201"/>
       <c r="D20" s="201"/>
       <c r="I20" s="201"/>
@@ -64729,11 +64729,11 @@
       <c r="AE20" s="201"/>
       <c r="AF20" s="201"/>
     </row>
-    <row r="21" spans="1:265" s="194" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:265" s="194" customFormat="1" thickTop="1">
       <c r="A21" s="457" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="444" t="s">
+      <c r="B21" s="453" t="s">
         <v>314</v>
       </c>
       <c r="C21" s="192"/>
@@ -64990,23 +64990,23 @@
       <c r="JD21" s="195"/>
       <c r="JE21" s="195"/>
     </row>
-    <row r="22" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A22" s="458"/>
-      <c r="B22" s="445"/>
+      <c r="B22" s="454"/>
       <c r="C22" s="187"/>
       <c r="D22" s="187"/>
-      <c r="G22" s="461" t="s">
+      <c r="G22" s="444" t="s">
         <v>295</v>
       </c>
-      <c r="H22" s="461"/>
+      <c r="H22" s="444"/>
       <c r="I22" s="187"/>
       <c r="J22" s="187"/>
       <c r="K22" s="187"/>
-      <c r="L22" s="462" t="s">
+      <c r="L22" s="445" t="s">
         <v>295</v>
       </c>
-      <c r="M22" s="462"/>
-      <c r="N22" s="462"/>
+      <c r="M22" s="445"/>
+      <c r="N22" s="445"/>
       <c r="Q22" s="187"/>
       <c r="R22" s="187"/>
       <c r="X22" s="187"/>
@@ -65016,18 +65016,18 @@
       <c r="AE22" s="187"/>
       <c r="AF22" s="187"/>
     </row>
-    <row r="23" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A23" s="458"/>
-      <c r="B23" s="445"/>
+      <c r="B23" s="454"/>
       <c r="C23" s="187"/>
       <c r="D23" s="187"/>
       <c r="I23" s="187"/>
       <c r="J23" s="187"/>
       <c r="K23" s="187"/>
-      <c r="O23" s="461" t="s">
+      <c r="O23" s="444" t="s">
         <v>296</v>
       </c>
-      <c r="P23" s="461"/>
+      <c r="P23" s="444"/>
       <c r="Q23" s="187"/>
       <c r="R23" s="187"/>
       <c r="X23" s="187"/>
@@ -65037,9 +65037,9 @@
       <c r="AE23" s="187"/>
       <c r="AF23" s="187"/>
     </row>
-    <row r="24" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A24" s="458"/>
-      <c r="B24" s="445"/>
+      <c r="B24" s="454"/>
       <c r="C24" s="187"/>
       <c r="D24" s="187"/>
       <c r="I24" s="187"/>
@@ -65057,9 +65057,9 @@
       <c r="AE24" s="187"/>
       <c r="AF24" s="187"/>
     </row>
-    <row r="25" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A25" s="458"/>
-      <c r="B25" s="445"/>
+      <c r="B25" s="454"/>
       <c r="C25" s="187"/>
       <c r="D25" s="187"/>
       <c r="I25" s="187"/>
@@ -65067,10 +65067,10 @@
       <c r="K25" s="187"/>
       <c r="Q25" s="187"/>
       <c r="R25" s="187"/>
-      <c r="S25" s="462" t="s">
+      <c r="S25" s="445" t="s">
         <v>298</v>
       </c>
-      <c r="T25" s="462"/>
+      <c r="T25" s="445"/>
       <c r="X25" s="187"/>
       <c r="Y25" s="187"/>
       <c r="Z25" s="190"/>
@@ -65078,9 +65078,9 @@
       <c r="AE25" s="187"/>
       <c r="AF25" s="187"/>
     </row>
-    <row r="26" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A26" s="458"/>
-      <c r="B26" s="445"/>
+      <c r="B26" s="454"/>
       <c r="C26" s="187"/>
       <c r="D26" s="187"/>
       <c r="I26" s="187"/>
@@ -65088,10 +65088,10 @@
       <c r="K26" s="187"/>
       <c r="Q26" s="187"/>
       <c r="R26" s="187"/>
-      <c r="T26" s="462" t="s">
+      <c r="T26" s="445" t="s">
         <v>299</v>
       </c>
-      <c r="U26" s="462"/>
+      <c r="U26" s="445"/>
       <c r="V26" s="205"/>
       <c r="X26" s="187"/>
       <c r="Y26" s="187"/>
@@ -65100,9 +65100,9 @@
       <c r="AE26" s="187"/>
       <c r="AF26" s="187"/>
     </row>
-    <row r="27" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A27" s="458"/>
-      <c r="B27" s="445"/>
+      <c r="B27" s="454"/>
       <c r="C27" s="187"/>
       <c r="D27" s="187"/>
       <c r="I27" s="187"/>
@@ -65110,10 +65110,10 @@
       <c r="K27" s="187"/>
       <c r="Q27" s="187"/>
       <c r="R27" s="187"/>
-      <c r="V27" s="462" t="s">
+      <c r="V27" s="445" t="s">
         <v>298</v>
       </c>
-      <c r="W27" s="462"/>
+      <c r="W27" s="445"/>
       <c r="X27" s="187"/>
       <c r="Y27" s="187"/>
       <c r="Z27" s="190"/>
@@ -65121,9 +65121,9 @@
       <c r="AE27" s="187"/>
       <c r="AF27" s="187"/>
     </row>
-    <row r="28" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A28" s="458"/>
-      <c r="B28" s="445"/>
+      <c r="B28" s="454"/>
       <c r="C28" s="187"/>
       <c r="D28" s="187"/>
       <c r="I28" s="187"/>
@@ -65139,9 +65139,9 @@
       <c r="AE28" s="206"/>
       <c r="AF28" s="206"/>
     </row>
-    <row r="29" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A29" s="458"/>
-      <c r="B29" s="445"/>
+      <c r="B29" s="454"/>
       <c r="C29" s="187"/>
       <c r="D29" s="187"/>
       <c r="I29" s="187"/>
@@ -65149,16 +65149,16 @@
       <c r="K29" s="187"/>
       <c r="Q29" s="187"/>
       <c r="R29" s="187"/>
-      <c r="X29" s="462" t="s">
+      <c r="X29" s="445" t="s">
         <v>301</v>
       </c>
-      <c r="Y29" s="462"/>
+      <c r="Y29" s="445"/>
       <c r="AE29" s="206"/>
       <c r="AF29" s="206"/>
     </row>
-    <row r="30" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A30" s="458"/>
-      <c r="B30" s="445"/>
+      <c r="B30" s="454"/>
       <c r="C30" s="187"/>
       <c r="D30" s="187"/>
       <c r="I30" s="187"/>
@@ -65171,18 +65171,18 @@
       <c r="Z30" s="207" t="s">
         <v>325</v>
       </c>
-      <c r="AA30" s="462" t="s">
+      <c r="AA30" s="445" t="s">
         <v>298</v>
       </c>
-      <c r="AB30" s="462"/>
+      <c r="AB30" s="445"/>
       <c r="AC30" s="210"/>
       <c r="AD30" s="210"/>
       <c r="AE30" s="206"/>
       <c r="AF30" s="206"/>
     </row>
-    <row r="31" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A31" s="458"/>
-      <c r="B31" s="445"/>
+      <c r="B31" s="454"/>
       <c r="C31" s="187"/>
       <c r="D31" s="187"/>
       <c r="I31" s="187"/>
@@ -65195,9 +65195,9 @@
       <c r="AE31" s="206"/>
       <c r="AF31" s="206"/>
     </row>
-    <row r="32" spans="1:265" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:265" s="189" customFormat="1" ht="14">
       <c r="A32" s="458"/>
-      <c r="B32" s="445"/>
+      <c r="B32" s="454"/>
       <c r="C32" s="187"/>
       <c r="D32" s="187"/>
       <c r="I32" s="187"/>
@@ -65210,9 +65210,9 @@
       <c r="AE32" s="206"/>
       <c r="AF32" s="206"/>
     </row>
-    <row r="33" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="189" customFormat="1" ht="14">
       <c r="A33" s="458"/>
-      <c r="B33" s="445"/>
+      <c r="B33" s="454"/>
       <c r="C33" s="187"/>
       <c r="D33" s="187"/>
       <c r="I33" s="206"/>
@@ -65225,9 +65225,9 @@
       <c r="AE33" s="206"/>
       <c r="AF33" s="206"/>
     </row>
-    <row r="34" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="189" customFormat="1" ht="14">
       <c r="A34" s="458"/>
-      <c r="B34" s="445"/>
+      <c r="B34" s="454"/>
       <c r="C34" s="206"/>
       <c r="D34" s="206"/>
       <c r="I34" s="206"/>
@@ -65240,9 +65240,9 @@
       <c r="AE34" s="206"/>
       <c r="AF34" s="206"/>
     </row>
-    <row r="35" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="189" customFormat="1" ht="14">
       <c r="A35" s="458"/>
-      <c r="B35" s="445"/>
+      <c r="B35" s="454"/>
       <c r="C35" s="206"/>
       <c r="D35" s="206"/>
       <c r="I35" s="206"/>
@@ -65255,9 +65255,9 @@
       <c r="AE35" s="206"/>
       <c r="AF35" s="206"/>
     </row>
-    <row r="36" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="189" customFormat="1" ht="14">
       <c r="A36" s="458"/>
-      <c r="B36" s="445"/>
+      <c r="B36" s="454"/>
       <c r="C36" s="206"/>
       <c r="D36" s="206"/>
       <c r="I36" s="206"/>
@@ -65270,9 +65270,9 @@
       <c r="AE36" s="206"/>
       <c r="AF36" s="206"/>
     </row>
-    <row r="37" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="189" customFormat="1" ht="14">
       <c r="A37" s="458"/>
-      <c r="B37" s="445"/>
+      <c r="B37" s="454"/>
       <c r="C37" s="206"/>
       <c r="D37" s="206"/>
       <c r="I37" s="206"/>
@@ -65285,9 +65285,9 @@
       <c r="AE37" s="206"/>
       <c r="AF37" s="206"/>
     </row>
-    <row r="38" spans="1:32" s="209" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" s="209" customFormat="1" thickBot="1">
       <c r="A38" s="459"/>
-      <c r="B38" s="446"/>
+      <c r="B38" s="455"/>
       <c r="C38" s="208"/>
       <c r="D38" s="208"/>
       <c r="I38" s="208"/>
@@ -65300,29 +65300,29 @@
       <c r="AE38" s="208"/>
       <c r="AF38" s="208"/>
     </row>
-    <row r="39" spans="1:32" s="194" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="444" t="s">
+    <row r="39" spans="1:32" s="194" customFormat="1" thickTop="1">
+      <c r="A39" s="453" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="444" t="s">
+      <c r="B39" s="453" t="s">
         <v>315</v>
       </c>
       <c r="C39" s="192"/>
       <c r="D39" s="192"/>
-      <c r="E39" s="463" t="s">
+      <c r="E39" s="456" t="s">
         <v>316</v>
       </c>
-      <c r="F39" s="463"/>
+      <c r="F39" s="456"/>
       <c r="H39" s="224" t="s">
         <v>316</v>
       </c>
       <c r="I39" s="192"/>
       <c r="J39" s="192"/>
       <c r="K39" s="192"/>
-      <c r="L39" s="464" t="s">
+      <c r="L39" s="451" t="s">
         <v>316</v>
       </c>
-      <c r="M39" s="464"/>
+      <c r="M39" s="451"/>
       <c r="Q39" s="192"/>
       <c r="R39" s="192"/>
       <c r="X39" s="192"/>
@@ -65332,9 +65332,9 @@
       <c r="AE39" s="192"/>
       <c r="AF39" s="192"/>
     </row>
-    <row r="40" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A40" s="445"/>
-      <c r="B40" s="445"/>
+    <row r="40" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A40" s="454"/>
+      <c r="B40" s="454"/>
       <c r="C40" s="187"/>
       <c r="D40" s="187"/>
       <c r="G40" s="221" t="s">
@@ -65350,19 +65350,19 @@
       <c r="AE40" s="187"/>
       <c r="AF40" s="187"/>
     </row>
-    <row r="41" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A41" s="445"/>
-      <c r="B41" s="445"/>
+    <row r="41" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A41" s="454"/>
+      <c r="B41" s="454"/>
       <c r="C41" s="187"/>
       <c r="D41" s="187"/>
       <c r="I41" s="187"/>
       <c r="J41" s="187"/>
       <c r="K41" s="187"/>
-      <c r="N41" s="456" t="s">
+      <c r="N41" s="449" t="s">
         <v>318</v>
       </c>
-      <c r="O41" s="456"/>
-      <c r="P41" s="456"/>
+      <c r="O41" s="449"/>
+      <c r="P41" s="449"/>
       <c r="Q41" s="187"/>
       <c r="R41" s="187"/>
       <c r="X41" s="187"/>
@@ -65370,9 +65370,9 @@
       <c r="AE41" s="187"/>
       <c r="AF41" s="187"/>
     </row>
-    <row r="42" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A42" s="445"/>
-      <c r="B42" s="445"/>
+    <row r="42" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A42" s="454"/>
+      <c r="B42" s="454"/>
       <c r="C42" s="187"/>
       <c r="D42" s="187"/>
       <c r="I42" s="187"/>
@@ -65388,9 +65388,9 @@
       <c r="AE42" s="187"/>
       <c r="AF42" s="187"/>
     </row>
-    <row r="43" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A43" s="445"/>
-      <c r="B43" s="445"/>
+    <row r="43" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A43" s="454"/>
+      <c r="B43" s="454"/>
       <c r="C43" s="187"/>
       <c r="D43" s="187"/>
       <c r="I43" s="187"/>
@@ -65403,9 +65403,9 @@
       <c r="AE43" s="187"/>
       <c r="AF43" s="187"/>
     </row>
-    <row r="44" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A44" s="445"/>
-      <c r="B44" s="445"/>
+    <row r="44" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A44" s="454"/>
+      <c r="B44" s="454"/>
       <c r="C44" s="187"/>
       <c r="D44" s="187"/>
       <c r="I44" s="187"/>
@@ -65421,9 +65421,9 @@
       <c r="AE44" s="187"/>
       <c r="AF44" s="187"/>
     </row>
-    <row r="45" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A45" s="445"/>
-      <c r="B45" s="445"/>
+    <row r="45" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A45" s="454"/>
+      <c r="B45" s="454"/>
       <c r="C45" s="187"/>
       <c r="D45" s="187"/>
       <c r="I45" s="187"/>
@@ -65431,18 +65431,18 @@
       <c r="K45" s="187"/>
       <c r="Q45" s="187"/>
       <c r="R45" s="187"/>
-      <c r="T45" s="464" t="s">
+      <c r="T45" s="451" t="s">
         <v>321</v>
       </c>
-      <c r="U45" s="464"/>
+      <c r="U45" s="451"/>
       <c r="X45" s="187"/>
       <c r="Y45" s="187"/>
       <c r="AE45" s="187"/>
       <c r="AF45" s="187"/>
     </row>
-    <row r="46" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A46" s="445"/>
-      <c r="B46" s="445"/>
+    <row r="46" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A46" s="454"/>
+      <c r="B46" s="454"/>
       <c r="C46" s="187"/>
       <c r="D46" s="187"/>
       <c r="I46" s="187"/>
@@ -65450,18 +65450,18 @@
       <c r="K46" s="187"/>
       <c r="Q46" s="187"/>
       <c r="R46" s="187"/>
-      <c r="V46" s="456" t="s">
+      <c r="V46" s="449" t="s">
         <v>322</v>
       </c>
-      <c r="W46" s="456"/>
+      <c r="W46" s="449"/>
       <c r="X46" s="187"/>
       <c r="Y46" s="187"/>
       <c r="AE46" s="187"/>
       <c r="AF46" s="187"/>
     </row>
-    <row r="47" spans="1:32" s="189" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A47" s="445"/>
-      <c r="B47" s="445"/>
+    <row r="47" spans="1:32" s="189" customFormat="1" ht="14">
+      <c r="A47" s="454"/>
+      <c r="B47" s="454"/>
       <c r="C47" s="187"/>
       <c r="D47" s="187"/>
       <c r="I47" s="187"/>
@@ -65472,17 +65472,17 @@
       <c r="W47" s="223"/>
       <c r="X47" s="187"/>
       <c r="Y47" s="187"/>
-      <c r="Z47" s="447" t="s">
+      <c r="Z47" s="452" t="s">
         <v>323</v>
       </c>
-      <c r="AA47" s="447"/>
-      <c r="AB47" s="447"/>
+      <c r="AA47" s="452"/>
+      <c r="AB47" s="452"/>
       <c r="AE47" s="187"/>
       <c r="AF47" s="187"/>
     </row>
-    <row r="48" spans="1:32" s="209" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="446"/>
-      <c r="B48" s="446"/>
+    <row r="48" spans="1:32" s="209" customFormat="1" thickBot="1">
+      <c r="A48" s="455"/>
+      <c r="B48" s="455"/>
       <c r="C48" s="214"/>
       <c r="D48" s="214"/>
       <c r="I48" s="214"/>
@@ -65492,30 +65492,26 @@
       <c r="R48" s="214"/>
       <c r="X48" s="214"/>
       <c r="Y48" s="214"/>
-      <c r="AC48" s="448" t="s">
+      <c r="AC48" s="450" t="s">
         <v>324</v>
       </c>
-      <c r="AD48" s="448"/>
+      <c r="AD48" s="450"/>
       <c r="AE48" s="214"/>
       <c r="AF48" s="214"/>
     </row>
-    <row r="49" ht="15.15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="16" thickTop="1"/>
   </sheetData>
   <autoFilter ref="A1:AA11" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="40">
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="M5:P5"/>
     <mergeCell ref="AA18:AD18"/>
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="B39:B48"/>
@@ -65532,17 +65528,21 @@
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="S25:T25"/>
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="2">
@@ -65570,40 +65570,40 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="139" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="139" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="139" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="139" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="139" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="139" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="139" customWidth="1"/>
     <col min="5" max="6" width="17" style="139" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="139" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="127"/>
-    <col min="10" max="10" width="15.21875" style="139" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="139" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="127"/>
+    <col min="10" max="10" width="15.1640625" style="139" customWidth="1"/>
     <col min="11" max="11" width="16" style="139" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="139" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="139"/>
-    <col min="15" max="15" width="15.109375" style="127" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" style="127" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="139" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="139"/>
+    <col min="15" max="15" width="15.1640625" style="127" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="127" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" style="139" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" style="139" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="139" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" style="139" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" style="139" customWidth="1"/>
-    <col min="22" max="23" width="8.88671875" style="127"/>
-    <col min="24" max="24" width="17.77734375" style="139" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" style="139" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="139" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="139" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="139" customWidth="1"/>
+    <col min="22" max="23" width="8.83203125" style="127"/>
+    <col min="24" max="24" width="17.83203125" style="139" customWidth="1"/>
     <col min="25" max="25" width="17.6640625" style="139" customWidth="1"/>
-    <col min="26" max="26" width="16.5546875" style="139" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" style="139" customWidth="1"/>
-    <col min="28" max="28" width="17.44140625" style="139" customWidth="1"/>
-    <col min="29" max="30" width="8.88671875" style="127"/>
+    <col min="26" max="26" width="16.5" style="139" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" style="139" customWidth="1"/>
+    <col min="28" max="28" width="17.5" style="139" customWidth="1"/>
+    <col min="29" max="30" width="8.83203125" style="127"/>
     <col min="31" max="31" width="13" style="139" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" style="139" customWidth="1"/>
-    <col min="33" max="33" width="13.5546875" style="139" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="139"/>
+    <col min="33" max="33" width="13.5" style="139" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" s="251" customFormat="1" ht="18.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:264" s="251" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="287" t="s">
         <v>328</v>
       </c>
@@ -65965,31 +65965,31 @@
       <c r="JC1" s="290"/>
       <c r="JD1" s="290"/>
     </row>
-    <row r="2" spans="1:264" s="238" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A2" s="497" t="s">
+    <row r="2" spans="1:264" s="238" customFormat="1" ht="14">
+      <c r="A2" s="465" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="471" t="s">
+      <c r="B2" s="469" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="508" t="s">
+      <c r="C2" s="472" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="509"/>
-      <c r="E2" s="514" t="s">
+      <c r="D2" s="473"/>
+      <c r="E2" s="478" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="515"/>
-      <c r="G2" s="516"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="480"/>
       <c r="H2" s="239"/>
       <c r="I2" s="239"/>
-      <c r="J2" s="517" t="s">
+      <c r="J2" s="481" t="s">
         <v>333</v>
       </c>
-      <c r="K2" s="518"/>
+      <c r="K2" s="482"/>
       <c r="O2" s="239"/>
       <c r="P2" s="239"/>
-      <c r="U2" s="504" t="s">
+      <c r="U2" s="486" t="s">
         <v>332</v>
       </c>
       <c r="V2" s="239"/>
@@ -65997,11 +65997,11 @@
       <c r="AC2" s="239"/>
       <c r="AD2" s="239"/>
     </row>
-    <row r="3" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A3" s="507"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="510"/>
-      <c r="D3" s="511"/>
+    <row r="3" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A3" s="466"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="474"/>
+      <c r="D3" s="475"/>
       <c r="H3" s="234"/>
       <c r="I3" s="234"/>
       <c r="L3" s="237" t="s">
@@ -66009,53 +66009,53 @@
       </c>
       <c r="O3" s="234"/>
       <c r="P3" s="234"/>
-      <c r="U3" s="505"/>
+      <c r="U3" s="487"/>
       <c r="V3" s="234"/>
       <c r="W3" s="234"/>
       <c r="AC3" s="234"/>
       <c r="AD3" s="234"/>
     </row>
-    <row r="4" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A4" s="498"/>
-      <c r="B4" s="472"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="511"/>
+    <row r="4" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A4" s="467"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="474"/>
+      <c r="D4" s="475"/>
       <c r="H4" s="234"/>
       <c r="I4" s="234"/>
-      <c r="M4" s="450" t="s">
+      <c r="M4" s="446" t="s">
         <v>335</v>
       </c>
-      <c r="N4" s="452"/>
+      <c r="N4" s="448"/>
       <c r="O4" s="234"/>
       <c r="P4" s="234"/>
-      <c r="U4" s="505"/>
+      <c r="U4" s="487"/>
       <c r="V4" s="234"/>
       <c r="W4" s="234"/>
       <c r="AC4" s="234"/>
       <c r="AD4" s="234"/>
     </row>
-    <row r="5" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A5" s="498"/>
-      <c r="B5" s="472"/>
-      <c r="C5" s="510"/>
-      <c r="D5" s="511"/>
+    <row r="5" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A5" s="467"/>
+      <c r="B5" s="470"/>
+      <c r="C5" s="474"/>
+      <c r="D5" s="475"/>
       <c r="H5" s="234"/>
       <c r="I5" s="234"/>
       <c r="O5" s="237" t="s">
         <v>336</v>
       </c>
       <c r="P5" s="234"/>
-      <c r="U5" s="505"/>
+      <c r="U5" s="487"/>
       <c r="V5" s="234"/>
       <c r="W5" s="234"/>
       <c r="AC5" s="234"/>
       <c r="AD5" s="234"/>
     </row>
-    <row r="6" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A6" s="498"/>
-      <c r="B6" s="472"/>
-      <c r="C6" s="510"/>
-      <c r="D6" s="511"/>
+    <row r="6" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A6" s="467"/>
+      <c r="B6" s="470"/>
+      <c r="C6" s="474"/>
+      <c r="D6" s="475"/>
       <c r="H6" s="234"/>
       <c r="I6" s="234"/>
       <c r="O6" s="234"/>
@@ -66063,17 +66063,17 @@
       <c r="Q6" s="237" t="s">
         <v>337</v>
       </c>
-      <c r="U6" s="505"/>
+      <c r="U6" s="487"/>
       <c r="V6" s="234"/>
       <c r="W6" s="234"/>
       <c r="AC6" s="234"/>
       <c r="AD6" s="234"/>
     </row>
-    <row r="7" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A7" s="498"/>
-      <c r="B7" s="472"/>
-      <c r="C7" s="510"/>
-      <c r="D7" s="511"/>
+    <row r="7" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A7" s="467"/>
+      <c r="B7" s="470"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="475"/>
       <c r="H7" s="234"/>
       <c r="I7" s="234"/>
       <c r="O7" s="234"/>
@@ -66081,26 +66081,26 @@
       <c r="R7" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="U7" s="505"/>
+      <c r="U7" s="487"/>
       <c r="V7" s="234"/>
       <c r="W7" s="234"/>
       <c r="AC7" s="234"/>
       <c r="AD7" s="234"/>
     </row>
-    <row r="8" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A8" s="498"/>
-      <c r="B8" s="472"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="511"/>
+    <row r="8" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A8" s="467"/>
+      <c r="B8" s="470"/>
+      <c r="C8" s="474"/>
+      <c r="D8" s="475"/>
       <c r="H8" s="234"/>
       <c r="I8" s="234"/>
       <c r="O8" s="234"/>
       <c r="P8" s="234"/>
-      <c r="S8" s="450" t="s">
+      <c r="S8" s="446" t="s">
         <v>339</v>
       </c>
-      <c r="T8" s="452"/>
-      <c r="U8" s="505"/>
+      <c r="T8" s="448"/>
+      <c r="U8" s="487"/>
       <c r="V8" s="234"/>
       <c r="W8" s="234"/>
       <c r="X8" s="240" t="s">
@@ -66109,94 +66109,94 @@
       <c r="AC8" s="234"/>
       <c r="AD8" s="234"/>
     </row>
-    <row r="9" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A9" s="498"/>
-      <c r="B9" s="472"/>
-      <c r="C9" s="510"/>
-      <c r="D9" s="511"/>
+    <row r="9" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A9" s="467"/>
+      <c r="B9" s="470"/>
+      <c r="C9" s="474"/>
+      <c r="D9" s="475"/>
       <c r="H9" s="234"/>
       <c r="I9" s="234"/>
       <c r="O9" s="234"/>
       <c r="P9" s="234"/>
-      <c r="U9" s="505"/>
+      <c r="U9" s="487"/>
       <c r="V9" s="234"/>
       <c r="W9" s="234"/>
-      <c r="Y9" s="501" t="s">
+      <c r="Y9" s="483" t="s">
         <v>340</v>
       </c>
-      <c r="Z9" s="502"/>
-      <c r="AA9" s="502"/>
-      <c r="AB9" s="503"/>
+      <c r="Z9" s="484"/>
+      <c r="AA9" s="484"/>
+      <c r="AB9" s="485"/>
       <c r="AC9" s="234"/>
       <c r="AD9" s="234"/>
     </row>
-    <row r="10" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A10" s="498"/>
-      <c r="B10" s="472"/>
-      <c r="C10" s="510"/>
-      <c r="D10" s="511"/>
+    <row r="10" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A10" s="467"/>
+      <c r="B10" s="470"/>
+      <c r="C10" s="474"/>
+      <c r="D10" s="475"/>
       <c r="H10" s="234"/>
       <c r="I10" s="234"/>
       <c r="O10" s="234"/>
       <c r="P10" s="234"/>
-      <c r="U10" s="505"/>
+      <c r="U10" s="487"/>
       <c r="V10" s="234"/>
       <c r="W10" s="234"/>
       <c r="AC10" s="234"/>
       <c r="AD10" s="234"/>
-      <c r="AE10" s="450" t="s">
+      <c r="AE10" s="446" t="s">
         <v>335</v>
       </c>
-      <c r="AF10" s="451"/>
-      <c r="AG10" s="452"/>
+      <c r="AF10" s="447"/>
+      <c r="AG10" s="448"/>
     </row>
-    <row r="11" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A11" s="498"/>
-      <c r="B11" s="472"/>
-      <c r="C11" s="510"/>
-      <c r="D11" s="511"/>
+    <row r="11" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A11" s="467"/>
+      <c r="B11" s="470"/>
+      <c r="C11" s="474"/>
+      <c r="D11" s="475"/>
       <c r="H11" s="234"/>
       <c r="I11" s="234"/>
       <c r="O11" s="234"/>
       <c r="P11" s="234"/>
-      <c r="U11" s="505"/>
+      <c r="U11" s="487"/>
       <c r="V11" s="234"/>
       <c r="W11" s="234"/>
       <c r="AC11" s="234"/>
       <c r="AD11" s="234"/>
     </row>
-    <row r="12" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A12" s="498"/>
-      <c r="B12" s="472"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="511"/>
+    <row r="12" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A12" s="467"/>
+      <c r="B12" s="470"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="475"/>
       <c r="H12" s="234"/>
       <c r="I12" s="234"/>
       <c r="O12" s="241"/>
       <c r="P12" s="234"/>
-      <c r="U12" s="505"/>
+      <c r="U12" s="487"/>
       <c r="V12" s="234"/>
       <c r="W12" s="234"/>
       <c r="AC12" s="234"/>
       <c r="AD12" s="234"/>
     </row>
-    <row r="13" spans="1:264" s="242" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="499"/>
-      <c r="B13" s="473"/>
-      <c r="C13" s="512"/>
-      <c r="D13" s="513"/>
+    <row r="13" spans="1:264" s="242" customFormat="1" thickBot="1">
+      <c r="A13" s="468"/>
+      <c r="B13" s="471"/>
+      <c r="C13" s="476"/>
+      <c r="D13" s="477"/>
       <c r="H13" s="243"/>
       <c r="I13" s="243"/>
       <c r="O13" s="243"/>
       <c r="P13" s="243"/>
-      <c r="U13" s="506"/>
+      <c r="U13" s="488"/>
       <c r="V13" s="243"/>
       <c r="W13" s="243"/>
       <c r="AC13" s="243"/>
       <c r="AD13" s="243"/>
     </row>
-    <row r="14" spans="1:264" s="238" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A14" s="497" t="s">
+    <row r="14" spans="1:264" s="238" customFormat="1" ht="14">
+      <c r="A14" s="465" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="494" t="s">
@@ -66214,8 +66214,8 @@
       <c r="AC14" s="239"/>
       <c r="AD14" s="239"/>
     </row>
-    <row r="15" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A15" s="498"/>
+    <row r="15" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A15" s="467"/>
       <c r="B15" s="495"/>
       <c r="D15" s="235" t="s">
         <v>342</v>
@@ -66229,14 +66229,14 @@
       <c r="AC15" s="234"/>
       <c r="AD15" s="234"/>
     </row>
-    <row r="16" spans="1:264" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A16" s="498"/>
+    <row r="16" spans="1:264" s="233" customFormat="1" ht="14">
+      <c r="A16" s="467"/>
       <c r="B16" s="495"/>
-      <c r="E16" s="447" t="s">
+      <c r="E16" s="452" t="s">
         <v>306</v>
       </c>
-      <c r="F16" s="447"/>
-      <c r="G16" s="447"/>
+      <c r="F16" s="452"/>
+      <c r="G16" s="452"/>
       <c r="H16" s="234"/>
       <c r="I16" s="234"/>
       <c r="O16" s="234"/>
@@ -66246,21 +66246,21 @@
       <c r="AC16" s="234"/>
       <c r="AD16" s="234"/>
     </row>
-    <row r="17" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A17" s="498"/>
+    <row r="17" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A17" s="467"/>
       <c r="B17" s="495"/>
       <c r="G17" s="235" t="s">
         <v>343</v>
       </c>
       <c r="H17" s="234"/>
       <c r="I17" s="234"/>
-      <c r="J17" s="500" t="s">
+      <c r="J17" s="489" t="s">
         <v>343</v>
       </c>
-      <c r="K17" s="500"/>
-      <c r="L17" s="500"/>
-      <c r="M17" s="500"/>
-      <c r="N17" s="500"/>
+      <c r="K17" s="489"/>
+      <c r="L17" s="489"/>
+      <c r="M17" s="489"/>
+      <c r="N17" s="489"/>
       <c r="O17" s="234"/>
       <c r="P17" s="234"/>
       <c r="V17" s="234"/>
@@ -66268,24 +66268,24 @@
       <c r="AC17" s="234"/>
       <c r="AD17" s="234"/>
     </row>
-    <row r="18" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A18" s="498"/>
+    <row r="18" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A18" s="467"/>
       <c r="B18" s="495"/>
       <c r="H18" s="234"/>
       <c r="I18" s="234"/>
-      <c r="M18" s="450" t="s">
+      <c r="M18" s="446" t="s">
         <v>305</v>
       </c>
-      <c r="N18" s="451"/>
-      <c r="O18" s="452"/>
+      <c r="N18" s="447"/>
+      <c r="O18" s="448"/>
       <c r="P18" s="234"/>
       <c r="V18" s="234"/>
       <c r="W18" s="234"/>
       <c r="AC18" s="234"/>
       <c r="AD18" s="234"/>
     </row>
-    <row r="19" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A19" s="498"/>
+    <row r="19" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A19" s="467"/>
       <c r="B19" s="495"/>
       <c r="H19" s="234"/>
       <c r="I19" s="234"/>
@@ -66299,40 +66299,40 @@
       <c r="AC19" s="234"/>
       <c r="AD19" s="234"/>
     </row>
-    <row r="20" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A20" s="498"/>
+    <row r="20" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A20" s="467"/>
       <c r="B20" s="495"/>
       <c r="H20" s="234"/>
       <c r="I20" s="234"/>
       <c r="O20" s="234"/>
       <c r="P20" s="234"/>
-      <c r="R20" s="447" t="s">
+      <c r="R20" s="452" t="s">
         <v>323</v>
       </c>
-      <c r="S20" s="447"/>
+      <c r="S20" s="452"/>
       <c r="V20" s="234"/>
       <c r="W20" s="234"/>
       <c r="AC20" s="234"/>
       <c r="AD20" s="234"/>
     </row>
-    <row r="21" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A21" s="498"/>
+    <row r="21" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A21" s="467"/>
       <c r="B21" s="495"/>
       <c r="H21" s="234"/>
       <c r="I21" s="234"/>
       <c r="O21" s="234"/>
       <c r="P21" s="234"/>
-      <c r="S21" s="447" t="s">
+      <c r="S21" s="452" t="s">
         <v>345</v>
       </c>
-      <c r="T21" s="447"/>
+      <c r="T21" s="452"/>
       <c r="V21" s="234"/>
       <c r="W21" s="234"/>
       <c r="AC21" s="234"/>
       <c r="AD21" s="234"/>
     </row>
-    <row r="22" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A22" s="498"/>
+    <row r="22" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A22" s="467"/>
       <c r="B22" s="495"/>
       <c r="H22" s="234"/>
       <c r="I22" s="234"/>
@@ -66349,8 +66349,8 @@
       <c r="AC22" s="234"/>
       <c r="AD22" s="234"/>
     </row>
-    <row r="23" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A23" s="498"/>
+    <row r="23" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A23" s="467"/>
       <c r="B23" s="495"/>
       <c r="H23" s="234"/>
       <c r="I23" s="234"/>
@@ -66358,15 +66358,15 @@
       <c r="P23" s="234"/>
       <c r="V23" s="234"/>
       <c r="W23" s="234"/>
-      <c r="X23" s="447" t="s">
+      <c r="X23" s="452" t="s">
         <v>345</v>
       </c>
-      <c r="Y23" s="447"/>
+      <c r="Y23" s="452"/>
       <c r="AC23" s="234"/>
       <c r="AD23" s="234"/>
     </row>
-    <row r="24" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A24" s="498"/>
+    <row r="24" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A24" s="467"/>
       <c r="B24" s="495"/>
       <c r="H24" s="234"/>
       <c r="I24" s="234"/>
@@ -66374,15 +66374,15 @@
       <c r="P24" s="234"/>
       <c r="V24" s="234"/>
       <c r="W24" s="234"/>
-      <c r="Z24" s="447" t="s">
+      <c r="Z24" s="452" t="s">
         <v>348</v>
       </c>
-      <c r="AA24" s="447"/>
+      <c r="AA24" s="452"/>
       <c r="AC24" s="234"/>
       <c r="AD24" s="234"/>
     </row>
-    <row r="25" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A25" s="498"/>
+    <row r="25" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A25" s="467"/>
       <c r="B25" s="495"/>
       <c r="H25" s="234"/>
       <c r="I25" s="234"/>
@@ -66399,8 +66399,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="242" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="499"/>
+    <row r="26" spans="1:33" s="242" customFormat="1" thickBot="1">
+      <c r="A26" s="468"/>
       <c r="B26" s="496"/>
       <c r="H26" s="243"/>
       <c r="I26" s="243"/>
@@ -66415,11 +66415,11 @@
       </c>
       <c r="AG26" s="493"/>
     </row>
-    <row r="27" spans="1:33" s="238" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A27" s="468" t="s">
+    <row r="27" spans="1:33" s="238" customFormat="1" ht="16">
+      <c r="A27" s="500" t="s">
         <v>357</v>
       </c>
-      <c r="B27" s="471" t="s">
+      <c r="B27" s="469" t="s">
         <v>350</v>
       </c>
       <c r="C27" s="250" t="s">
@@ -66434,9 +66434,9 @@
       <c r="AC27" s="239"/>
       <c r="AD27" s="239"/>
     </row>
-    <row r="28" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A28" s="469"/>
-      <c r="B28" s="472"/>
+    <row r="28" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A28" s="501"/>
+      <c r="B28" s="470"/>
       <c r="D28" s="490" t="s">
         <v>298</v>
       </c>
@@ -66450,9 +66450,9 @@
       <c r="AC28" s="234"/>
       <c r="AD28" s="234"/>
     </row>
-    <row r="29" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A29" s="469"/>
-      <c r="B29" s="472"/>
+    <row r="29" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A29" s="501"/>
+      <c r="B29" s="470"/>
       <c r="F29" s="490" t="s">
         <v>352</v>
       </c>
@@ -66469,9 +66469,9 @@
       <c r="AC29" s="234"/>
       <c r="AD29" s="234"/>
     </row>
-    <row r="30" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A30" s="469"/>
-      <c r="B30" s="472"/>
+    <row r="30" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A30" s="501"/>
+      <c r="B30" s="470"/>
       <c r="H30" s="234"/>
       <c r="I30" s="234"/>
       <c r="K30" s="249" t="s">
@@ -66484,9 +66484,9 @@
       <c r="AC30" s="234"/>
       <c r="AD30" s="234"/>
     </row>
-    <row r="31" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A31" s="469"/>
-      <c r="B31" s="472"/>
+    <row r="31" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A31" s="501"/>
+      <c r="B31" s="470"/>
       <c r="H31" s="234"/>
       <c r="I31" s="234"/>
       <c r="L31" s="237"/>
@@ -66501,9 +66501,9 @@
       <c r="AC31" s="234"/>
       <c r="AD31" s="234"/>
     </row>
-    <row r="32" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A32" s="469"/>
-      <c r="B32" s="472"/>
+    <row r="32" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A32" s="501"/>
+      <c r="B32" s="470"/>
       <c r="H32" s="234"/>
       <c r="I32" s="234"/>
       <c r="O32" s="245" t="s">
@@ -66519,9 +66519,9 @@
       <c r="AC32" s="234"/>
       <c r="AD32" s="234"/>
     </row>
-    <row r="33" spans="1:33" s="233" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A33" s="469"/>
-      <c r="B33" s="472"/>
+    <row r="33" spans="1:33" s="233" customFormat="1" ht="16">
+      <c r="A33" s="501"/>
+      <c r="B33" s="470"/>
       <c r="H33" s="234"/>
       <c r="I33" s="234"/>
       <c r="O33" s="234"/>
@@ -66539,26 +66539,26 @@
       <c r="AC33" s="234"/>
       <c r="AD33" s="234"/>
     </row>
-    <row r="34" spans="1:33" s="233" customFormat="1" ht="13.95" x14ac:dyDescent="0.25">
-      <c r="A34" s="469"/>
-      <c r="B34" s="472"/>
+    <row r="34" spans="1:33" s="233" customFormat="1" ht="14">
+      <c r="A34" s="501"/>
+      <c r="B34" s="470"/>
       <c r="H34" s="234"/>
       <c r="I34" s="234"/>
       <c r="O34" s="234"/>
       <c r="P34" s="234"/>
       <c r="V34" s="234"/>
       <c r="W34" s="234"/>
-      <c r="Y34" s="450" t="s">
+      <c r="Y34" s="446" t="s">
         <v>355</v>
       </c>
-      <c r="Z34" s="451"/>
-      <c r="AA34" s="452"/>
+      <c r="Z34" s="447"/>
+      <c r="AA34" s="448"/>
       <c r="AC34" s="234"/>
       <c r="AD34" s="234"/>
     </row>
-    <row r="35" spans="1:33" s="251" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="470"/>
-      <c r="B35" s="473"/>
+    <row r="35" spans="1:33" s="251" customFormat="1" thickBot="1">
+      <c r="A35" s="502"/>
+      <c r="B35" s="471"/>
       <c r="H35" s="252"/>
       <c r="I35" s="252"/>
       <c r="O35" s="252"/>
@@ -66570,25 +66570,25 @@
       </c>
       <c r="AC35" s="252"/>
       <c r="AD35" s="252"/>
-      <c r="AE35" s="465" t="s">
+      <c r="AE35" s="497" t="s">
         <v>356</v>
       </c>
-      <c r="AF35" s="466"/>
-      <c r="AG35" s="467"/>
+      <c r="AF35" s="498"/>
+      <c r="AG35" s="499"/>
     </row>
-    <row r="36" spans="1:33" s="264" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A36" s="474" t="s">
+    <row r="36" spans="1:33" s="264" customFormat="1" ht="16">
+      <c r="A36" s="503" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="477" t="s">
+      <c r="B36" s="506" t="s">
         <v>315</v>
       </c>
       <c r="C36" s="254" t="s">
         <v>322</v>
       </c>
       <c r="D36" s="260"/>
-      <c r="E36" s="480"/>
-      <c r="F36" s="480"/>
+      <c r="E36" s="509"/>
+      <c r="F36" s="509"/>
       <c r="G36" s="261"/>
       <c r="H36" s="262"/>
       <c r="I36" s="263"/>
@@ -66617,14 +66617,14 @@
       <c r="AF36" s="260"/>
       <c r="AG36" s="261"/>
     </row>
-    <row r="37" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A37" s="475"/>
-      <c r="B37" s="478"/>
+    <row r="37" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A37" s="504"/>
+      <c r="B37" s="507"/>
       <c r="C37" s="265"/>
-      <c r="D37" s="481" t="s">
+      <c r="D37" s="510" t="s">
         <v>318</v>
       </c>
-      <c r="E37" s="481"/>
+      <c r="E37" s="510"/>
       <c r="F37" s="266"/>
       <c r="G37" s="255"/>
       <c r="H37" s="267"/>
@@ -66654,9 +66654,9 @@
       <c r="AF37" s="265"/>
       <c r="AG37" s="266"/>
     </row>
-    <row r="38" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A38" s="475"/>
-      <c r="B38" s="478"/>
+    <row r="38" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A38" s="504"/>
+      <c r="B38" s="507"/>
       <c r="C38" s="265"/>
       <c r="D38" s="265"/>
       <c r="E38" s="266"/>
@@ -66691,9 +66691,9 @@
       <c r="AF38" s="265"/>
       <c r="AG38" s="266"/>
     </row>
-    <row r="39" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A39" s="475"/>
-      <c r="B39" s="478"/>
+    <row r="39" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A39" s="504"/>
+      <c r="B39" s="507"/>
       <c r="C39" s="265"/>
       <c r="D39" s="265"/>
       <c r="E39" s="266"/>
@@ -66728,9 +66728,9 @@
       <c r="AD39" s="267"/>
       <c r="AE39" s="266"/>
     </row>
-    <row r="40" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A40" s="475"/>
-      <c r="B40" s="478"/>
+    <row r="40" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A40" s="504"/>
+      <c r="B40" s="507"/>
       <c r="C40" s="265"/>
       <c r="D40" s="265"/>
       <c r="E40" s="266"/>
@@ -66739,10 +66739,10 @@
       <c r="H40" s="267"/>
       <c r="I40" s="268"/>
       <c r="J40" s="265"/>
-      <c r="K40" s="481" t="s">
+      <c r="K40" s="510" t="s">
         <v>359</v>
       </c>
-      <c r="L40" s="481"/>
+      <c r="L40" s="510"/>
       <c r="M40" s="258"/>
       <c r="N40" s="258"/>
       <c r="O40" s="257"/>
@@ -66762,9 +66762,9 @@
       <c r="AC40" s="268"/>
       <c r="AD40" s="268"/>
     </row>
-    <row r="41" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A41" s="475"/>
-      <c r="B41" s="478"/>
+    <row r="41" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A41" s="504"/>
+      <c r="B41" s="507"/>
       <c r="C41" s="265"/>
       <c r="D41" s="265"/>
       <c r="E41" s="266"/>
@@ -66775,11 +66775,11 @@
       <c r="J41" s="265"/>
       <c r="K41" s="265"/>
       <c r="L41" s="266"/>
-      <c r="M41" s="482" t="s">
+      <c r="M41" s="511" t="s">
         <v>321</v>
       </c>
-      <c r="N41" s="482"/>
-      <c r="O41" s="482"/>
+      <c r="N41" s="511"/>
+      <c r="O41" s="511"/>
       <c r="P41" s="267"/>
       <c r="Q41" s="265"/>
       <c r="R41" s="265"/>
@@ -66799,9 +66799,9 @@
       <c r="AF41" s="265"/>
       <c r="AG41" s="266"/>
     </row>
-    <row r="42" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A42" s="475"/>
-      <c r="B42" s="478"/>
+    <row r="42" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A42" s="504"/>
+      <c r="B42" s="507"/>
       <c r="C42" s="265"/>
       <c r="D42" s="265"/>
       <c r="E42" s="266"/>
@@ -66816,13 +66816,13 @@
       <c r="N42" s="266"/>
       <c r="O42" s="267"/>
       <c r="P42" s="267"/>
-      <c r="Q42" s="482" t="s">
+      <c r="Q42" s="511" t="s">
         <v>321</v>
       </c>
-      <c r="R42" s="482"/>
-      <c r="S42" s="482"/>
-      <c r="T42" s="482"/>
-      <c r="U42" s="482"/>
+      <c r="R42" s="511"/>
+      <c r="S42" s="511"/>
+      <c r="T42" s="511"/>
+      <c r="U42" s="511"/>
       <c r="V42" s="267"/>
       <c r="W42" s="267"/>
       <c r="AA42" s="279"/>
@@ -66833,9 +66833,9 @@
       <c r="AF42" s="265"/>
       <c r="AG42" s="266"/>
     </row>
-    <row r="43" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A43" s="475"/>
-      <c r="B43" s="478"/>
+    <row r="43" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A43" s="504"/>
+      <c r="B43" s="507"/>
       <c r="C43" s="265"/>
       <c r="D43" s="265"/>
       <c r="E43" s="266"/>
@@ -66859,11 +66859,11 @@
       </c>
       <c r="V43" s="259"/>
       <c r="W43" s="259"/>
-      <c r="X43" s="484" t="s">
+      <c r="X43" s="513" t="s">
         <v>360</v>
       </c>
-      <c r="Y43" s="485"/>
-      <c r="Z43" s="486"/>
+      <c r="Y43" s="514"/>
+      <c r="Z43" s="515"/>
       <c r="AA43" s="279"/>
       <c r="AB43" s="279"/>
       <c r="AC43" s="267"/>
@@ -66872,9 +66872,9 @@
       <c r="AF43" s="265"/>
       <c r="AG43" s="266"/>
     </row>
-    <row r="44" spans="1:33" s="269" customFormat="1" ht="15.15" x14ac:dyDescent="0.25">
-      <c r="A44" s="475"/>
-      <c r="B44" s="478"/>
+    <row r="44" spans="1:33" s="269" customFormat="1" ht="16">
+      <c r="A44" s="504"/>
+      <c r="B44" s="507"/>
       <c r="C44" s="265"/>
       <c r="D44" s="265"/>
       <c r="E44" s="266"/>
@@ -66899,21 +66899,21 @@
       <c r="X44" s="283"/>
       <c r="Y44" s="278"/>
       <c r="Z44" s="286"/>
-      <c r="AA44" s="484" t="s">
+      <c r="AA44" s="513" t="s">
         <v>362</v>
       </c>
-      <c r="AB44" s="486"/>
+      <c r="AB44" s="515"/>
       <c r="AC44" s="267"/>
       <c r="AD44" s="267"/>
-      <c r="AE44" s="487" t="s">
+      <c r="AE44" s="516" t="s">
         <v>361</v>
       </c>
-      <c r="AF44" s="488"/>
-      <c r="AG44" s="489"/>
+      <c r="AF44" s="517"/>
+      <c r="AG44" s="518"/>
     </row>
-    <row r="45" spans="1:33" s="275" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="476"/>
-      <c r="B45" s="479"/>
+    <row r="45" spans="1:33" s="275" customFormat="1" ht="17" thickBot="1">
+      <c r="A45" s="505"/>
+      <c r="B45" s="508"/>
       <c r="C45" s="271"/>
       <c r="D45" s="271"/>
       <c r="E45" s="272"/>
@@ -66940,13 +66940,13 @@
       <c r="Z45" s="281"/>
       <c r="AA45" s="281"/>
       <c r="AB45" s="281"/>
-      <c r="AC45" s="483"/>
-      <c r="AD45" s="483"/>
+      <c r="AC45" s="512"/>
+      <c r="AD45" s="512"/>
       <c r="AE45" s="271"/>
       <c r="AF45" s="271"/>
       <c r="AG45" s="272"/>
     </row>
-    <row r="46" spans="1:33" s="232" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="232" customFormat="1">
       <c r="H46" s="236"/>
       <c r="I46" s="236"/>
       <c r="O46" s="236"/>
@@ -66958,29 +66958,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:D13"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U2:U13"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="B14:B26"/>
     <mergeCell ref="AE35:AG35"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="B27:B35"/>
@@ -66997,6 +66974,29 @@
     <mergeCell ref="AE44:AG44"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U2:U13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:D13"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="1">
